--- a/Others/Kit File/Daily Sales Info.xlsx
+++ b/Others/Kit File/Daily Sales Info.xlsx
@@ -173,9 +173,6 @@
     <t>Date:</t>
   </si>
   <si>
-    <t>Date:01.07.2021</t>
-  </si>
-  <si>
     <t>Sojib</t>
   </si>
   <si>
@@ -192,6 +189,9 @@
   </si>
   <si>
     <t>Hafijul</t>
+  </si>
+  <si>
+    <t>Date:01.09.2021</t>
   </si>
 </sst>
 </file>
@@ -12961,7 +12961,7 @@
   <dimension ref="A1:T30"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H14" sqref="H14"/>
+      <selection activeCell="F15" sqref="F15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -13024,7 +13024,7 @@
     </row>
     <row r="3" spans="1:20" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A3" s="63" t="s">
-        <v>42</v>
+        <v>48</v>
       </c>
       <c r="B3" s="64"/>
       <c r="C3" s="65"/>
@@ -13052,15 +13052,33 @@
       </c>
       <c r="B4" s="67"/>
       <c r="C4" s="1"/>
-      <c r="D4" s="2"/>
-      <c r="E4" s="2"/>
-      <c r="F4" s="2"/>
-      <c r="G4" s="2"/>
-      <c r="H4" s="2"/>
-      <c r="I4" s="2"/>
-      <c r="J4" s="2"/>
-      <c r="K4" s="2"/>
-      <c r="L4" s="3"/>
+      <c r="D4" s="2">
+        <v>430730</v>
+      </c>
+      <c r="E4" s="2">
+        <v>4360</v>
+      </c>
+      <c r="F4" s="2">
+        <v>10390</v>
+      </c>
+      <c r="G4" s="2">
+        <v>70</v>
+      </c>
+      <c r="H4" s="2">
+        <v>14575</v>
+      </c>
+      <c r="I4" s="2">
+        <v>1131</v>
+      </c>
+      <c r="J4" s="2">
+        <v>388</v>
+      </c>
+      <c r="K4" s="2">
+        <v>155</v>
+      </c>
+      <c r="L4" s="3">
+        <v>50</v>
+      </c>
       <c r="M4" s="3"/>
       <c r="N4" s="68"/>
       <c r="O4" s="68"/>
@@ -13440,7 +13458,7 @@
         <v>1908446140</v>
       </c>
       <c r="C13" s="20" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D13" s="29"/>
       <c r="E13" s="30"/>
@@ -13670,7 +13688,7 @@
         <v>1908446145</v>
       </c>
       <c r="C18" s="31" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D18" s="29"/>
       <c r="E18" s="30"/>
@@ -13716,7 +13734,7 @@
         <v>1908446146</v>
       </c>
       <c r="C19" s="20" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D19" s="29"/>
       <c r="E19" s="30"/>
@@ -13762,7 +13780,7 @@
         <v>1908446147</v>
       </c>
       <c r="C20" s="20" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D20" s="29"/>
       <c r="E20" s="30"/>
@@ -13808,7 +13826,7 @@
         <v>1908446148</v>
       </c>
       <c r="C21" s="20" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D21" s="29"/>
       <c r="E21" s="30"/>
@@ -14038,7 +14056,7 @@
         <v>1908446153</v>
       </c>
       <c r="C26" s="36" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="D26" s="29"/>
       <c r="E26" s="29"/>
@@ -14205,39 +14223,39 @@
       <c r="C29" s="58"/>
       <c r="D29" s="48">
         <f>D4+D5-D28</f>
-        <v>0</v>
+        <v>430730</v>
       </c>
       <c r="E29" s="48">
         <f t="shared" ref="E29:L29" si="8">E4+E5-E28</f>
-        <v>0</v>
+        <v>4360</v>
       </c>
       <c r="F29" s="48">
         <f t="shared" si="8"/>
-        <v>0</v>
+        <v>10390</v>
       </c>
       <c r="G29" s="48">
         <f t="shared" si="8"/>
-        <v>0</v>
+        <v>70</v>
       </c>
       <c r="H29" s="48">
         <f t="shared" si="8"/>
-        <v>0</v>
+        <v>14575</v>
       </c>
       <c r="I29" s="48">
         <f t="shared" si="8"/>
-        <v>0</v>
+        <v>1131</v>
       </c>
       <c r="J29" s="48">
         <f t="shared" si="8"/>
-        <v>0</v>
+        <v>388</v>
       </c>
       <c r="K29" s="48">
         <f t="shared" si="8"/>
-        <v>0</v>
+        <v>155</v>
       </c>
       <c r="L29" s="48">
         <f t="shared" si="8"/>
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="M29" s="59"/>
       <c r="N29" s="60"/>
@@ -14572,39 +14590,39 @@
       <c r="C4" s="1"/>
       <c r="D4" s="2">
         <f>'9'!D29</f>
-        <v>0</v>
+        <v>430730</v>
       </c>
       <c r="E4" s="2">
         <f>'9'!E29</f>
-        <v>0</v>
+        <v>4360</v>
       </c>
       <c r="F4" s="2">
         <f>'9'!F29</f>
-        <v>0</v>
+        <v>10390</v>
       </c>
       <c r="G4" s="2">
         <f>'9'!G29</f>
-        <v>0</v>
+        <v>70</v>
       </c>
       <c r="H4" s="2">
         <f>'9'!H29</f>
-        <v>0</v>
+        <v>14575</v>
       </c>
       <c r="I4" s="2">
         <f>'9'!I29</f>
-        <v>0</v>
+        <v>1131</v>
       </c>
       <c r="J4" s="2">
         <f>'9'!J29</f>
-        <v>0</v>
+        <v>388</v>
       </c>
       <c r="K4" s="2">
         <f>'9'!K29</f>
-        <v>0</v>
+        <v>155</v>
       </c>
       <c r="L4" s="2">
         <f>'9'!L29</f>
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="M4" s="3"/>
       <c r="N4" s="68"/>
@@ -14985,7 +15003,7 @@
         <v>1908446140</v>
       </c>
       <c r="C13" s="20" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D13" s="29"/>
       <c r="E13" s="30"/>
@@ -15215,7 +15233,7 @@
         <v>1908446145</v>
       </c>
       <c r="C18" s="31" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D18" s="29"/>
       <c r="E18" s="30"/>
@@ -15261,7 +15279,7 @@
         <v>1908446146</v>
       </c>
       <c r="C19" s="20" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D19" s="29"/>
       <c r="E19" s="30"/>
@@ -15307,7 +15325,7 @@
         <v>1908446147</v>
       </c>
       <c r="C20" s="20" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D20" s="29"/>
       <c r="E20" s="30"/>
@@ -15353,7 +15371,7 @@
         <v>1908446148</v>
       </c>
       <c r="C21" s="20" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D21" s="29"/>
       <c r="E21" s="30"/>
@@ -15583,7 +15601,7 @@
         <v>1908446153</v>
       </c>
       <c r="C26" s="36" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="D26" s="29"/>
       <c r="E26" s="29"/>
@@ -15750,39 +15768,39 @@
       <c r="C29" s="58"/>
       <c r="D29" s="48">
         <f>D4+D5-D28</f>
-        <v>0</v>
+        <v>430730</v>
       </c>
       <c r="E29" s="48">
         <f t="shared" ref="E29:L29" si="8">E4+E5-E28</f>
-        <v>0</v>
+        <v>4360</v>
       </c>
       <c r="F29" s="48">
         <f t="shared" si="8"/>
-        <v>0</v>
+        <v>10390</v>
       </c>
       <c r="G29" s="48">
         <f t="shared" si="8"/>
-        <v>0</v>
+        <v>70</v>
       </c>
       <c r="H29" s="48">
         <f t="shared" si="8"/>
-        <v>0</v>
+        <v>14575</v>
       </c>
       <c r="I29" s="48">
         <f t="shared" si="8"/>
-        <v>0</v>
+        <v>1131</v>
       </c>
       <c r="J29" s="48">
         <f t="shared" si="8"/>
-        <v>0</v>
+        <v>388</v>
       </c>
       <c r="K29" s="48">
         <f t="shared" si="8"/>
-        <v>0</v>
+        <v>155</v>
       </c>
       <c r="L29" s="48">
         <f t="shared" si="8"/>
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="M29" s="59"/>
       <c r="N29" s="60"/>
@@ -16122,39 +16140,39 @@
       <c r="C4" s="1"/>
       <c r="D4" s="2">
         <f>'10'!D29</f>
-        <v>0</v>
+        <v>430730</v>
       </c>
       <c r="E4" s="2">
         <f>'10'!E29</f>
-        <v>0</v>
+        <v>4360</v>
       </c>
       <c r="F4" s="2">
         <f>'10'!F29</f>
-        <v>0</v>
+        <v>10390</v>
       </c>
       <c r="G4" s="2">
         <f>'10'!G29</f>
-        <v>0</v>
+        <v>70</v>
       </c>
       <c r="H4" s="2">
         <f>'10'!H29</f>
-        <v>0</v>
+        <v>14575</v>
       </c>
       <c r="I4" s="2">
         <f>'10'!I29</f>
-        <v>0</v>
+        <v>1131</v>
       </c>
       <c r="J4" s="2">
         <f>'10'!J29</f>
-        <v>0</v>
+        <v>388</v>
       </c>
       <c r="K4" s="2">
         <f>'10'!K29</f>
-        <v>0</v>
+        <v>155</v>
       </c>
       <c r="L4" s="2">
         <f>'10'!L29</f>
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="M4" s="3"/>
       <c r="N4" s="68"/>
@@ -16535,7 +16553,7 @@
         <v>1908446140</v>
       </c>
       <c r="C13" s="20" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D13" s="29"/>
       <c r="E13" s="30"/>
@@ -16765,7 +16783,7 @@
         <v>1908446145</v>
       </c>
       <c r="C18" s="31" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D18" s="29"/>
       <c r="E18" s="30"/>
@@ -16811,7 +16829,7 @@
         <v>1908446146</v>
       </c>
       <c r="C19" s="20" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D19" s="29"/>
       <c r="E19" s="30"/>
@@ -16857,7 +16875,7 @@
         <v>1908446147</v>
       </c>
       <c r="C20" s="20" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D20" s="29"/>
       <c r="E20" s="30"/>
@@ -16903,7 +16921,7 @@
         <v>1908446148</v>
       </c>
       <c r="C21" s="20" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D21" s="29"/>
       <c r="E21" s="30"/>
@@ -17133,7 +17151,7 @@
         <v>1908446153</v>
       </c>
       <c r="C26" s="36" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="D26" s="29"/>
       <c r="E26" s="29"/>
@@ -17300,39 +17318,39 @@
       <c r="C29" s="58"/>
       <c r="D29" s="48">
         <f>D4+D5-D28</f>
-        <v>0</v>
+        <v>430730</v>
       </c>
       <c r="E29" s="48">
         <f t="shared" ref="E29:L29" si="8">E4+E5-E28</f>
-        <v>0</v>
+        <v>4360</v>
       </c>
       <c r="F29" s="48">
         <f t="shared" si="8"/>
-        <v>0</v>
+        <v>10390</v>
       </c>
       <c r="G29" s="48">
         <f t="shared" si="8"/>
-        <v>0</v>
+        <v>70</v>
       </c>
       <c r="H29" s="48">
         <f t="shared" si="8"/>
-        <v>0</v>
+        <v>14575</v>
       </c>
       <c r="I29" s="48">
         <f t="shared" si="8"/>
-        <v>0</v>
+        <v>1131</v>
       </c>
       <c r="J29" s="48">
         <f t="shared" si="8"/>
-        <v>0</v>
+        <v>388</v>
       </c>
       <c r="K29" s="48">
         <f t="shared" si="8"/>
-        <v>0</v>
+        <v>155</v>
       </c>
       <c r="L29" s="48">
         <f t="shared" si="8"/>
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="M29" s="59"/>
       <c r="N29" s="60"/>
@@ -17672,39 +17690,39 @@
       <c r="C4" s="1"/>
       <c r="D4" s="2">
         <f>'11'!D29</f>
-        <v>0</v>
+        <v>430730</v>
       </c>
       <c r="E4" s="2">
         <f>'11'!E29</f>
-        <v>0</v>
+        <v>4360</v>
       </c>
       <c r="F4" s="2">
         <f>'11'!F29</f>
-        <v>0</v>
+        <v>10390</v>
       </c>
       <c r="G4" s="2">
         <f>'11'!G29</f>
-        <v>0</v>
+        <v>70</v>
       </c>
       <c r="H4" s="2">
         <f>'11'!H29</f>
-        <v>0</v>
+        <v>14575</v>
       </c>
       <c r="I4" s="2">
         <f>'11'!I29</f>
-        <v>0</v>
+        <v>1131</v>
       </c>
       <c r="J4" s="2">
         <f>'11'!J29</f>
-        <v>0</v>
+        <v>388</v>
       </c>
       <c r="K4" s="2">
         <f>'11'!K29</f>
-        <v>0</v>
+        <v>155</v>
       </c>
       <c r="L4" s="2">
         <f>'11'!L29</f>
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="M4" s="3"/>
       <c r="N4" s="68"/>
@@ -18085,7 +18103,7 @@
         <v>1908446140</v>
       </c>
       <c r="C13" s="20" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D13" s="29"/>
       <c r="E13" s="30"/>
@@ -18315,7 +18333,7 @@
         <v>1908446145</v>
       </c>
       <c r="C18" s="31" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D18" s="29"/>
       <c r="E18" s="30"/>
@@ -18361,7 +18379,7 @@
         <v>1908446146</v>
       </c>
       <c r="C19" s="20" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D19" s="29"/>
       <c r="E19" s="30"/>
@@ -18407,7 +18425,7 @@
         <v>1908446147</v>
       </c>
       <c r="C20" s="20" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D20" s="29"/>
       <c r="E20" s="30"/>
@@ -18453,7 +18471,7 @@
         <v>1908446148</v>
       </c>
       <c r="C21" s="20" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D21" s="29"/>
       <c r="E21" s="30"/>
@@ -18683,7 +18701,7 @@
         <v>1908446153</v>
       </c>
       <c r="C26" s="36" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="D26" s="29"/>
       <c r="E26" s="29"/>
@@ -18850,39 +18868,39 @@
       <c r="C29" s="58"/>
       <c r="D29" s="48">
         <f>D4+D5-D28</f>
-        <v>0</v>
+        <v>430730</v>
       </c>
       <c r="E29" s="48">
         <f t="shared" ref="E29:L29" si="8">E4+E5-E28</f>
-        <v>0</v>
+        <v>4360</v>
       </c>
       <c r="F29" s="48">
         <f t="shared" si="8"/>
-        <v>0</v>
+        <v>10390</v>
       </c>
       <c r="G29" s="48">
         <f t="shared" si="8"/>
-        <v>0</v>
+        <v>70</v>
       </c>
       <c r="H29" s="48">
         <f t="shared" si="8"/>
-        <v>0</v>
+        <v>14575</v>
       </c>
       <c r="I29" s="48">
         <f t="shared" si="8"/>
-        <v>0</v>
+        <v>1131</v>
       </c>
       <c r="J29" s="48">
         <f t="shared" si="8"/>
-        <v>0</v>
+        <v>388</v>
       </c>
       <c r="K29" s="48">
         <f t="shared" si="8"/>
-        <v>0</v>
+        <v>155</v>
       </c>
       <c r="L29" s="48">
         <f t="shared" si="8"/>
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="M29" s="59"/>
       <c r="N29" s="60"/>
@@ -19222,39 +19240,39 @@
       <c r="C4" s="1"/>
       <c r="D4" s="2">
         <f>'12'!D29</f>
-        <v>0</v>
+        <v>430730</v>
       </c>
       <c r="E4" s="2">
         <f>'12'!E29</f>
-        <v>0</v>
+        <v>4360</v>
       </c>
       <c r="F4" s="2">
         <f>'12'!F29</f>
-        <v>0</v>
+        <v>10390</v>
       </c>
       <c r="G4" s="2">
         <f>'12'!G29</f>
-        <v>0</v>
+        <v>70</v>
       </c>
       <c r="H4" s="2">
         <f>'12'!H29</f>
-        <v>0</v>
+        <v>14575</v>
       </c>
       <c r="I4" s="2">
         <f>'12'!I29</f>
-        <v>0</v>
+        <v>1131</v>
       </c>
       <c r="J4" s="2">
         <f>'12'!J29</f>
-        <v>0</v>
+        <v>388</v>
       </c>
       <c r="K4" s="2">
         <f>'12'!K29</f>
-        <v>0</v>
+        <v>155</v>
       </c>
       <c r="L4" s="2">
         <f>'12'!L29</f>
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="M4" s="3"/>
       <c r="N4" s="68"/>
@@ -19635,7 +19653,7 @@
         <v>1908446140</v>
       </c>
       <c r="C13" s="20" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D13" s="29"/>
       <c r="E13" s="30"/>
@@ -19865,7 +19883,7 @@
         <v>1908446145</v>
       </c>
       <c r="C18" s="31" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D18" s="29"/>
       <c r="E18" s="30"/>
@@ -19911,7 +19929,7 @@
         <v>1908446146</v>
       </c>
       <c r="C19" s="20" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D19" s="29"/>
       <c r="E19" s="30"/>
@@ -19957,7 +19975,7 @@
         <v>1908446147</v>
       </c>
       <c r="C20" s="20" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D20" s="29"/>
       <c r="E20" s="30"/>
@@ -20003,7 +20021,7 @@
         <v>1908446148</v>
       </c>
       <c r="C21" s="20" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D21" s="29"/>
       <c r="E21" s="30"/>
@@ -20233,7 +20251,7 @@
         <v>1908446153</v>
       </c>
       <c r="C26" s="36" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="D26" s="29"/>
       <c r="E26" s="29"/>
@@ -20400,39 +20418,39 @@
       <c r="C29" s="58"/>
       <c r="D29" s="48">
         <f>D4+D5-D28</f>
-        <v>0</v>
+        <v>430730</v>
       </c>
       <c r="E29" s="48">
         <f t="shared" ref="E29:L29" si="8">E4+E5-E28</f>
-        <v>0</v>
+        <v>4360</v>
       </c>
       <c r="F29" s="48">
         <f t="shared" si="8"/>
-        <v>0</v>
+        <v>10390</v>
       </c>
       <c r="G29" s="48">
         <f t="shared" si="8"/>
-        <v>0</v>
+        <v>70</v>
       </c>
       <c r="H29" s="48">
         <f t="shared" si="8"/>
-        <v>0</v>
+        <v>14575</v>
       </c>
       <c r="I29" s="48">
         <f t="shared" si="8"/>
-        <v>0</v>
+        <v>1131</v>
       </c>
       <c r="J29" s="48">
         <f t="shared" si="8"/>
-        <v>0</v>
+        <v>388</v>
       </c>
       <c r="K29" s="48">
         <f t="shared" si="8"/>
-        <v>0</v>
+        <v>155</v>
       </c>
       <c r="L29" s="48">
         <f t="shared" si="8"/>
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="M29" s="59"/>
       <c r="N29" s="60"/>
@@ -20772,39 +20790,39 @@
       <c r="C4" s="1"/>
       <c r="D4" s="2">
         <f>'13'!D29</f>
-        <v>0</v>
+        <v>430730</v>
       </c>
       <c r="E4" s="2">
         <f>'13'!E29</f>
-        <v>0</v>
+        <v>4360</v>
       </c>
       <c r="F4" s="2">
         <f>'13'!F29</f>
-        <v>0</v>
+        <v>10390</v>
       </c>
       <c r="G4" s="2">
         <f>'13'!G29</f>
-        <v>0</v>
+        <v>70</v>
       </c>
       <c r="H4" s="2">
         <f>'13'!H29</f>
-        <v>0</v>
+        <v>14575</v>
       </c>
       <c r="I4" s="2">
         <f>'13'!I29</f>
-        <v>0</v>
+        <v>1131</v>
       </c>
       <c r="J4" s="2">
         <f>'13'!J29</f>
-        <v>0</v>
+        <v>388</v>
       </c>
       <c r="K4" s="2">
         <f>'13'!K29</f>
-        <v>0</v>
+        <v>155</v>
       </c>
       <c r="L4" s="2">
         <f>'13'!L29</f>
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="M4" s="3"/>
       <c r="N4" s="68"/>
@@ -21185,7 +21203,7 @@
         <v>1908446140</v>
       </c>
       <c r="C13" s="20" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D13" s="29"/>
       <c r="E13" s="30"/>
@@ -21415,7 +21433,7 @@
         <v>1908446145</v>
       </c>
       <c r="C18" s="31" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D18" s="29"/>
       <c r="E18" s="30"/>
@@ -21461,7 +21479,7 @@
         <v>1908446146</v>
       </c>
       <c r="C19" s="20" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D19" s="29"/>
       <c r="E19" s="30"/>
@@ -21507,7 +21525,7 @@
         <v>1908446147</v>
       </c>
       <c r="C20" s="20" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D20" s="29"/>
       <c r="E20" s="30"/>
@@ -21553,7 +21571,7 @@
         <v>1908446148</v>
       </c>
       <c r="C21" s="20" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D21" s="29"/>
       <c r="E21" s="30"/>
@@ -21783,7 +21801,7 @@
         <v>1908446153</v>
       </c>
       <c r="C26" s="36" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="D26" s="29"/>
       <c r="E26" s="29"/>
@@ -21950,39 +21968,39 @@
       <c r="C29" s="58"/>
       <c r="D29" s="48">
         <f>D4+D5-D28</f>
-        <v>0</v>
+        <v>430730</v>
       </c>
       <c r="E29" s="48">
         <f t="shared" ref="E29:L29" si="8">E4+E5-E28</f>
-        <v>0</v>
+        <v>4360</v>
       </c>
       <c r="F29" s="48">
         <f t="shared" si="8"/>
-        <v>0</v>
+        <v>10390</v>
       </c>
       <c r="G29" s="48">
         <f t="shared" si="8"/>
-        <v>0</v>
+        <v>70</v>
       </c>
       <c r="H29" s="48">
         <f t="shared" si="8"/>
-        <v>0</v>
+        <v>14575</v>
       </c>
       <c r="I29" s="48">
         <f t="shared" si="8"/>
-        <v>0</v>
+        <v>1131</v>
       </c>
       <c r="J29" s="48">
         <f t="shared" si="8"/>
-        <v>0</v>
+        <v>388</v>
       </c>
       <c r="K29" s="48">
         <f t="shared" si="8"/>
-        <v>0</v>
+        <v>155</v>
       </c>
       <c r="L29" s="48">
         <f t="shared" si="8"/>
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="M29" s="59"/>
       <c r="N29" s="60"/>
@@ -22322,39 +22340,39 @@
       <c r="C4" s="1"/>
       <c r="D4" s="2">
         <f>'14'!D29</f>
-        <v>0</v>
+        <v>430730</v>
       </c>
       <c r="E4" s="2">
         <f>'14'!E29</f>
-        <v>0</v>
+        <v>4360</v>
       </c>
       <c r="F4" s="2">
         <f>'14'!F29</f>
-        <v>0</v>
+        <v>10390</v>
       </c>
       <c r="G4" s="2">
         <f>'14'!G29</f>
-        <v>0</v>
+        <v>70</v>
       </c>
       <c r="H4" s="2">
         <f>'14'!H29</f>
-        <v>0</v>
+        <v>14575</v>
       </c>
       <c r="I4" s="2">
         <f>'14'!I29</f>
-        <v>0</v>
+        <v>1131</v>
       </c>
       <c r="J4" s="2">
         <f>'14'!J29</f>
-        <v>0</v>
+        <v>388</v>
       </c>
       <c r="K4" s="2">
         <f>'14'!K29</f>
-        <v>0</v>
+        <v>155</v>
       </c>
       <c r="L4" s="2">
         <f>'14'!L29</f>
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="M4" s="3"/>
       <c r="N4" s="68"/>
@@ -22735,7 +22753,7 @@
         <v>1908446140</v>
       </c>
       <c r="C13" s="20" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D13" s="29"/>
       <c r="E13" s="30"/>
@@ -22965,7 +22983,7 @@
         <v>1908446145</v>
       </c>
       <c r="C18" s="31" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D18" s="29"/>
       <c r="E18" s="30"/>
@@ -23011,7 +23029,7 @@
         <v>1908446146</v>
       </c>
       <c r="C19" s="20" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D19" s="29"/>
       <c r="E19" s="30"/>
@@ -23057,7 +23075,7 @@
         <v>1908446147</v>
       </c>
       <c r="C20" s="20" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D20" s="29"/>
       <c r="E20" s="30"/>
@@ -23103,7 +23121,7 @@
         <v>1908446148</v>
       </c>
       <c r="C21" s="20" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D21" s="29"/>
       <c r="E21" s="30"/>
@@ -23333,7 +23351,7 @@
         <v>1908446153</v>
       </c>
       <c r="C26" s="36" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="D26" s="29"/>
       <c r="E26" s="29"/>
@@ -23500,39 +23518,39 @@
       <c r="C29" s="58"/>
       <c r="D29" s="48">
         <f>D4+D5-D28</f>
-        <v>0</v>
+        <v>430730</v>
       </c>
       <c r="E29" s="48">
         <f t="shared" ref="E29:L29" si="8">E4+E5-E28</f>
-        <v>0</v>
+        <v>4360</v>
       </c>
       <c r="F29" s="48">
         <f t="shared" si="8"/>
-        <v>0</v>
+        <v>10390</v>
       </c>
       <c r="G29" s="48">
         <f t="shared" si="8"/>
-        <v>0</v>
+        <v>70</v>
       </c>
       <c r="H29" s="48">
         <f t="shared" si="8"/>
-        <v>0</v>
+        <v>14575</v>
       </c>
       <c r="I29" s="48">
         <f t="shared" si="8"/>
-        <v>0</v>
+        <v>1131</v>
       </c>
       <c r="J29" s="48">
         <f t="shared" si="8"/>
-        <v>0</v>
+        <v>388</v>
       </c>
       <c r="K29" s="48">
         <f t="shared" si="8"/>
-        <v>0</v>
+        <v>155</v>
       </c>
       <c r="L29" s="48">
         <f t="shared" si="8"/>
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="M29" s="59"/>
       <c r="N29" s="60"/>
@@ -23872,39 +23890,39 @@
       <c r="C4" s="1"/>
       <c r="D4" s="2">
         <f>'15'!D29</f>
-        <v>0</v>
+        <v>430730</v>
       </c>
       <c r="E4" s="2">
         <f>'15'!E29</f>
-        <v>0</v>
+        <v>4360</v>
       </c>
       <c r="F4" s="2">
         <f>'15'!F29</f>
-        <v>0</v>
+        <v>10390</v>
       </c>
       <c r="G4" s="2">
         <f>'15'!G29</f>
-        <v>0</v>
+        <v>70</v>
       </c>
       <c r="H4" s="2">
         <f>'15'!H29</f>
-        <v>0</v>
+        <v>14575</v>
       </c>
       <c r="I4" s="2">
         <f>'15'!I29</f>
-        <v>0</v>
+        <v>1131</v>
       </c>
       <c r="J4" s="2">
         <f>'15'!J29</f>
-        <v>0</v>
+        <v>388</v>
       </c>
       <c r="K4" s="2">
         <f>'15'!K29</f>
-        <v>0</v>
+        <v>155</v>
       </c>
       <c r="L4" s="2">
         <f>'15'!L29</f>
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="M4" s="3"/>
       <c r="N4" s="68"/>
@@ -24285,7 +24303,7 @@
         <v>1908446140</v>
       </c>
       <c r="C13" s="20" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D13" s="29"/>
       <c r="E13" s="30"/>
@@ -24515,7 +24533,7 @@
         <v>1908446145</v>
       </c>
       <c r="C18" s="31" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D18" s="29"/>
       <c r="E18" s="30"/>
@@ -24561,7 +24579,7 @@
         <v>1908446146</v>
       </c>
       <c r="C19" s="20" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D19" s="29"/>
       <c r="E19" s="30"/>
@@ -24607,7 +24625,7 @@
         <v>1908446147</v>
       </c>
       <c r="C20" s="20" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D20" s="29"/>
       <c r="E20" s="30"/>
@@ -24653,7 +24671,7 @@
         <v>1908446148</v>
       </c>
       <c r="C21" s="20" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D21" s="29"/>
       <c r="E21" s="30"/>
@@ -24883,7 +24901,7 @@
         <v>1908446153</v>
       </c>
       <c r="C26" s="36" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="D26" s="29"/>
       <c r="E26" s="29"/>
@@ -25050,39 +25068,39 @@
       <c r="C29" s="58"/>
       <c r="D29" s="48">
         <f>D4+D5-D28</f>
-        <v>0</v>
+        <v>430730</v>
       </c>
       <c r="E29" s="48">
         <f t="shared" ref="E29:L29" si="8">E4+E5-E28</f>
-        <v>0</v>
+        <v>4360</v>
       </c>
       <c r="F29" s="48">
         <f t="shared" si="8"/>
-        <v>0</v>
+        <v>10390</v>
       </c>
       <c r="G29" s="48">
         <f t="shared" si="8"/>
-        <v>0</v>
+        <v>70</v>
       </c>
       <c r="H29" s="48">
         <f t="shared" si="8"/>
-        <v>0</v>
+        <v>14575</v>
       </c>
       <c r="I29" s="48">
         <f t="shared" si="8"/>
-        <v>0</v>
+        <v>1131</v>
       </c>
       <c r="J29" s="48">
         <f t="shared" si="8"/>
-        <v>0</v>
+        <v>388</v>
       </c>
       <c r="K29" s="48">
         <f t="shared" si="8"/>
-        <v>0</v>
+        <v>155</v>
       </c>
       <c r="L29" s="48">
         <f t="shared" si="8"/>
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="M29" s="59"/>
       <c r="N29" s="60"/>
@@ -25422,39 +25440,39 @@
       <c r="C4" s="1"/>
       <c r="D4" s="2">
         <f>'16'!D29</f>
-        <v>0</v>
+        <v>430730</v>
       </c>
       <c r="E4" s="2">
         <f>'16'!E29</f>
-        <v>0</v>
+        <v>4360</v>
       </c>
       <c r="F4" s="2">
         <f>'16'!F29</f>
-        <v>0</v>
+        <v>10390</v>
       </c>
       <c r="G4" s="2">
         <f>'16'!G29</f>
-        <v>0</v>
+        <v>70</v>
       </c>
       <c r="H4" s="2">
         <f>'16'!H29</f>
-        <v>0</v>
+        <v>14575</v>
       </c>
       <c r="I4" s="2">
         <f>'16'!I29</f>
-        <v>0</v>
+        <v>1131</v>
       </c>
       <c r="J4" s="2">
         <f>'16'!J29</f>
-        <v>0</v>
+        <v>388</v>
       </c>
       <c r="K4" s="2">
         <f>'16'!K29</f>
-        <v>0</v>
+        <v>155</v>
       </c>
       <c r="L4" s="2">
         <f>'16'!L29</f>
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="M4" s="3"/>
       <c r="N4" s="68"/>
@@ -25835,7 +25853,7 @@
         <v>1908446140</v>
       </c>
       <c r="C13" s="20" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D13" s="29"/>
       <c r="E13" s="30"/>
@@ -26065,7 +26083,7 @@
         <v>1908446145</v>
       </c>
       <c r="C18" s="31" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D18" s="29"/>
       <c r="E18" s="30"/>
@@ -26111,7 +26129,7 @@
         <v>1908446146</v>
       </c>
       <c r="C19" s="20" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D19" s="29"/>
       <c r="E19" s="30"/>
@@ -26157,7 +26175,7 @@
         <v>1908446147</v>
       </c>
       <c r="C20" s="20" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D20" s="29"/>
       <c r="E20" s="30"/>
@@ -26203,7 +26221,7 @@
         <v>1908446148</v>
       </c>
       <c r="C21" s="20" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D21" s="29"/>
       <c r="E21" s="30"/>
@@ -26433,7 +26451,7 @@
         <v>1908446153</v>
       </c>
       <c r="C26" s="36" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="D26" s="29"/>
       <c r="E26" s="29"/>
@@ -26600,39 +26618,39 @@
       <c r="C29" s="58"/>
       <c r="D29" s="48">
         <f>D4+D5-D28</f>
-        <v>0</v>
+        <v>430730</v>
       </c>
       <c r="E29" s="48">
         <f t="shared" ref="E29:L29" si="8">E4+E5-E28</f>
-        <v>0</v>
+        <v>4360</v>
       </c>
       <c r="F29" s="48">
         <f t="shared" si="8"/>
-        <v>0</v>
+        <v>10390</v>
       </c>
       <c r="G29" s="48">
         <f t="shared" si="8"/>
-        <v>0</v>
+        <v>70</v>
       </c>
       <c r="H29" s="48">
         <f t="shared" si="8"/>
-        <v>0</v>
+        <v>14575</v>
       </c>
       <c r="I29" s="48">
         <f t="shared" si="8"/>
-        <v>0</v>
+        <v>1131</v>
       </c>
       <c r="J29" s="48">
         <f t="shared" si="8"/>
-        <v>0</v>
+        <v>388</v>
       </c>
       <c r="K29" s="48">
         <f t="shared" si="8"/>
-        <v>0</v>
+        <v>155</v>
       </c>
       <c r="L29" s="48">
         <f t="shared" si="8"/>
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="M29" s="59"/>
       <c r="N29" s="60"/>
@@ -26972,39 +26990,39 @@
       <c r="C4" s="1"/>
       <c r="D4" s="2">
         <f>'17'!D29</f>
-        <v>0</v>
+        <v>430730</v>
       </c>
       <c r="E4" s="2">
         <f>'17'!E29</f>
-        <v>0</v>
+        <v>4360</v>
       </c>
       <c r="F4" s="2">
         <f>'17'!F29</f>
-        <v>0</v>
+        <v>10390</v>
       </c>
       <c r="G4" s="2">
         <f>'17'!G29</f>
-        <v>0</v>
+        <v>70</v>
       </c>
       <c r="H4" s="2">
         <f>'17'!H29</f>
-        <v>0</v>
+        <v>14575</v>
       </c>
       <c r="I4" s="2">
         <f>'17'!I29</f>
-        <v>0</v>
+        <v>1131</v>
       </c>
       <c r="J4" s="2">
         <f>'17'!J29</f>
-        <v>0</v>
+        <v>388</v>
       </c>
       <c r="K4" s="2">
         <f>'17'!K29</f>
-        <v>0</v>
+        <v>155</v>
       </c>
       <c r="L4" s="2">
         <f>'17'!L29</f>
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="M4" s="3"/>
       <c r="N4" s="68"/>
@@ -27385,7 +27403,7 @@
         <v>1908446140</v>
       </c>
       <c r="C13" s="20" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D13" s="29"/>
       <c r="E13" s="30"/>
@@ -27615,7 +27633,7 @@
         <v>1908446145</v>
       </c>
       <c r="C18" s="31" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D18" s="29"/>
       <c r="E18" s="30"/>
@@ -27661,7 +27679,7 @@
         <v>1908446146</v>
       </c>
       <c r="C19" s="20" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D19" s="29"/>
       <c r="E19" s="30"/>
@@ -27707,7 +27725,7 @@
         <v>1908446147</v>
       </c>
       <c r="C20" s="20" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D20" s="29"/>
       <c r="E20" s="30"/>
@@ -27753,7 +27771,7 @@
         <v>1908446148</v>
       </c>
       <c r="C21" s="20" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D21" s="29"/>
       <c r="E21" s="30"/>
@@ -27983,7 +28001,7 @@
         <v>1908446153</v>
       </c>
       <c r="C26" s="36" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="D26" s="29"/>
       <c r="E26" s="29"/>
@@ -28150,39 +28168,39 @@
       <c r="C29" s="58"/>
       <c r="D29" s="48">
         <f>D4+D5-D28</f>
-        <v>0</v>
+        <v>430730</v>
       </c>
       <c r="E29" s="48">
         <f t="shared" ref="E29:L29" si="8">E4+E5-E28</f>
-        <v>0</v>
+        <v>4360</v>
       </c>
       <c r="F29" s="48">
         <f t="shared" si="8"/>
-        <v>0</v>
+        <v>10390</v>
       </c>
       <c r="G29" s="48">
         <f t="shared" si="8"/>
-        <v>0</v>
+        <v>70</v>
       </c>
       <c r="H29" s="48">
         <f t="shared" si="8"/>
-        <v>0</v>
+        <v>14575</v>
       </c>
       <c r="I29" s="48">
         <f t="shared" si="8"/>
-        <v>0</v>
+        <v>1131</v>
       </c>
       <c r="J29" s="48">
         <f t="shared" si="8"/>
-        <v>0</v>
+        <v>388</v>
       </c>
       <c r="K29" s="48">
         <f t="shared" si="8"/>
-        <v>0</v>
+        <v>155</v>
       </c>
       <c r="L29" s="48">
         <f t="shared" si="8"/>
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="M29" s="59"/>
       <c r="N29" s="60"/>
@@ -28522,39 +28540,39 @@
       <c r="C4" s="1"/>
       <c r="D4" s="2">
         <f>'18'!D29</f>
-        <v>0</v>
+        <v>430730</v>
       </c>
       <c r="E4" s="2">
         <f>'18'!E29</f>
-        <v>0</v>
+        <v>4360</v>
       </c>
       <c r="F4" s="2">
         <f>'18'!F29</f>
-        <v>0</v>
+        <v>10390</v>
       </c>
       <c r="G4" s="2">
         <f>'18'!G29</f>
-        <v>0</v>
+        <v>70</v>
       </c>
       <c r="H4" s="2">
         <f>'18'!H29</f>
-        <v>0</v>
+        <v>14575</v>
       </c>
       <c r="I4" s="2">
         <f>'18'!I29</f>
-        <v>0</v>
+        <v>1131</v>
       </c>
       <c r="J4" s="2">
         <f>'18'!J29</f>
-        <v>0</v>
+        <v>388</v>
       </c>
       <c r="K4" s="2">
         <f>'18'!K29</f>
-        <v>0</v>
+        <v>155</v>
       </c>
       <c r="L4" s="2">
         <f>'18'!L29</f>
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="M4" s="3"/>
       <c r="N4" s="68"/>
@@ -28935,7 +28953,7 @@
         <v>1908446140</v>
       </c>
       <c r="C13" s="20" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D13" s="29"/>
       <c r="E13" s="30"/>
@@ -29165,7 +29183,7 @@
         <v>1908446145</v>
       </c>
       <c r="C18" s="31" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D18" s="29"/>
       <c r="E18" s="30"/>
@@ -29211,7 +29229,7 @@
         <v>1908446146</v>
       </c>
       <c r="C19" s="20" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D19" s="29"/>
       <c r="E19" s="30"/>
@@ -29257,7 +29275,7 @@
         <v>1908446147</v>
       </c>
       <c r="C20" s="20" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D20" s="29"/>
       <c r="E20" s="30"/>
@@ -29303,7 +29321,7 @@
         <v>1908446148</v>
       </c>
       <c r="C21" s="20" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D21" s="29"/>
       <c r="E21" s="30"/>
@@ -29533,7 +29551,7 @@
         <v>1908446153</v>
       </c>
       <c r="C26" s="36" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="D26" s="29"/>
       <c r="E26" s="29"/>
@@ -29700,39 +29718,39 @@
       <c r="C29" s="58"/>
       <c r="D29" s="48">
         <f>D4+D5-D28</f>
-        <v>0</v>
+        <v>430730</v>
       </c>
       <c r="E29" s="48">
         <f t="shared" ref="E29:L29" si="8">E4+E5-E28</f>
-        <v>0</v>
+        <v>4360</v>
       </c>
       <c r="F29" s="48">
         <f t="shared" si="8"/>
-        <v>0</v>
+        <v>10390</v>
       </c>
       <c r="G29" s="48">
         <f t="shared" si="8"/>
-        <v>0</v>
+        <v>70</v>
       </c>
       <c r="H29" s="48">
         <f t="shared" si="8"/>
-        <v>0</v>
+        <v>14575</v>
       </c>
       <c r="I29" s="48">
         <f t="shared" si="8"/>
-        <v>0</v>
+        <v>1131</v>
       </c>
       <c r="J29" s="48">
         <f t="shared" si="8"/>
-        <v>0</v>
+        <v>388</v>
       </c>
       <c r="K29" s="48">
         <f t="shared" si="8"/>
-        <v>0</v>
+        <v>155</v>
       </c>
       <c r="L29" s="48">
         <f t="shared" si="8"/>
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="M29" s="59"/>
       <c r="N29" s="60"/>
@@ -30072,39 +30090,39 @@
       <c r="C4" s="1"/>
       <c r="D4" s="2">
         <f>'1'!D29</f>
-        <v>0</v>
+        <v>430730</v>
       </c>
       <c r="E4" s="2">
         <f>'1'!E29</f>
-        <v>0</v>
+        <v>4360</v>
       </c>
       <c r="F4" s="2">
         <f>'1'!F29</f>
-        <v>0</v>
+        <v>10390</v>
       </c>
       <c r="G4" s="2">
         <f>'1'!G29</f>
-        <v>0</v>
+        <v>70</v>
       </c>
       <c r="H4" s="2">
         <f>'1'!H29</f>
-        <v>0</v>
+        <v>14575</v>
       </c>
       <c r="I4" s="2">
         <f>'1'!I29</f>
-        <v>0</v>
+        <v>1131</v>
       </c>
       <c r="J4" s="2">
         <f>'1'!J29</f>
-        <v>0</v>
+        <v>388</v>
       </c>
       <c r="K4" s="2">
         <f>'1'!K29</f>
-        <v>0</v>
+        <v>155</v>
       </c>
       <c r="L4" s="2">
         <f>'1'!L29</f>
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="M4" s="3"/>
       <c r="N4" s="68"/>
@@ -30485,7 +30503,7 @@
         <v>1908446140</v>
       </c>
       <c r="C13" s="20" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D13" s="29"/>
       <c r="E13" s="30"/>
@@ -30715,7 +30733,7 @@
         <v>1908446145</v>
       </c>
       <c r="C18" s="31" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D18" s="29"/>
       <c r="E18" s="30"/>
@@ -30761,7 +30779,7 @@
         <v>1908446146</v>
       </c>
       <c r="C19" s="20" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D19" s="29"/>
       <c r="E19" s="30"/>
@@ -30807,7 +30825,7 @@
         <v>1908446147</v>
       </c>
       <c r="C20" s="20" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D20" s="29"/>
       <c r="E20" s="30"/>
@@ -30853,7 +30871,7 @@
         <v>1908446148</v>
       </c>
       <c r="C21" s="20" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D21" s="29"/>
       <c r="E21" s="30"/>
@@ -31083,7 +31101,7 @@
         <v>1908446153</v>
       </c>
       <c r="C26" s="36" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="D26" s="29"/>
       <c r="E26" s="29"/>
@@ -31250,39 +31268,39 @@
       <c r="C29" s="58"/>
       <c r="D29" s="48">
         <f>D4+D5-D28</f>
-        <v>0</v>
+        <v>430730</v>
       </c>
       <c r="E29" s="48">
         <f t="shared" ref="E29:L29" si="8">E4+E5-E28</f>
-        <v>0</v>
+        <v>4360</v>
       </c>
       <c r="F29" s="48">
         <f t="shared" si="8"/>
-        <v>0</v>
+        <v>10390</v>
       </c>
       <c r="G29" s="48">
         <f t="shared" si="8"/>
-        <v>0</v>
+        <v>70</v>
       </c>
       <c r="H29" s="48">
         <f t="shared" si="8"/>
-        <v>0</v>
+        <v>14575</v>
       </c>
       <c r="I29" s="48">
         <f t="shared" si="8"/>
-        <v>0</v>
+        <v>1131</v>
       </c>
       <c r="J29" s="48">
         <f t="shared" si="8"/>
-        <v>0</v>
+        <v>388</v>
       </c>
       <c r="K29" s="48">
         <f t="shared" si="8"/>
-        <v>0</v>
+        <v>155</v>
       </c>
       <c r="L29" s="48">
         <f t="shared" si="8"/>
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="M29" s="59"/>
       <c r="N29" s="60"/>
@@ -31622,39 +31640,39 @@
       <c r="C4" s="1"/>
       <c r="D4" s="2">
         <f>'19'!D29</f>
-        <v>0</v>
+        <v>430730</v>
       </c>
       <c r="E4" s="2">
         <f>'19'!E29</f>
-        <v>0</v>
+        <v>4360</v>
       </c>
       <c r="F4" s="2">
         <f>'19'!F29</f>
-        <v>0</v>
+        <v>10390</v>
       </c>
       <c r="G4" s="2">
         <f>'19'!G29</f>
-        <v>0</v>
+        <v>70</v>
       </c>
       <c r="H4" s="2">
         <f>'19'!H29</f>
-        <v>0</v>
+        <v>14575</v>
       </c>
       <c r="I4" s="2">
         <f>'19'!I29</f>
-        <v>0</v>
+        <v>1131</v>
       </c>
       <c r="J4" s="2">
         <f>'19'!J29</f>
-        <v>0</v>
+        <v>388</v>
       </c>
       <c r="K4" s="2">
         <f>'19'!K29</f>
-        <v>0</v>
+        <v>155</v>
       </c>
       <c r="L4" s="2">
         <f>'19'!L29</f>
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="M4" s="3"/>
       <c r="N4" s="68"/>
@@ -32035,7 +32053,7 @@
         <v>1908446140</v>
       </c>
       <c r="C13" s="20" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D13" s="29"/>
       <c r="E13" s="30"/>
@@ -32265,7 +32283,7 @@
         <v>1908446145</v>
       </c>
       <c r="C18" s="31" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D18" s="29"/>
       <c r="E18" s="30"/>
@@ -32311,7 +32329,7 @@
         <v>1908446146</v>
       </c>
       <c r="C19" s="20" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D19" s="29"/>
       <c r="E19" s="30"/>
@@ -32357,7 +32375,7 @@
         <v>1908446147</v>
       </c>
       <c r="C20" s="20" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D20" s="29"/>
       <c r="E20" s="30"/>
@@ -32403,7 +32421,7 @@
         <v>1908446148</v>
       </c>
       <c r="C21" s="20" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D21" s="29"/>
       <c r="E21" s="30"/>
@@ -32633,7 +32651,7 @@
         <v>1908446153</v>
       </c>
       <c r="C26" s="36" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="D26" s="29"/>
       <c r="E26" s="29"/>
@@ -32800,39 +32818,39 @@
       <c r="C29" s="58"/>
       <c r="D29" s="48">
         <f>D4+D5-D28</f>
-        <v>0</v>
+        <v>430730</v>
       </c>
       <c r="E29" s="48">
         <f t="shared" ref="E29:L29" si="8">E4+E5-E28</f>
-        <v>0</v>
+        <v>4360</v>
       </c>
       <c r="F29" s="48">
         <f t="shared" si="8"/>
-        <v>0</v>
+        <v>10390</v>
       </c>
       <c r="G29" s="48">
         <f t="shared" si="8"/>
-        <v>0</v>
+        <v>70</v>
       </c>
       <c r="H29" s="48">
         <f t="shared" si="8"/>
-        <v>0</v>
+        <v>14575</v>
       </c>
       <c r="I29" s="48">
         <f t="shared" si="8"/>
-        <v>0</v>
+        <v>1131</v>
       </c>
       <c r="J29" s="48">
         <f t="shared" si="8"/>
-        <v>0</v>
+        <v>388</v>
       </c>
       <c r="K29" s="48">
         <f t="shared" si="8"/>
-        <v>0</v>
+        <v>155</v>
       </c>
       <c r="L29" s="48">
         <f t="shared" si="8"/>
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="M29" s="59"/>
       <c r="N29" s="60"/>
@@ -33172,39 +33190,39 @@
       <c r="C4" s="1"/>
       <c r="D4" s="2">
         <f>'20'!D29</f>
-        <v>0</v>
+        <v>430730</v>
       </c>
       <c r="E4" s="2">
         <f>'20'!E29</f>
-        <v>0</v>
+        <v>4360</v>
       </c>
       <c r="F4" s="2">
         <f>'20'!F29</f>
-        <v>0</v>
+        <v>10390</v>
       </c>
       <c r="G4" s="2">
         <f>'20'!G29</f>
-        <v>0</v>
+        <v>70</v>
       </c>
       <c r="H4" s="2">
         <f>'20'!H29</f>
-        <v>0</v>
+        <v>14575</v>
       </c>
       <c r="I4" s="2">
         <f>'20'!I29</f>
-        <v>0</v>
+        <v>1131</v>
       </c>
       <c r="J4" s="2">
         <f>'20'!J29</f>
-        <v>0</v>
+        <v>388</v>
       </c>
       <c r="K4" s="2">
         <f>'20'!K29</f>
-        <v>0</v>
+        <v>155</v>
       </c>
       <c r="L4" s="2">
         <f>'20'!L29</f>
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="M4" s="3"/>
       <c r="N4" s="68"/>
@@ -33585,7 +33603,7 @@
         <v>1908446140</v>
       </c>
       <c r="C13" s="20" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D13" s="29"/>
       <c r="E13" s="30"/>
@@ -33815,7 +33833,7 @@
         <v>1908446145</v>
       </c>
       <c r="C18" s="31" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D18" s="29"/>
       <c r="E18" s="30"/>
@@ -33861,7 +33879,7 @@
         <v>1908446146</v>
       </c>
       <c r="C19" s="20" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D19" s="29"/>
       <c r="E19" s="30"/>
@@ -33907,7 +33925,7 @@
         <v>1908446147</v>
       </c>
       <c r="C20" s="20" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D20" s="29"/>
       <c r="E20" s="30"/>
@@ -33953,7 +33971,7 @@
         <v>1908446148</v>
       </c>
       <c r="C21" s="20" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D21" s="29"/>
       <c r="E21" s="30"/>
@@ -34183,7 +34201,7 @@
         <v>1908446153</v>
       </c>
       <c r="C26" s="36" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="D26" s="29"/>
       <c r="E26" s="29"/>
@@ -34350,39 +34368,39 @@
       <c r="C29" s="58"/>
       <c r="D29" s="48">
         <f>D4+D5-D28</f>
-        <v>0</v>
+        <v>430730</v>
       </c>
       <c r="E29" s="48">
         <f t="shared" ref="E29:L29" si="8">E4+E5-E28</f>
-        <v>0</v>
+        <v>4360</v>
       </c>
       <c r="F29" s="48">
         <f t="shared" si="8"/>
-        <v>0</v>
+        <v>10390</v>
       </c>
       <c r="G29" s="48">
         <f t="shared" si="8"/>
-        <v>0</v>
+        <v>70</v>
       </c>
       <c r="H29" s="48">
         <f t="shared" si="8"/>
-        <v>0</v>
+        <v>14575</v>
       </c>
       <c r="I29" s="48">
         <f t="shared" si="8"/>
-        <v>0</v>
+        <v>1131</v>
       </c>
       <c r="J29" s="48">
         <f t="shared" si="8"/>
-        <v>0</v>
+        <v>388</v>
       </c>
       <c r="K29" s="48">
         <f t="shared" si="8"/>
-        <v>0</v>
+        <v>155</v>
       </c>
       <c r="L29" s="48">
         <f t="shared" si="8"/>
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="M29" s="59"/>
       <c r="N29" s="60"/>
@@ -34722,39 +34740,39 @@
       <c r="C4" s="1"/>
       <c r="D4" s="2">
         <f>'21'!D29</f>
-        <v>0</v>
+        <v>430730</v>
       </c>
       <c r="E4" s="2">
         <f>'21'!E29</f>
-        <v>0</v>
+        <v>4360</v>
       </c>
       <c r="F4" s="2">
         <f>'21'!F29</f>
-        <v>0</v>
+        <v>10390</v>
       </c>
       <c r="G4" s="2">
         <f>'21'!G29</f>
-        <v>0</v>
+        <v>70</v>
       </c>
       <c r="H4" s="2">
         <f>'21'!H29</f>
-        <v>0</v>
+        <v>14575</v>
       </c>
       <c r="I4" s="2">
         <f>'21'!I29</f>
-        <v>0</v>
+        <v>1131</v>
       </c>
       <c r="J4" s="2">
         <f>'21'!J29</f>
-        <v>0</v>
+        <v>388</v>
       </c>
       <c r="K4" s="2">
         <f>'21'!K29</f>
-        <v>0</v>
+        <v>155</v>
       </c>
       <c r="L4" s="2">
         <f>'21'!L29</f>
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="M4" s="3"/>
       <c r="N4" s="68"/>
@@ -35135,7 +35153,7 @@
         <v>1908446140</v>
       </c>
       <c r="C13" s="20" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D13" s="29"/>
       <c r="E13" s="30"/>
@@ -35365,7 +35383,7 @@
         <v>1908446145</v>
       </c>
       <c r="C18" s="31" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D18" s="29"/>
       <c r="E18" s="30"/>
@@ -35411,7 +35429,7 @@
         <v>1908446146</v>
       </c>
       <c r="C19" s="20" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D19" s="29"/>
       <c r="E19" s="30"/>
@@ -35457,7 +35475,7 @@
         <v>1908446147</v>
       </c>
       <c r="C20" s="20" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D20" s="29"/>
       <c r="E20" s="30"/>
@@ -35503,7 +35521,7 @@
         <v>1908446148</v>
       </c>
       <c r="C21" s="20" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D21" s="29"/>
       <c r="E21" s="30"/>
@@ -35733,7 +35751,7 @@
         <v>1908446153</v>
       </c>
       <c r="C26" s="36" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="D26" s="29"/>
       <c r="E26" s="29"/>
@@ -35900,39 +35918,39 @@
       <c r="C29" s="58"/>
       <c r="D29" s="48">
         <f>D4+D5-D28</f>
-        <v>0</v>
+        <v>430730</v>
       </c>
       <c r="E29" s="48">
         <f t="shared" ref="E29:L29" si="8">E4+E5-E28</f>
-        <v>0</v>
+        <v>4360</v>
       </c>
       <c r="F29" s="48">
         <f t="shared" si="8"/>
-        <v>0</v>
+        <v>10390</v>
       </c>
       <c r="G29" s="48">
         <f t="shared" si="8"/>
-        <v>0</v>
+        <v>70</v>
       </c>
       <c r="H29" s="48">
         <f t="shared" si="8"/>
-        <v>0</v>
+        <v>14575</v>
       </c>
       <c r="I29" s="48">
         <f t="shared" si="8"/>
-        <v>0</v>
+        <v>1131</v>
       </c>
       <c r="J29" s="48">
         <f t="shared" si="8"/>
-        <v>0</v>
+        <v>388</v>
       </c>
       <c r="K29" s="48">
         <f t="shared" si="8"/>
-        <v>0</v>
+        <v>155</v>
       </c>
       <c r="L29" s="48">
         <f t="shared" si="8"/>
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="M29" s="59"/>
       <c r="N29" s="60"/>
@@ -36272,39 +36290,39 @@
       <c r="C4" s="1"/>
       <c r="D4" s="2">
         <f>'22'!D29</f>
-        <v>0</v>
+        <v>430730</v>
       </c>
       <c r="E4" s="2">
         <f>'22'!E29</f>
-        <v>0</v>
+        <v>4360</v>
       </c>
       <c r="F4" s="2">
         <f>'22'!F29</f>
-        <v>0</v>
+        <v>10390</v>
       </c>
       <c r="G4" s="2">
         <f>'22'!G29</f>
-        <v>0</v>
+        <v>70</v>
       </c>
       <c r="H4" s="2">
         <f>'22'!H29</f>
-        <v>0</v>
+        <v>14575</v>
       </c>
       <c r="I4" s="2">
         <f>'22'!I29</f>
-        <v>0</v>
+        <v>1131</v>
       </c>
       <c r="J4" s="2">
         <f>'22'!J29</f>
-        <v>0</v>
+        <v>388</v>
       </c>
       <c r="K4" s="2">
         <f>'22'!K29</f>
-        <v>0</v>
+        <v>155</v>
       </c>
       <c r="L4" s="2">
         <f>'22'!L29</f>
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="M4" s="3"/>
       <c r="N4" s="68"/>
@@ -36685,7 +36703,7 @@
         <v>1908446140</v>
       </c>
       <c r="C13" s="20" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D13" s="29"/>
       <c r="E13" s="30"/>
@@ -36915,7 +36933,7 @@
         <v>1908446145</v>
       </c>
       <c r="C18" s="31" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D18" s="29"/>
       <c r="E18" s="30"/>
@@ -36961,7 +36979,7 @@
         <v>1908446146</v>
       </c>
       <c r="C19" s="20" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D19" s="29"/>
       <c r="E19" s="30"/>
@@ -37007,7 +37025,7 @@
         <v>1908446147</v>
       </c>
       <c r="C20" s="20" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D20" s="29"/>
       <c r="E20" s="30"/>
@@ -37053,7 +37071,7 @@
         <v>1908446148</v>
       </c>
       <c r="C21" s="20" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D21" s="29"/>
       <c r="E21" s="30"/>
@@ -37283,7 +37301,7 @@
         <v>1908446153</v>
       </c>
       <c r="C26" s="36" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="D26" s="29"/>
       <c r="E26" s="29"/>
@@ -37450,39 +37468,39 @@
       <c r="C29" s="58"/>
       <c r="D29" s="48">
         <f>D4+D5-D28</f>
-        <v>0</v>
+        <v>430730</v>
       </c>
       <c r="E29" s="48">
         <f t="shared" ref="E29:L29" si="8">E4+E5-E28</f>
-        <v>0</v>
+        <v>4360</v>
       </c>
       <c r="F29" s="48">
         <f t="shared" si="8"/>
-        <v>0</v>
+        <v>10390</v>
       </c>
       <c r="G29" s="48">
         <f t="shared" si="8"/>
-        <v>0</v>
+        <v>70</v>
       </c>
       <c r="H29" s="48">
         <f t="shared" si="8"/>
-        <v>0</v>
+        <v>14575</v>
       </c>
       <c r="I29" s="48">
         <f t="shared" si="8"/>
-        <v>0</v>
+        <v>1131</v>
       </c>
       <c r="J29" s="48">
         <f t="shared" si="8"/>
-        <v>0</v>
+        <v>388</v>
       </c>
       <c r="K29" s="48">
         <f t="shared" si="8"/>
-        <v>0</v>
+        <v>155</v>
       </c>
       <c r="L29" s="48">
         <f t="shared" si="8"/>
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="M29" s="59"/>
       <c r="N29" s="60"/>
@@ -37822,39 +37840,39 @@
       <c r="C4" s="1"/>
       <c r="D4" s="2">
         <f>'23'!D29</f>
-        <v>0</v>
+        <v>430730</v>
       </c>
       <c r="E4" s="2">
         <f>'23'!E29</f>
-        <v>0</v>
+        <v>4360</v>
       </c>
       <c r="F4" s="2">
         <f>'23'!F29</f>
-        <v>0</v>
+        <v>10390</v>
       </c>
       <c r="G4" s="2">
         <f>'23'!G29</f>
-        <v>0</v>
+        <v>70</v>
       </c>
       <c r="H4" s="2">
         <f>'23'!H29</f>
-        <v>0</v>
+        <v>14575</v>
       </c>
       <c r="I4" s="2">
         <f>'23'!I29</f>
-        <v>0</v>
+        <v>1131</v>
       </c>
       <c r="J4" s="2">
         <f>'23'!J29</f>
-        <v>0</v>
+        <v>388</v>
       </c>
       <c r="K4" s="2">
         <f>'23'!K29</f>
-        <v>0</v>
+        <v>155</v>
       </c>
       <c r="L4" s="2">
         <f>'23'!L29</f>
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="M4" s="3"/>
       <c r="N4" s="68"/>
@@ -38235,7 +38253,7 @@
         <v>1908446140</v>
       </c>
       <c r="C13" s="20" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D13" s="29"/>
       <c r="E13" s="30"/>
@@ -38465,7 +38483,7 @@
         <v>1908446145</v>
       </c>
       <c r="C18" s="31" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D18" s="29"/>
       <c r="E18" s="30"/>
@@ -38511,7 +38529,7 @@
         <v>1908446146</v>
       </c>
       <c r="C19" s="20" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D19" s="29"/>
       <c r="E19" s="30"/>
@@ -38557,7 +38575,7 @@
         <v>1908446147</v>
       </c>
       <c r="C20" s="20" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D20" s="29"/>
       <c r="E20" s="30"/>
@@ -38603,7 +38621,7 @@
         <v>1908446148</v>
       </c>
       <c r="C21" s="20" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D21" s="29"/>
       <c r="E21" s="30"/>
@@ -38833,7 +38851,7 @@
         <v>1908446153</v>
       </c>
       <c r="C26" s="36" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="D26" s="29"/>
       <c r="E26" s="29"/>
@@ -39000,39 +39018,39 @@
       <c r="C29" s="58"/>
       <c r="D29" s="48">
         <f>D4+D5-D28</f>
-        <v>0</v>
+        <v>430730</v>
       </c>
       <c r="E29" s="48">
         <f t="shared" ref="E29:L29" si="8">E4+E5-E28</f>
-        <v>0</v>
+        <v>4360</v>
       </c>
       <c r="F29" s="48">
         <f t="shared" si="8"/>
-        <v>0</v>
+        <v>10390</v>
       </c>
       <c r="G29" s="48">
         <f t="shared" si="8"/>
-        <v>0</v>
+        <v>70</v>
       </c>
       <c r="H29" s="48">
         <f t="shared" si="8"/>
-        <v>0</v>
+        <v>14575</v>
       </c>
       <c r="I29" s="48">
         <f t="shared" si="8"/>
-        <v>0</v>
+        <v>1131</v>
       </c>
       <c r="J29" s="48">
         <f t="shared" si="8"/>
-        <v>0</v>
+        <v>388</v>
       </c>
       <c r="K29" s="48">
         <f t="shared" si="8"/>
-        <v>0</v>
+        <v>155</v>
       </c>
       <c r="L29" s="48">
         <f t="shared" si="8"/>
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="M29" s="59"/>
       <c r="N29" s="60"/>
@@ -39372,39 +39390,39 @@
       <c r="C4" s="1"/>
       <c r="D4" s="2">
         <f>'24'!D29</f>
-        <v>0</v>
+        <v>430730</v>
       </c>
       <c r="E4" s="2">
         <f>'24'!E29</f>
-        <v>0</v>
+        <v>4360</v>
       </c>
       <c r="F4" s="2">
         <f>'24'!F29</f>
-        <v>0</v>
+        <v>10390</v>
       </c>
       <c r="G4" s="2">
         <f>'24'!G29</f>
-        <v>0</v>
+        <v>70</v>
       </c>
       <c r="H4" s="2">
         <f>'24'!H29</f>
-        <v>0</v>
+        <v>14575</v>
       </c>
       <c r="I4" s="2">
         <f>'24'!I29</f>
-        <v>0</v>
+        <v>1131</v>
       </c>
       <c r="J4" s="2">
         <f>'24'!J29</f>
-        <v>0</v>
+        <v>388</v>
       </c>
       <c r="K4" s="2">
         <f>'24'!K29</f>
-        <v>0</v>
+        <v>155</v>
       </c>
       <c r="L4" s="2">
         <f>'24'!L29</f>
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="M4" s="3"/>
       <c r="N4" s="68"/>
@@ -39785,7 +39803,7 @@
         <v>1908446140</v>
       </c>
       <c r="C13" s="20" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D13" s="29"/>
       <c r="E13" s="30"/>
@@ -40015,7 +40033,7 @@
         <v>1908446145</v>
       </c>
       <c r="C18" s="31" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D18" s="29"/>
       <c r="E18" s="30"/>
@@ -40061,7 +40079,7 @@
         <v>1908446146</v>
       </c>
       <c r="C19" s="20" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D19" s="29"/>
       <c r="E19" s="30"/>
@@ -40107,7 +40125,7 @@
         <v>1908446147</v>
       </c>
       <c r="C20" s="20" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D20" s="29"/>
       <c r="E20" s="30"/>
@@ -40153,7 +40171,7 @@
         <v>1908446148</v>
       </c>
       <c r="C21" s="20" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D21" s="29"/>
       <c r="E21" s="30"/>
@@ -40383,7 +40401,7 @@
         <v>1908446153</v>
       </c>
       <c r="C26" s="36" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="D26" s="29"/>
       <c r="E26" s="29"/>
@@ -40550,39 +40568,39 @@
       <c r="C29" s="58"/>
       <c r="D29" s="48">
         <f>D4+D5-D28</f>
-        <v>0</v>
+        <v>430730</v>
       </c>
       <c r="E29" s="48">
         <f t="shared" ref="E29:L29" si="8">E4+E5-E28</f>
-        <v>0</v>
+        <v>4360</v>
       </c>
       <c r="F29" s="48">
         <f t="shared" si="8"/>
-        <v>0</v>
+        <v>10390</v>
       </c>
       <c r="G29" s="48">
         <f t="shared" si="8"/>
-        <v>0</v>
+        <v>70</v>
       </c>
       <c r="H29" s="48">
         <f t="shared" si="8"/>
-        <v>0</v>
+        <v>14575</v>
       </c>
       <c r="I29" s="48">
         <f t="shared" si="8"/>
-        <v>0</v>
+        <v>1131</v>
       </c>
       <c r="J29" s="48">
         <f t="shared" si="8"/>
-        <v>0</v>
+        <v>388</v>
       </c>
       <c r="K29" s="48">
         <f t="shared" si="8"/>
-        <v>0</v>
+        <v>155</v>
       </c>
       <c r="L29" s="48">
         <f t="shared" si="8"/>
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="M29" s="59"/>
       <c r="N29" s="60"/>
@@ -40922,39 +40940,39 @@
       <c r="C4" s="1"/>
       <c r="D4" s="2">
         <f>'25'!D29</f>
-        <v>0</v>
+        <v>430730</v>
       </c>
       <c r="E4" s="2">
         <f>'25'!E29</f>
-        <v>0</v>
+        <v>4360</v>
       </c>
       <c r="F4" s="2">
         <f>'25'!F29</f>
-        <v>0</v>
+        <v>10390</v>
       </c>
       <c r="G4" s="2">
         <f>'25'!G29</f>
-        <v>0</v>
+        <v>70</v>
       </c>
       <c r="H4" s="2">
         <f>'25'!H29</f>
-        <v>0</v>
+        <v>14575</v>
       </c>
       <c r="I4" s="2">
         <f>'25'!I29</f>
-        <v>0</v>
+        <v>1131</v>
       </c>
       <c r="J4" s="2">
         <f>'25'!J29</f>
-        <v>0</v>
+        <v>388</v>
       </c>
       <c r="K4" s="2">
         <f>'25'!K29</f>
-        <v>0</v>
+        <v>155</v>
       </c>
       <c r="L4" s="2">
         <f>'25'!L29</f>
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="M4" s="3"/>
       <c r="N4" s="68"/>
@@ -41335,7 +41353,7 @@
         <v>1908446140</v>
       </c>
       <c r="C13" s="20" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D13" s="29"/>
       <c r="E13" s="30"/>
@@ -41565,7 +41583,7 @@
         <v>1908446145</v>
       </c>
       <c r="C18" s="31" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D18" s="29"/>
       <c r="E18" s="30"/>
@@ -41611,7 +41629,7 @@
         <v>1908446146</v>
       </c>
       <c r="C19" s="20" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D19" s="29"/>
       <c r="E19" s="30"/>
@@ -41657,7 +41675,7 @@
         <v>1908446147</v>
       </c>
       <c r="C20" s="20" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D20" s="29"/>
       <c r="E20" s="30"/>
@@ -41703,7 +41721,7 @@
         <v>1908446148</v>
       </c>
       <c r="C21" s="20" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D21" s="29"/>
       <c r="E21" s="30"/>
@@ -41933,7 +41951,7 @@
         <v>1908446153</v>
       </c>
       <c r="C26" s="36" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="D26" s="29"/>
       <c r="E26" s="29"/>
@@ -42100,39 +42118,39 @@
       <c r="C29" s="58"/>
       <c r="D29" s="48">
         <f>D4+D5-D28</f>
-        <v>0</v>
+        <v>430730</v>
       </c>
       <c r="E29" s="48">
         <f t="shared" ref="E29:L29" si="8">E4+E5-E28</f>
-        <v>0</v>
+        <v>4360</v>
       </c>
       <c r="F29" s="48">
         <f t="shared" si="8"/>
-        <v>0</v>
+        <v>10390</v>
       </c>
       <c r="G29" s="48">
         <f t="shared" si="8"/>
-        <v>0</v>
+        <v>70</v>
       </c>
       <c r="H29" s="48">
         <f t="shared" si="8"/>
-        <v>0</v>
+        <v>14575</v>
       </c>
       <c r="I29" s="48">
         <f t="shared" si="8"/>
-        <v>0</v>
+        <v>1131</v>
       </c>
       <c r="J29" s="48">
         <f t="shared" si="8"/>
-        <v>0</v>
+        <v>388</v>
       </c>
       <c r="K29" s="48">
         <f t="shared" si="8"/>
-        <v>0</v>
+        <v>155</v>
       </c>
       <c r="L29" s="48">
         <f t="shared" si="8"/>
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="M29" s="59"/>
       <c r="N29" s="60"/>
@@ -42472,39 +42490,39 @@
       <c r="C4" s="1"/>
       <c r="D4" s="2">
         <f>'26'!D29</f>
-        <v>0</v>
+        <v>430730</v>
       </c>
       <c r="E4" s="2">
         <f>'26'!E29</f>
-        <v>0</v>
+        <v>4360</v>
       </c>
       <c r="F4" s="2">
         <f>'26'!F29</f>
-        <v>0</v>
+        <v>10390</v>
       </c>
       <c r="G4" s="2">
         <f>'26'!G29</f>
-        <v>0</v>
+        <v>70</v>
       </c>
       <c r="H4" s="2">
         <f>'26'!H29</f>
-        <v>0</v>
+        <v>14575</v>
       </c>
       <c r="I4" s="2">
         <f>'26'!I29</f>
-        <v>0</v>
+        <v>1131</v>
       </c>
       <c r="J4" s="2">
         <f>'26'!J29</f>
-        <v>0</v>
+        <v>388</v>
       </c>
       <c r="K4" s="2">
         <f>'26'!K29</f>
-        <v>0</v>
+        <v>155</v>
       </c>
       <c r="L4" s="2">
         <f>'26'!L29</f>
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="M4" s="3"/>
       <c r="N4" s="68"/>
@@ -42885,7 +42903,7 @@
         <v>1908446140</v>
       </c>
       <c r="C13" s="20" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D13" s="29"/>
       <c r="E13" s="30"/>
@@ -43115,7 +43133,7 @@
         <v>1908446145</v>
       </c>
       <c r="C18" s="31" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D18" s="29"/>
       <c r="E18" s="30"/>
@@ -43161,7 +43179,7 @@
         <v>1908446146</v>
       </c>
       <c r="C19" s="20" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D19" s="29"/>
       <c r="E19" s="30"/>
@@ -43207,7 +43225,7 @@
         <v>1908446147</v>
       </c>
       <c r="C20" s="20" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D20" s="29"/>
       <c r="E20" s="30"/>
@@ -43253,7 +43271,7 @@
         <v>1908446148</v>
       </c>
       <c r="C21" s="20" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D21" s="29"/>
       <c r="E21" s="30"/>
@@ -43483,7 +43501,7 @@
         <v>1908446153</v>
       </c>
       <c r="C26" s="36" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="D26" s="29"/>
       <c r="E26" s="29"/>
@@ -43650,39 +43668,39 @@
       <c r="C29" s="58"/>
       <c r="D29" s="48">
         <f>D4+D5-D28</f>
-        <v>0</v>
+        <v>430730</v>
       </c>
       <c r="E29" s="48">
         <f t="shared" ref="E29:L29" si="8">E4+E5-E28</f>
-        <v>0</v>
+        <v>4360</v>
       </c>
       <c r="F29" s="48">
         <f t="shared" si="8"/>
-        <v>0</v>
+        <v>10390</v>
       </c>
       <c r="G29" s="48">
         <f t="shared" si="8"/>
-        <v>0</v>
+        <v>70</v>
       </c>
       <c r="H29" s="48">
         <f t="shared" si="8"/>
-        <v>0</v>
+        <v>14575</v>
       </c>
       <c r="I29" s="48">
         <f t="shared" si="8"/>
-        <v>0</v>
+        <v>1131</v>
       </c>
       <c r="J29" s="48">
         <f t="shared" si="8"/>
-        <v>0</v>
+        <v>388</v>
       </c>
       <c r="K29" s="48">
         <f t="shared" si="8"/>
-        <v>0</v>
+        <v>155</v>
       </c>
       <c r="L29" s="48">
         <f t="shared" si="8"/>
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="M29" s="59"/>
       <c r="N29" s="60"/>
@@ -44022,39 +44040,39 @@
       <c r="C4" s="1"/>
       <c r="D4" s="2">
         <f>'27'!D29</f>
-        <v>0</v>
+        <v>430730</v>
       </c>
       <c r="E4" s="2">
         <f>'27'!E29</f>
-        <v>0</v>
+        <v>4360</v>
       </c>
       <c r="F4" s="2">
         <f>'27'!F29</f>
-        <v>0</v>
+        <v>10390</v>
       </c>
       <c r="G4" s="2">
         <f>'27'!G29</f>
-        <v>0</v>
+        <v>70</v>
       </c>
       <c r="H4" s="2">
         <f>'27'!H29</f>
-        <v>0</v>
+        <v>14575</v>
       </c>
       <c r="I4" s="2">
         <f>'27'!I29</f>
-        <v>0</v>
+        <v>1131</v>
       </c>
       <c r="J4" s="2">
         <f>'27'!J29</f>
-        <v>0</v>
+        <v>388</v>
       </c>
       <c r="K4" s="2">
         <f>'27'!K29</f>
-        <v>0</v>
+        <v>155</v>
       </c>
       <c r="L4" s="2">
         <f>'27'!L29</f>
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="M4" s="3"/>
       <c r="N4" s="68"/>
@@ -44435,7 +44453,7 @@
         <v>1908446140</v>
       </c>
       <c r="C13" s="20" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D13" s="29"/>
       <c r="E13" s="30"/>
@@ -44665,7 +44683,7 @@
         <v>1908446145</v>
       </c>
       <c r="C18" s="31" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D18" s="29"/>
       <c r="E18" s="30"/>
@@ -44711,7 +44729,7 @@
         <v>1908446146</v>
       </c>
       <c r="C19" s="20" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D19" s="29"/>
       <c r="E19" s="30"/>
@@ -44757,7 +44775,7 @@
         <v>1908446147</v>
       </c>
       <c r="C20" s="20" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D20" s="29"/>
       <c r="E20" s="30"/>
@@ -44803,7 +44821,7 @@
         <v>1908446148</v>
       </c>
       <c r="C21" s="20" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D21" s="29"/>
       <c r="E21" s="30"/>
@@ -45033,7 +45051,7 @@
         <v>1908446153</v>
       </c>
       <c r="C26" s="36" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="D26" s="29"/>
       <c r="E26" s="29"/>
@@ -45200,39 +45218,39 @@
       <c r="C29" s="58"/>
       <c r="D29" s="48">
         <f>D4+D5-D28</f>
-        <v>0</v>
+        <v>430730</v>
       </c>
       <c r="E29" s="48">
         <f t="shared" ref="E29:L29" si="8">E4+E5-E28</f>
-        <v>0</v>
+        <v>4360</v>
       </c>
       <c r="F29" s="48">
         <f t="shared" si="8"/>
-        <v>0</v>
+        <v>10390</v>
       </c>
       <c r="G29" s="48">
         <f t="shared" si="8"/>
-        <v>0</v>
+        <v>70</v>
       </c>
       <c r="H29" s="48">
         <f t="shared" si="8"/>
-        <v>0</v>
+        <v>14575</v>
       </c>
       <c r="I29" s="48">
         <f t="shared" si="8"/>
-        <v>0</v>
+        <v>1131</v>
       </c>
       <c r="J29" s="48">
         <f t="shared" si="8"/>
-        <v>0</v>
+        <v>388</v>
       </c>
       <c r="K29" s="48">
         <f t="shared" si="8"/>
-        <v>0</v>
+        <v>155</v>
       </c>
       <c r="L29" s="48">
         <f t="shared" si="8"/>
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="M29" s="59"/>
       <c r="N29" s="60"/>
@@ -45572,39 +45590,39 @@
       <c r="C4" s="1"/>
       <c r="D4" s="2">
         <f>'28'!D29</f>
-        <v>0</v>
+        <v>430730</v>
       </c>
       <c r="E4" s="2">
         <f>'28'!E29</f>
-        <v>0</v>
+        <v>4360</v>
       </c>
       <c r="F4" s="2">
         <f>'28'!F29</f>
-        <v>0</v>
+        <v>10390</v>
       </c>
       <c r="G4" s="2">
         <f>'28'!G29</f>
-        <v>0</v>
+        <v>70</v>
       </c>
       <c r="H4" s="2">
         <f>'28'!H29</f>
-        <v>0</v>
+        <v>14575</v>
       </c>
       <c r="I4" s="2">
         <f>'28'!I29</f>
-        <v>0</v>
+        <v>1131</v>
       </c>
       <c r="J4" s="2">
         <f>'28'!J29</f>
-        <v>0</v>
+        <v>388</v>
       </c>
       <c r="K4" s="2">
         <f>'28'!K29</f>
-        <v>0</v>
+        <v>155</v>
       </c>
       <c r="L4" s="2">
         <f>'28'!L29</f>
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="M4" s="3"/>
       <c r="N4" s="68"/>
@@ -45985,7 +46003,7 @@
         <v>1908446140</v>
       </c>
       <c r="C13" s="20" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D13" s="29"/>
       <c r="E13" s="30"/>
@@ -46215,7 +46233,7 @@
         <v>1908446145</v>
       </c>
       <c r="C18" s="31" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D18" s="29"/>
       <c r="E18" s="30"/>
@@ -46261,7 +46279,7 @@
         <v>1908446146</v>
       </c>
       <c r="C19" s="20" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D19" s="29"/>
       <c r="E19" s="30"/>
@@ -46307,7 +46325,7 @@
         <v>1908446147</v>
       </c>
       <c r="C20" s="20" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D20" s="29"/>
       <c r="E20" s="30"/>
@@ -46353,7 +46371,7 @@
         <v>1908446148</v>
       </c>
       <c r="C21" s="20" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D21" s="29"/>
       <c r="E21" s="30"/>
@@ -46583,7 +46601,7 @@
         <v>1908446153</v>
       </c>
       <c r="C26" s="36" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="D26" s="29"/>
       <c r="E26" s="29"/>
@@ -46750,39 +46768,39 @@
       <c r="C29" s="58"/>
       <c r="D29" s="48">
         <f>D4+D5-D28</f>
-        <v>0</v>
+        <v>430730</v>
       </c>
       <c r="E29" s="48">
         <f t="shared" ref="E29:L29" si="8">E4+E5-E28</f>
-        <v>0</v>
+        <v>4360</v>
       </c>
       <c r="F29" s="48">
         <f t="shared" si="8"/>
-        <v>0</v>
+        <v>10390</v>
       </c>
       <c r="G29" s="48">
         <f t="shared" si="8"/>
-        <v>0</v>
+        <v>70</v>
       </c>
       <c r="H29" s="48">
         <f t="shared" si="8"/>
-        <v>0</v>
+        <v>14575</v>
       </c>
       <c r="I29" s="48">
         <f t="shared" si="8"/>
-        <v>0</v>
+        <v>1131</v>
       </c>
       <c r="J29" s="48">
         <f t="shared" si="8"/>
-        <v>0</v>
+        <v>388</v>
       </c>
       <c r="K29" s="48">
         <f t="shared" si="8"/>
-        <v>0</v>
+        <v>155</v>
       </c>
       <c r="L29" s="48">
         <f t="shared" si="8"/>
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="M29" s="59"/>
       <c r="N29" s="60"/>
@@ -47122,39 +47140,39 @@
       <c r="C4" s="1"/>
       <c r="D4" s="2">
         <f>'2'!D29</f>
-        <v>0</v>
+        <v>430730</v>
       </c>
       <c r="E4" s="2">
         <f>'2'!E29</f>
-        <v>0</v>
+        <v>4360</v>
       </c>
       <c r="F4" s="2">
         <f>'2'!F29</f>
-        <v>0</v>
+        <v>10390</v>
       </c>
       <c r="G4" s="2">
         <f>'2'!G29</f>
-        <v>0</v>
+        <v>70</v>
       </c>
       <c r="H4" s="2">
         <f>'2'!H29</f>
-        <v>0</v>
+        <v>14575</v>
       </c>
       <c r="I4" s="2">
         <f>'2'!I29</f>
-        <v>0</v>
+        <v>1131</v>
       </c>
       <c r="J4" s="2">
         <f>'2'!J29</f>
-        <v>0</v>
+        <v>388</v>
       </c>
       <c r="K4" s="2">
         <f>'2'!K29</f>
-        <v>0</v>
+        <v>155</v>
       </c>
       <c r="L4" s="2">
         <f>'2'!L29</f>
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="M4" s="3"/>
       <c r="N4" s="68"/>
@@ -47535,7 +47553,7 @@
         <v>1908446140</v>
       </c>
       <c r="C13" s="20" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D13" s="29"/>
       <c r="E13" s="30"/>
@@ -47765,7 +47783,7 @@
         <v>1908446145</v>
       </c>
       <c r="C18" s="31" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D18" s="29"/>
       <c r="E18" s="30"/>
@@ -47811,7 +47829,7 @@
         <v>1908446146</v>
       </c>
       <c r="C19" s="20" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D19" s="29"/>
       <c r="E19" s="30"/>
@@ -47857,7 +47875,7 @@
         <v>1908446147</v>
       </c>
       <c r="C20" s="20" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D20" s="29"/>
       <c r="E20" s="30"/>
@@ -47903,7 +47921,7 @@
         <v>1908446148</v>
       </c>
       <c r="C21" s="20" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D21" s="29"/>
       <c r="E21" s="30"/>
@@ -48133,7 +48151,7 @@
         <v>1908446153</v>
       </c>
       <c r="C26" s="36" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="D26" s="29"/>
       <c r="E26" s="29"/>
@@ -48300,39 +48318,39 @@
       <c r="C29" s="58"/>
       <c r="D29" s="48">
         <f>D4+D5-D28</f>
-        <v>0</v>
+        <v>430730</v>
       </c>
       <c r="E29" s="48">
         <f t="shared" ref="E29:L29" si="8">E4+E5-E28</f>
-        <v>0</v>
+        <v>4360</v>
       </c>
       <c r="F29" s="48">
         <f t="shared" si="8"/>
-        <v>0</v>
+        <v>10390</v>
       </c>
       <c r="G29" s="48">
         <f t="shared" si="8"/>
-        <v>0</v>
+        <v>70</v>
       </c>
       <c r="H29" s="48">
         <f t="shared" si="8"/>
-        <v>0</v>
+        <v>14575</v>
       </c>
       <c r="I29" s="48">
         <f t="shared" si="8"/>
-        <v>0</v>
+        <v>1131</v>
       </c>
       <c r="J29" s="48">
         <f t="shared" si="8"/>
-        <v>0</v>
+        <v>388</v>
       </c>
       <c r="K29" s="48">
         <f t="shared" si="8"/>
-        <v>0</v>
+        <v>155</v>
       </c>
       <c r="L29" s="48">
         <f t="shared" si="8"/>
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="M29" s="59"/>
       <c r="N29" s="60"/>
@@ -48672,39 +48690,39 @@
       <c r="C4" s="1"/>
       <c r="D4" s="2">
         <f>'29'!D29</f>
-        <v>0</v>
+        <v>430730</v>
       </c>
       <c r="E4" s="2">
         <f>'29'!E29</f>
-        <v>0</v>
+        <v>4360</v>
       </c>
       <c r="F4" s="2">
         <f>'29'!F29</f>
-        <v>0</v>
+        <v>10390</v>
       </c>
       <c r="G4" s="2">
         <f>'29'!G29</f>
-        <v>0</v>
+        <v>70</v>
       </c>
       <c r="H4" s="2">
         <f>'29'!H29</f>
-        <v>0</v>
+        <v>14575</v>
       </c>
       <c r="I4" s="2">
         <f>'29'!I29</f>
-        <v>0</v>
+        <v>1131</v>
       </c>
       <c r="J4" s="2">
         <f>'29'!J29</f>
-        <v>0</v>
+        <v>388</v>
       </c>
       <c r="K4" s="2">
         <f>'29'!K29</f>
-        <v>0</v>
+        <v>155</v>
       </c>
       <c r="L4" s="2">
         <f>'29'!L29</f>
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="M4" s="3"/>
       <c r="N4" s="68"/>
@@ -49085,7 +49103,7 @@
         <v>1908446140</v>
       </c>
       <c r="C13" s="20" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D13" s="29"/>
       <c r="E13" s="30"/>
@@ -49315,7 +49333,7 @@
         <v>1908446145</v>
       </c>
       <c r="C18" s="31" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D18" s="29"/>
       <c r="E18" s="30"/>
@@ -49361,7 +49379,7 @@
         <v>1908446146</v>
       </c>
       <c r="C19" s="20" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D19" s="29"/>
       <c r="E19" s="30"/>
@@ -49407,7 +49425,7 @@
         <v>1908446147</v>
       </c>
       <c r="C20" s="20" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D20" s="29"/>
       <c r="E20" s="30"/>
@@ -49453,7 +49471,7 @@
         <v>1908446148</v>
       </c>
       <c r="C21" s="20" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D21" s="29"/>
       <c r="E21" s="30"/>
@@ -49683,7 +49701,7 @@
         <v>1908446153</v>
       </c>
       <c r="C26" s="36" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="D26" s="29"/>
       <c r="E26" s="29"/>
@@ -49850,39 +49868,39 @@
       <c r="C29" s="58"/>
       <c r="D29" s="48">
         <f>D4+D5-D28</f>
-        <v>0</v>
+        <v>430730</v>
       </c>
       <c r="E29" s="48">
         <f t="shared" ref="E29:L29" si="8">E4+E5-E28</f>
-        <v>0</v>
+        <v>4360</v>
       </c>
       <c r="F29" s="48">
         <f t="shared" si="8"/>
-        <v>0</v>
+        <v>10390</v>
       </c>
       <c r="G29" s="48">
         <f t="shared" si="8"/>
-        <v>0</v>
+        <v>70</v>
       </c>
       <c r="H29" s="48">
         <f t="shared" si="8"/>
-        <v>0</v>
+        <v>14575</v>
       </c>
       <c r="I29" s="48">
         <f t="shared" si="8"/>
-        <v>0</v>
+        <v>1131</v>
       </c>
       <c r="J29" s="48">
         <f t="shared" si="8"/>
-        <v>0</v>
+        <v>388</v>
       </c>
       <c r="K29" s="48">
         <f t="shared" si="8"/>
-        <v>0</v>
+        <v>155</v>
       </c>
       <c r="L29" s="48">
         <f t="shared" si="8"/>
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="M29" s="59"/>
       <c r="N29" s="60"/>
@@ -50222,39 +50240,39 @@
       <c r="C4" s="1"/>
       <c r="D4" s="2">
         <f>'30'!D29</f>
-        <v>0</v>
+        <v>430730</v>
       </c>
       <c r="E4" s="2">
         <f>'30'!E29</f>
-        <v>0</v>
+        <v>4360</v>
       </c>
       <c r="F4" s="2">
         <f>'30'!F29</f>
-        <v>0</v>
+        <v>10390</v>
       </c>
       <c r="G4" s="2">
         <f>'30'!G29</f>
-        <v>0</v>
+        <v>70</v>
       </c>
       <c r="H4" s="2">
         <f>'30'!H29</f>
-        <v>0</v>
+        <v>14575</v>
       </c>
       <c r="I4" s="2">
         <f>'30'!I29</f>
-        <v>0</v>
+        <v>1131</v>
       </c>
       <c r="J4" s="2">
         <f>'30'!J29</f>
-        <v>0</v>
+        <v>388</v>
       </c>
       <c r="K4" s="2">
         <f>'30'!K29</f>
-        <v>0</v>
+        <v>155</v>
       </c>
       <c r="L4" s="2">
         <f>'30'!L29</f>
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="M4" s="3"/>
       <c r="N4" s="68"/>
@@ -50635,7 +50653,7 @@
         <v>1908446140</v>
       </c>
       <c r="C13" s="20" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D13" s="29"/>
       <c r="E13" s="30"/>
@@ -50865,7 +50883,7 @@
         <v>1908446145</v>
       </c>
       <c r="C18" s="31" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D18" s="29"/>
       <c r="E18" s="30"/>
@@ -50911,7 +50929,7 @@
         <v>1908446146</v>
       </c>
       <c r="C19" s="20" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D19" s="29"/>
       <c r="E19" s="30"/>
@@ -50957,7 +50975,7 @@
         <v>1908446147</v>
       </c>
       <c r="C20" s="20" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D20" s="29"/>
       <c r="E20" s="30"/>
@@ -51003,7 +51021,7 @@
         <v>1908446148</v>
       </c>
       <c r="C21" s="20" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D21" s="29"/>
       <c r="E21" s="30"/>
@@ -51233,7 +51251,7 @@
         <v>1908446153</v>
       </c>
       <c r="C26" s="36" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="D26" s="29"/>
       <c r="E26" s="29"/>
@@ -51400,39 +51418,39 @@
       <c r="C29" s="58"/>
       <c r="D29" s="48">
         <f>D4+D5-D28</f>
-        <v>0</v>
+        <v>430730</v>
       </c>
       <c r="E29" s="48">
         <f t="shared" ref="E29:L29" si="8">E4+E5-E28</f>
-        <v>0</v>
+        <v>4360</v>
       </c>
       <c r="F29" s="48">
         <f t="shared" si="8"/>
-        <v>0</v>
+        <v>10390</v>
       </c>
       <c r="G29" s="48">
         <f t="shared" si="8"/>
-        <v>0</v>
+        <v>70</v>
       </c>
       <c r="H29" s="48">
         <f t="shared" si="8"/>
-        <v>0</v>
+        <v>14575</v>
       </c>
       <c r="I29" s="48">
         <f t="shared" si="8"/>
-        <v>0</v>
+        <v>1131</v>
       </c>
       <c r="J29" s="48">
         <f t="shared" si="8"/>
-        <v>0</v>
+        <v>388</v>
       </c>
       <c r="K29" s="48">
         <f t="shared" si="8"/>
-        <v>0</v>
+        <v>155</v>
       </c>
       <c r="L29" s="48">
         <f t="shared" si="8"/>
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="M29" s="59"/>
       <c r="N29" s="60"/>
@@ -51769,39 +51787,39 @@
       <c r="C4" s="1"/>
       <c r="D4" s="2">
         <f>'1'!D4</f>
-        <v>0</v>
+        <v>430730</v>
       </c>
       <c r="E4" s="2">
         <f>'1'!E4</f>
-        <v>0</v>
+        <v>4360</v>
       </c>
       <c r="F4" s="2">
         <f>'1'!F4</f>
-        <v>0</v>
+        <v>10390</v>
       </c>
       <c r="G4" s="2">
         <f>'1'!G4</f>
-        <v>0</v>
+        <v>70</v>
       </c>
       <c r="H4" s="2">
         <f>'1'!H4</f>
-        <v>0</v>
+        <v>14575</v>
       </c>
       <c r="I4" s="2">
         <f>'1'!I4</f>
-        <v>0</v>
+        <v>1131</v>
       </c>
       <c r="J4" s="2">
         <f>'1'!J4</f>
-        <v>0</v>
+        <v>388</v>
       </c>
       <c r="K4" s="2">
         <f>'1'!K4</f>
-        <v>0</v>
+        <v>155</v>
       </c>
       <c r="L4" s="2">
         <f>'1'!L4</f>
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="M4" s="3"/>
       <c r="N4" s="68"/>
@@ -52389,7 +52407,7 @@
         <v>1908446140</v>
       </c>
       <c r="C13" s="20" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D13" s="21">
         <f>'1'!D13+'2'!D13+'3'!D13+'4'!D13+'5'!D13+'6'!D13+'7'!D13+'8'!D13+'9'!D13+'10'!D13+'11'!D13+'12'!D13+'13'!D13+'14'!D13+'15'!D13+'16'!D13+'17'!D13+'18'!D13+'19'!D13+'20'!D13+'21'!D13+'22'!D13+'23'!D13+'24'!D13+'25'!D13+'26'!D13+'27'!D13+'28'!D13+'29'!D13+'30'!D13+'31'!D13</f>
@@ -52769,7 +52787,7 @@
         <v>1908446145</v>
       </c>
       <c r="C18" s="31" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D18" s="21">
         <f>'1'!D18+'2'!D18+'3'!D18+'4'!D18+'5'!D18+'6'!D18+'7'!D18+'8'!D18+'9'!D18+'10'!D18+'11'!D18+'12'!D18+'13'!D18+'14'!D18+'15'!D18+'16'!D18+'17'!D18+'18'!D18+'19'!D18+'20'!D18+'21'!D18+'22'!D18+'23'!D18+'24'!D18+'25'!D18+'26'!D18+'27'!D18+'28'!D18+'29'!D18+'30'!D18+'31'!D18</f>
@@ -52845,7 +52863,7 @@
         <v>1908446146</v>
       </c>
       <c r="C19" s="20" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D19" s="21">
         <f>'1'!D19+'2'!D19+'3'!D19+'4'!D19+'5'!D19+'6'!D19+'7'!D19+'8'!D19+'9'!D19+'10'!D19+'11'!D19+'12'!D19+'13'!D19+'14'!D19+'15'!D19+'16'!D19+'17'!D19+'18'!D19+'19'!D19+'20'!D19+'21'!D19+'22'!D19+'23'!D19+'24'!D19+'25'!D19+'26'!D19+'27'!D19+'28'!D19+'29'!D19+'30'!D19+'31'!D19</f>
@@ -52921,7 +52939,7 @@
         <v>1908446147</v>
       </c>
       <c r="C20" s="20" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D20" s="21">
         <f>'1'!D20+'2'!D20+'3'!D20+'4'!D20+'5'!D20+'6'!D20+'7'!D20+'8'!D20+'9'!D20+'10'!D20+'11'!D20+'12'!D20+'13'!D20+'14'!D20+'15'!D20+'16'!D20+'17'!D20+'18'!D20+'19'!D20+'20'!D20+'21'!D20+'22'!D20+'23'!D20+'24'!D20+'25'!D20+'26'!D20+'27'!D20+'28'!D20+'29'!D20+'30'!D20+'31'!D20</f>
@@ -52997,7 +53015,7 @@
         <v>1908446148</v>
       </c>
       <c r="C21" s="20" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D21" s="21">
         <f>'1'!D21+'2'!D21+'3'!D21+'4'!D21+'5'!D21+'6'!D21+'7'!D21+'8'!D21+'9'!D21+'10'!D21+'11'!D21+'12'!D21+'13'!D21+'14'!D21+'15'!D21+'16'!D21+'17'!D21+'18'!D21+'19'!D21+'20'!D21+'21'!D21+'22'!D21+'23'!D21+'24'!D21+'25'!D21+'26'!D21+'27'!D21+'28'!D21+'29'!D21+'30'!D21+'31'!D21</f>
@@ -53377,7 +53395,7 @@
         <v>1908446153</v>
       </c>
       <c r="C26" s="36" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="D26" s="21">
         <f>'1'!D26+'2'!D26+'3'!D26+'4'!D26+'5'!D26+'6'!D26+'7'!D26+'8'!D26+'9'!D26+'10'!D26+'11'!D26+'12'!D26+'13'!D26+'14'!D26+'15'!D26+'16'!D26+'17'!D26+'18'!D26+'19'!D26+'20'!D26+'21'!D26+'22'!D26+'23'!D26+'24'!D26+'25'!D26+'26'!D26+'27'!D26+'28'!D26+'29'!D26+'30'!D26+'31'!D26</f>
@@ -53604,39 +53622,39 @@
       <c r="C29" s="58"/>
       <c r="D29" s="48">
         <f>D4+D5-D28</f>
-        <v>0</v>
+        <v>430730</v>
       </c>
       <c r="E29" s="48">
         <f t="shared" ref="E29:L29" si="8">E4+E5-E28</f>
-        <v>0</v>
+        <v>4360</v>
       </c>
       <c r="F29" s="48">
         <f t="shared" si="8"/>
-        <v>0</v>
+        <v>10390</v>
       </c>
       <c r="G29" s="48">
         <f t="shared" si="8"/>
-        <v>0</v>
+        <v>70</v>
       </c>
       <c r="H29" s="48">
         <f t="shared" si="8"/>
-        <v>0</v>
+        <v>14575</v>
       </c>
       <c r="I29" s="48">
         <f t="shared" si="8"/>
-        <v>0</v>
+        <v>1131</v>
       </c>
       <c r="J29" s="48">
         <f t="shared" si="8"/>
-        <v>0</v>
+        <v>388</v>
       </c>
       <c r="K29" s="48">
         <f t="shared" si="8"/>
-        <v>0</v>
+        <v>155</v>
       </c>
       <c r="L29" s="48">
         <f t="shared" si="8"/>
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="M29" s="59"/>
       <c r="N29" s="60"/>
@@ -53972,39 +53990,39 @@
       <c r="C4" s="1"/>
       <c r="D4" s="2">
         <f>'3'!D29</f>
-        <v>0</v>
+        <v>430730</v>
       </c>
       <c r="E4" s="2">
         <f>'3'!E29</f>
-        <v>0</v>
+        <v>4360</v>
       </c>
       <c r="F4" s="2">
         <f>'3'!F29</f>
-        <v>0</v>
+        <v>10390</v>
       </c>
       <c r="G4" s="2">
         <f>'3'!G29</f>
-        <v>0</v>
+        <v>70</v>
       </c>
       <c r="H4" s="2">
         <f>'3'!H29</f>
-        <v>0</v>
+        <v>14575</v>
       </c>
       <c r="I4" s="2">
         <f>'3'!I29</f>
-        <v>0</v>
+        <v>1131</v>
       </c>
       <c r="J4" s="2">
         <f>'3'!J29</f>
-        <v>0</v>
+        <v>388</v>
       </c>
       <c r="K4" s="2">
         <f>'3'!K29</f>
-        <v>0</v>
+        <v>155</v>
       </c>
       <c r="L4" s="2">
         <f>'3'!L29</f>
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="M4" s="3"/>
       <c r="N4" s="68"/>
@@ -54385,7 +54403,7 @@
         <v>1908446140</v>
       </c>
       <c r="C13" s="20" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D13" s="29"/>
       <c r="E13" s="30"/>
@@ -54615,7 +54633,7 @@
         <v>1908446145</v>
       </c>
       <c r="C18" s="31" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D18" s="29"/>
       <c r="E18" s="30"/>
@@ -54661,7 +54679,7 @@
         <v>1908446146</v>
       </c>
       <c r="C19" s="20" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D19" s="29"/>
       <c r="E19" s="30"/>
@@ -54707,7 +54725,7 @@
         <v>1908446147</v>
       </c>
       <c r="C20" s="20" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D20" s="29"/>
       <c r="E20" s="30"/>
@@ -54753,7 +54771,7 @@
         <v>1908446148</v>
       </c>
       <c r="C21" s="20" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D21" s="29"/>
       <c r="E21" s="30"/>
@@ -54983,7 +55001,7 @@
         <v>1908446153</v>
       </c>
       <c r="C26" s="36" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="D26" s="29"/>
       <c r="E26" s="29"/>
@@ -55150,39 +55168,39 @@
       <c r="C29" s="58"/>
       <c r="D29" s="48">
         <f>D4+D5-D28</f>
-        <v>0</v>
+        <v>430730</v>
       </c>
       <c r="E29" s="48">
         <f t="shared" ref="E29:L29" si="8">E4+E5-E28</f>
-        <v>0</v>
+        <v>4360</v>
       </c>
       <c r="F29" s="48">
         <f t="shared" si="8"/>
-        <v>0</v>
+        <v>10390</v>
       </c>
       <c r="G29" s="48">
         <f t="shared" si="8"/>
-        <v>0</v>
+        <v>70</v>
       </c>
       <c r="H29" s="48">
         <f t="shared" si="8"/>
-        <v>0</v>
+        <v>14575</v>
       </c>
       <c r="I29" s="48">
         <f t="shared" si="8"/>
-        <v>0</v>
+        <v>1131</v>
       </c>
       <c r="J29" s="48">
         <f t="shared" si="8"/>
-        <v>0</v>
+        <v>388</v>
       </c>
       <c r="K29" s="48">
         <f t="shared" si="8"/>
-        <v>0</v>
+        <v>155</v>
       </c>
       <c r="L29" s="48">
         <f t="shared" si="8"/>
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="M29" s="59"/>
       <c r="N29" s="60"/>
@@ -55522,39 +55540,39 @@
       <c r="C4" s="1"/>
       <c r="D4" s="2">
         <f>'4'!D29</f>
-        <v>0</v>
+        <v>430730</v>
       </c>
       <c r="E4" s="2">
         <f>'4'!E29</f>
-        <v>0</v>
+        <v>4360</v>
       </c>
       <c r="F4" s="2">
         <f>'4'!F29</f>
-        <v>0</v>
+        <v>10390</v>
       </c>
       <c r="G4" s="2">
         <f>'4'!G29</f>
-        <v>0</v>
+        <v>70</v>
       </c>
       <c r="H4" s="2">
         <f>'4'!H29</f>
-        <v>0</v>
+        <v>14575</v>
       </c>
       <c r="I4" s="2">
         <f>'4'!I29</f>
-        <v>0</v>
+        <v>1131</v>
       </c>
       <c r="J4" s="2">
         <f>'4'!J29</f>
-        <v>0</v>
+        <v>388</v>
       </c>
       <c r="K4" s="2">
         <f>'4'!K29</f>
-        <v>0</v>
+        <v>155</v>
       </c>
       <c r="L4" s="2">
         <f>'4'!L29</f>
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="M4" s="2">
         <f>'4'!M29</f>
@@ -55938,7 +55956,7 @@
         <v>1908446140</v>
       </c>
       <c r="C13" s="20" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D13" s="29"/>
       <c r="E13" s="30"/>
@@ -56168,7 +56186,7 @@
         <v>1908446145</v>
       </c>
       <c r="C18" s="31" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D18" s="29"/>
       <c r="E18" s="30"/>
@@ -56214,7 +56232,7 @@
         <v>1908446146</v>
       </c>
       <c r="C19" s="20" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D19" s="29"/>
       <c r="E19" s="30"/>
@@ -56260,7 +56278,7 @@
         <v>1908446147</v>
       </c>
       <c r="C20" s="20" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D20" s="29"/>
       <c r="E20" s="30"/>
@@ -56306,7 +56324,7 @@
         <v>1908446148</v>
       </c>
       <c r="C21" s="20" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D21" s="29"/>
       <c r="E21" s="30"/>
@@ -56536,7 +56554,7 @@
         <v>1908446153</v>
       </c>
       <c r="C26" s="36" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="D26" s="29"/>
       <c r="E26" s="29"/>
@@ -56703,39 +56721,39 @@
       <c r="C29" s="58"/>
       <c r="D29" s="48">
         <f>D4+D5-D28</f>
-        <v>0</v>
+        <v>430730</v>
       </c>
       <c r="E29" s="48">
         <f t="shared" ref="E29:L29" si="8">E4+E5-E28</f>
-        <v>0</v>
+        <v>4360</v>
       </c>
       <c r="F29" s="48">
         <f t="shared" si="8"/>
-        <v>0</v>
+        <v>10390</v>
       </c>
       <c r="G29" s="48">
         <f t="shared" si="8"/>
-        <v>0</v>
+        <v>70</v>
       </c>
       <c r="H29" s="48">
         <f t="shared" si="8"/>
-        <v>0</v>
+        <v>14575</v>
       </c>
       <c r="I29" s="48">
         <f t="shared" si="8"/>
-        <v>0</v>
+        <v>1131</v>
       </c>
       <c r="J29" s="48">
         <f t="shared" si="8"/>
-        <v>0</v>
+        <v>388</v>
       </c>
       <c r="K29" s="48">
         <f t="shared" si="8"/>
-        <v>0</v>
+        <v>155</v>
       </c>
       <c r="L29" s="48">
         <f t="shared" si="8"/>
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="M29" s="59"/>
       <c r="N29" s="60"/>
@@ -57075,39 +57093,39 @@
       <c r="C4" s="1"/>
       <c r="D4" s="2">
         <f>'5'!D29</f>
-        <v>0</v>
+        <v>430730</v>
       </c>
       <c r="E4" s="2">
         <f>'5'!E29</f>
-        <v>0</v>
+        <v>4360</v>
       </c>
       <c r="F4" s="2">
         <f>'5'!F29</f>
-        <v>0</v>
+        <v>10390</v>
       </c>
       <c r="G4" s="2">
         <f>'5'!G29</f>
-        <v>0</v>
+        <v>70</v>
       </c>
       <c r="H4" s="2">
         <f>'5'!H29</f>
-        <v>0</v>
+        <v>14575</v>
       </c>
       <c r="I4" s="2">
         <f>'5'!I29</f>
-        <v>0</v>
+        <v>1131</v>
       </c>
       <c r="J4" s="2">
         <f>'5'!J29</f>
-        <v>0</v>
+        <v>388</v>
       </c>
       <c r="K4" s="2">
         <f>'5'!K29</f>
-        <v>0</v>
+        <v>155</v>
       </c>
       <c r="L4" s="2">
         <f>'5'!L29</f>
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="M4" s="3"/>
       <c r="N4" s="68"/>
@@ -57488,7 +57506,7 @@
         <v>1908446140</v>
       </c>
       <c r="C13" s="20" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D13" s="29"/>
       <c r="E13" s="30"/>
@@ -57718,7 +57736,7 @@
         <v>1908446145</v>
       </c>
       <c r="C18" s="31" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D18" s="29"/>
       <c r="E18" s="30"/>
@@ -57764,7 +57782,7 @@
         <v>1908446146</v>
       </c>
       <c r="C19" s="20" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D19" s="29"/>
       <c r="E19" s="30"/>
@@ -57810,7 +57828,7 @@
         <v>1908446147</v>
       </c>
       <c r="C20" s="20" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D20" s="29"/>
       <c r="E20" s="30"/>
@@ -57856,7 +57874,7 @@
         <v>1908446148</v>
       </c>
       <c r="C21" s="20" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D21" s="29"/>
       <c r="E21" s="30"/>
@@ -58086,7 +58104,7 @@
         <v>1908446153</v>
       </c>
       <c r="C26" s="36" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="D26" s="29"/>
       <c r="E26" s="29"/>
@@ -58253,39 +58271,39 @@
       <c r="C29" s="58"/>
       <c r="D29" s="48">
         <f>D4+D5-D28</f>
-        <v>0</v>
+        <v>430730</v>
       </c>
       <c r="E29" s="48">
         <f t="shared" ref="E29:L29" si="8">E4+E5-E28</f>
-        <v>0</v>
+        <v>4360</v>
       </c>
       <c r="F29" s="48">
         <f t="shared" si="8"/>
-        <v>0</v>
+        <v>10390</v>
       </c>
       <c r="G29" s="48">
         <f t="shared" si="8"/>
-        <v>0</v>
+        <v>70</v>
       </c>
       <c r="H29" s="48">
         <f t="shared" si="8"/>
-        <v>0</v>
+        <v>14575</v>
       </c>
       <c r="I29" s="48">
         <f t="shared" si="8"/>
-        <v>0</v>
+        <v>1131</v>
       </c>
       <c r="J29" s="48">
         <f t="shared" si="8"/>
-        <v>0</v>
+        <v>388</v>
       </c>
       <c r="K29" s="48">
         <f t="shared" si="8"/>
-        <v>0</v>
+        <v>155</v>
       </c>
       <c r="L29" s="48">
         <f t="shared" si="8"/>
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="M29" s="59"/>
       <c r="N29" s="60"/>
@@ -58625,39 +58643,39 @@
       <c r="C4" s="1"/>
       <c r="D4" s="2">
         <f>'6'!D29</f>
-        <v>0</v>
+        <v>430730</v>
       </c>
       <c r="E4" s="2">
         <f>'6'!E29</f>
-        <v>0</v>
+        <v>4360</v>
       </c>
       <c r="F4" s="2">
         <f>'6'!F29</f>
-        <v>0</v>
+        <v>10390</v>
       </c>
       <c r="G4" s="2">
         <f>'6'!G29</f>
-        <v>0</v>
+        <v>70</v>
       </c>
       <c r="H4" s="2">
         <f>'6'!H29</f>
-        <v>0</v>
+        <v>14575</v>
       </c>
       <c r="I4" s="2">
         <f>'6'!I29</f>
-        <v>0</v>
+        <v>1131</v>
       </c>
       <c r="J4" s="2">
         <f>'6'!J29</f>
-        <v>0</v>
+        <v>388</v>
       </c>
       <c r="K4" s="2">
         <f>'6'!K29</f>
-        <v>0</v>
+        <v>155</v>
       </c>
       <c r="L4" s="2">
         <f>'6'!L29</f>
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="M4" s="3"/>
       <c r="N4" s="68"/>
@@ -59038,7 +59056,7 @@
         <v>1908446140</v>
       </c>
       <c r="C13" s="20" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D13" s="29"/>
       <c r="E13" s="30"/>
@@ -59268,7 +59286,7 @@
         <v>1908446145</v>
       </c>
       <c r="C18" s="31" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D18" s="29"/>
       <c r="E18" s="30"/>
@@ -59314,7 +59332,7 @@
         <v>1908446146</v>
       </c>
       <c r="C19" s="20" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D19" s="29"/>
       <c r="E19" s="30"/>
@@ -59360,7 +59378,7 @@
         <v>1908446147</v>
       </c>
       <c r="C20" s="20" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D20" s="29"/>
       <c r="E20" s="30"/>
@@ -59406,7 +59424,7 @@
         <v>1908446148</v>
       </c>
       <c r="C21" s="20" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D21" s="29"/>
       <c r="E21" s="30"/>
@@ -59636,7 +59654,7 @@
         <v>1908446153</v>
       </c>
       <c r="C26" s="36" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="D26" s="29"/>
       <c r="E26" s="29"/>
@@ -59803,39 +59821,39 @@
       <c r="C29" s="58"/>
       <c r="D29" s="48">
         <f>D4+D5-D28</f>
-        <v>0</v>
+        <v>430730</v>
       </c>
       <c r="E29" s="48">
         <f t="shared" ref="E29:L29" si="8">E4+E5-E28</f>
-        <v>0</v>
+        <v>4360</v>
       </c>
       <c r="F29" s="48">
         <f t="shared" si="8"/>
-        <v>0</v>
+        <v>10390</v>
       </c>
       <c r="G29" s="48">
         <f t="shared" si="8"/>
-        <v>0</v>
+        <v>70</v>
       </c>
       <c r="H29" s="48">
         <f t="shared" si="8"/>
-        <v>0</v>
+        <v>14575</v>
       </c>
       <c r="I29" s="48">
         <f t="shared" si="8"/>
-        <v>0</v>
+        <v>1131</v>
       </c>
       <c r="J29" s="48">
         <f t="shared" si="8"/>
-        <v>0</v>
+        <v>388</v>
       </c>
       <c r="K29" s="48">
         <f t="shared" si="8"/>
-        <v>0</v>
+        <v>155</v>
       </c>
       <c r="L29" s="48">
         <f t="shared" si="8"/>
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="M29" s="59"/>
       <c r="N29" s="60"/>
@@ -60175,39 +60193,39 @@
       <c r="C4" s="1"/>
       <c r="D4" s="2">
         <f>'7'!D29</f>
-        <v>0</v>
+        <v>430730</v>
       </c>
       <c r="E4" s="2">
         <f>'7'!E29</f>
-        <v>0</v>
+        <v>4360</v>
       </c>
       <c r="F4" s="2">
         <f>'7'!F29</f>
-        <v>0</v>
+        <v>10390</v>
       </c>
       <c r="G4" s="2">
         <f>'7'!G29</f>
-        <v>0</v>
+        <v>70</v>
       </c>
       <c r="H4" s="2">
         <f>'7'!H29</f>
-        <v>0</v>
+        <v>14575</v>
       </c>
       <c r="I4" s="2">
         <f>'7'!I29</f>
-        <v>0</v>
+        <v>1131</v>
       </c>
       <c r="J4" s="2">
         <f>'7'!J29</f>
-        <v>0</v>
+        <v>388</v>
       </c>
       <c r="K4" s="2">
         <f>'7'!K29</f>
-        <v>0</v>
+        <v>155</v>
       </c>
       <c r="L4" s="2">
         <f>'7'!L29</f>
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="M4" s="3"/>
       <c r="N4" s="68"/>
@@ -60588,7 +60606,7 @@
         <v>1908446140</v>
       </c>
       <c r="C13" s="20" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D13" s="29"/>
       <c r="E13" s="30"/>
@@ -60818,7 +60836,7 @@
         <v>1908446145</v>
       </c>
       <c r="C18" s="31" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D18" s="29"/>
       <c r="E18" s="30"/>
@@ -60864,7 +60882,7 @@
         <v>1908446146</v>
       </c>
       <c r="C19" s="20" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D19" s="29"/>
       <c r="E19" s="30"/>
@@ -60910,7 +60928,7 @@
         <v>1908446147</v>
       </c>
       <c r="C20" s="20" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D20" s="29"/>
       <c r="E20" s="30"/>
@@ -60956,7 +60974,7 @@
         <v>1908446148</v>
       </c>
       <c r="C21" s="20" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D21" s="29"/>
       <c r="E21" s="30"/>
@@ -61186,7 +61204,7 @@
         <v>1908446153</v>
       </c>
       <c r="C26" s="36" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="D26" s="29"/>
       <c r="E26" s="29"/>
@@ -61353,39 +61371,39 @@
       <c r="C29" s="58"/>
       <c r="D29" s="48">
         <f>D4+D5-D28</f>
-        <v>0</v>
+        <v>430730</v>
       </c>
       <c r="E29" s="48">
         <f t="shared" ref="E29:L29" si="8">E4+E5-E28</f>
-        <v>0</v>
+        <v>4360</v>
       </c>
       <c r="F29" s="48">
         <f t="shared" si="8"/>
-        <v>0</v>
+        <v>10390</v>
       </c>
       <c r="G29" s="48">
         <f t="shared" si="8"/>
-        <v>0</v>
+        <v>70</v>
       </c>
       <c r="H29" s="48">
         <f t="shared" si="8"/>
-        <v>0</v>
+        <v>14575</v>
       </c>
       <c r="I29" s="48">
         <f t="shared" si="8"/>
-        <v>0</v>
+        <v>1131</v>
       </c>
       <c r="J29" s="48">
         <f t="shared" si="8"/>
-        <v>0</v>
+        <v>388</v>
       </c>
       <c r="K29" s="48">
         <f t="shared" si="8"/>
-        <v>0</v>
+        <v>155</v>
       </c>
       <c r="L29" s="48">
         <f t="shared" si="8"/>
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="M29" s="59"/>
       <c r="N29" s="60"/>
@@ -61725,39 +61743,39 @@
       <c r="C4" s="1"/>
       <c r="D4" s="2">
         <f>'8'!D29</f>
-        <v>0</v>
+        <v>430730</v>
       </c>
       <c r="E4" s="2">
         <f>'8'!E29</f>
-        <v>0</v>
+        <v>4360</v>
       </c>
       <c r="F4" s="2">
         <f>'8'!F29</f>
-        <v>0</v>
+        <v>10390</v>
       </c>
       <c r="G4" s="2">
         <f>'8'!G29</f>
-        <v>0</v>
+        <v>70</v>
       </c>
       <c r="H4" s="2">
         <f>'8'!H29</f>
-        <v>0</v>
+        <v>14575</v>
       </c>
       <c r="I4" s="2">
         <f>'8'!I29</f>
-        <v>0</v>
+        <v>1131</v>
       </c>
       <c r="J4" s="2">
         <f>'8'!J29</f>
-        <v>0</v>
+        <v>388</v>
       </c>
       <c r="K4" s="2">
         <f>'8'!K29</f>
-        <v>0</v>
+        <v>155</v>
       </c>
       <c r="L4" s="2">
         <f>'8'!L29</f>
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="M4" s="3"/>
       <c r="N4" s="68"/>
@@ -62138,7 +62156,7 @@
         <v>1908446140</v>
       </c>
       <c r="C13" s="20" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D13" s="29"/>
       <c r="E13" s="30"/>
@@ -62368,7 +62386,7 @@
         <v>1908446145</v>
       </c>
       <c r="C18" s="31" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D18" s="29"/>
       <c r="E18" s="30"/>
@@ -62414,7 +62432,7 @@
         <v>1908446146</v>
       </c>
       <c r="C19" s="20" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D19" s="29"/>
       <c r="E19" s="30"/>
@@ -62460,7 +62478,7 @@
         <v>1908446147</v>
       </c>
       <c r="C20" s="20" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D20" s="29"/>
       <c r="E20" s="30"/>
@@ -62506,7 +62524,7 @@
         <v>1908446148</v>
       </c>
       <c r="C21" s="20" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D21" s="29"/>
       <c r="E21" s="30"/>
@@ -62736,7 +62754,7 @@
         <v>1908446153</v>
       </c>
       <c r="C26" s="36" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="D26" s="29"/>
       <c r="E26" s="29"/>
@@ -62903,39 +62921,39 @@
       <c r="C29" s="58"/>
       <c r="D29" s="48">
         <f>D4+D5-D28</f>
-        <v>0</v>
+        <v>430730</v>
       </c>
       <c r="E29" s="48">
         <f t="shared" ref="E29:L29" si="8">E4+E5-E28</f>
-        <v>0</v>
+        <v>4360</v>
       </c>
       <c r="F29" s="48">
         <f t="shared" si="8"/>
-        <v>0</v>
+        <v>10390</v>
       </c>
       <c r="G29" s="48">
         <f t="shared" si="8"/>
-        <v>0</v>
+        <v>70</v>
       </c>
       <c r="H29" s="48">
         <f t="shared" si="8"/>
-        <v>0</v>
+        <v>14575</v>
       </c>
       <c r="I29" s="48">
         <f t="shared" si="8"/>
-        <v>0</v>
+        <v>1131</v>
       </c>
       <c r="J29" s="48">
         <f t="shared" si="8"/>
-        <v>0</v>
+        <v>388</v>
       </c>
       <c r="K29" s="48">
         <f t="shared" si="8"/>
-        <v>0</v>
+        <v>155</v>
       </c>
       <c r="L29" s="48">
         <f t="shared" si="8"/>
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="M29" s="59"/>
       <c r="N29" s="60"/>

--- a/Others/Kit File/Daily Sales Info.xlsx
+++ b/Others/Kit File/Daily Sales Info.xlsx
@@ -45,7 +45,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1503" uniqueCount="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1503" uniqueCount="51">
   <si>
     <t>Hello Daffodils</t>
   </si>
@@ -192,6 +192,12 @@
   </si>
   <si>
     <t>Date:01.09.2021</t>
+  </si>
+  <si>
+    <t>Azim</t>
+  </si>
+  <si>
+    <t>Liton</t>
   </si>
 </sst>
 </file>
@@ -12961,7 +12967,7 @@
   <dimension ref="A1:T30"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F15" sqref="F15"/>
+      <selection activeCell="G32" sqref="G32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -13052,33 +13058,15 @@
       </c>
       <c r="B4" s="67"/>
       <c r="C4" s="1"/>
-      <c r="D4" s="2">
-        <v>430730</v>
-      </c>
-      <c r="E4" s="2">
-        <v>4360</v>
-      </c>
-      <c r="F4" s="2">
-        <v>10390</v>
-      </c>
-      <c r="G4" s="2">
-        <v>70</v>
-      </c>
-      <c r="H4" s="2">
-        <v>14575</v>
-      </c>
-      <c r="I4" s="2">
-        <v>1131</v>
-      </c>
-      <c r="J4" s="2">
-        <v>388</v>
-      </c>
-      <c r="K4" s="2">
-        <v>155</v>
-      </c>
-      <c r="L4" s="3">
-        <v>50</v>
-      </c>
+      <c r="D4" s="2"/>
+      <c r="E4" s="2"/>
+      <c r="F4" s="2"/>
+      <c r="G4" s="2"/>
+      <c r="H4" s="2"/>
+      <c r="I4" s="2"/>
+      <c r="J4" s="2"/>
+      <c r="K4" s="2"/>
+      <c r="L4" s="3"/>
       <c r="M4" s="3"/>
       <c r="N4" s="68"/>
       <c r="O4" s="68"/>
@@ -13504,7 +13492,7 @@
         <v>1908446141</v>
       </c>
       <c r="C14" s="20" t="s">
-        <v>28</v>
+        <v>45</v>
       </c>
       <c r="D14" s="29"/>
       <c r="E14" s="30"/>
@@ -13688,7 +13676,7 @@
         <v>1908446145</v>
       </c>
       <c r="C18" s="31" t="s">
-        <v>43</v>
+        <v>49</v>
       </c>
       <c r="D18" s="29"/>
       <c r="E18" s="30"/>
@@ -13780,7 +13768,7 @@
         <v>1908446147</v>
       </c>
       <c r="C20" s="20" t="s">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="D20" s="29"/>
       <c r="E20" s="30"/>
@@ -14223,39 +14211,39 @@
       <c r="C29" s="58"/>
       <c r="D29" s="48">
         <f>D4+D5-D28</f>
-        <v>430730</v>
+        <v>0</v>
       </c>
       <c r="E29" s="48">
         <f t="shared" ref="E29:L29" si="8">E4+E5-E28</f>
-        <v>4360</v>
+        <v>0</v>
       </c>
       <c r="F29" s="48">
         <f t="shared" si="8"/>
-        <v>10390</v>
+        <v>0</v>
       </c>
       <c r="G29" s="48">
         <f t="shared" si="8"/>
-        <v>70</v>
+        <v>0</v>
       </c>
       <c r="H29" s="48">
         <f t="shared" si="8"/>
-        <v>14575</v>
+        <v>0</v>
       </c>
       <c r="I29" s="48">
         <f t="shared" si="8"/>
-        <v>1131</v>
+        <v>0</v>
       </c>
       <c r="J29" s="48">
         <f t="shared" si="8"/>
-        <v>388</v>
+        <v>0</v>
       </c>
       <c r="K29" s="48">
         <f t="shared" si="8"/>
-        <v>155</v>
+        <v>0</v>
       </c>
       <c r="L29" s="48">
         <f t="shared" si="8"/>
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="M29" s="59"/>
       <c r="N29" s="60"/>
@@ -14590,39 +14578,39 @@
       <c r="C4" s="1"/>
       <c r="D4" s="2">
         <f>'9'!D29</f>
-        <v>430730</v>
+        <v>0</v>
       </c>
       <c r="E4" s="2">
         <f>'9'!E29</f>
-        <v>4360</v>
+        <v>0</v>
       </c>
       <c r="F4" s="2">
         <f>'9'!F29</f>
-        <v>10390</v>
+        <v>0</v>
       </c>
       <c r="G4" s="2">
         <f>'9'!G29</f>
-        <v>70</v>
+        <v>0</v>
       </c>
       <c r="H4" s="2">
         <f>'9'!H29</f>
-        <v>14575</v>
+        <v>0</v>
       </c>
       <c r="I4" s="2">
         <f>'9'!I29</f>
-        <v>1131</v>
+        <v>0</v>
       </c>
       <c r="J4" s="2">
         <f>'9'!J29</f>
-        <v>388</v>
+        <v>0</v>
       </c>
       <c r="K4" s="2">
         <f>'9'!K29</f>
-        <v>155</v>
+        <v>0</v>
       </c>
       <c r="L4" s="2">
         <f>'9'!L29</f>
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="M4" s="3"/>
       <c r="N4" s="68"/>
@@ -15049,7 +15037,7 @@
         <v>1908446141</v>
       </c>
       <c r="C14" s="20" t="s">
-        <v>28</v>
+        <v>45</v>
       </c>
       <c r="D14" s="29"/>
       <c r="E14" s="30"/>
@@ -15233,7 +15221,7 @@
         <v>1908446145</v>
       </c>
       <c r="C18" s="31" t="s">
-        <v>43</v>
+        <v>49</v>
       </c>
       <c r="D18" s="29"/>
       <c r="E18" s="30"/>
@@ -15325,7 +15313,7 @@
         <v>1908446147</v>
       </c>
       <c r="C20" s="20" t="s">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="D20" s="29"/>
       <c r="E20" s="30"/>
@@ -15768,39 +15756,39 @@
       <c r="C29" s="58"/>
       <c r="D29" s="48">
         <f>D4+D5-D28</f>
-        <v>430730</v>
+        <v>0</v>
       </c>
       <c r="E29" s="48">
         <f t="shared" ref="E29:L29" si="8">E4+E5-E28</f>
-        <v>4360</v>
+        <v>0</v>
       </c>
       <c r="F29" s="48">
         <f t="shared" si="8"/>
-        <v>10390</v>
+        <v>0</v>
       </c>
       <c r="G29" s="48">
         <f t="shared" si="8"/>
-        <v>70</v>
+        <v>0</v>
       </c>
       <c r="H29" s="48">
         <f t="shared" si="8"/>
-        <v>14575</v>
+        <v>0</v>
       </c>
       <c r="I29" s="48">
         <f t="shared" si="8"/>
-        <v>1131</v>
+        <v>0</v>
       </c>
       <c r="J29" s="48">
         <f t="shared" si="8"/>
-        <v>388</v>
+        <v>0</v>
       </c>
       <c r="K29" s="48">
         <f t="shared" si="8"/>
-        <v>155</v>
+        <v>0</v>
       </c>
       <c r="L29" s="48">
         <f t="shared" si="8"/>
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="M29" s="59"/>
       <c r="N29" s="60"/>
@@ -16140,39 +16128,39 @@
       <c r="C4" s="1"/>
       <c r="D4" s="2">
         <f>'10'!D29</f>
-        <v>430730</v>
+        <v>0</v>
       </c>
       <c r="E4" s="2">
         <f>'10'!E29</f>
-        <v>4360</v>
+        <v>0</v>
       </c>
       <c r="F4" s="2">
         <f>'10'!F29</f>
-        <v>10390</v>
+        <v>0</v>
       </c>
       <c r="G4" s="2">
         <f>'10'!G29</f>
-        <v>70</v>
+        <v>0</v>
       </c>
       <c r="H4" s="2">
         <f>'10'!H29</f>
-        <v>14575</v>
+        <v>0</v>
       </c>
       <c r="I4" s="2">
         <f>'10'!I29</f>
-        <v>1131</v>
+        <v>0</v>
       </c>
       <c r="J4" s="2">
         <f>'10'!J29</f>
-        <v>388</v>
+        <v>0</v>
       </c>
       <c r="K4" s="2">
         <f>'10'!K29</f>
-        <v>155</v>
+        <v>0</v>
       </c>
       <c r="L4" s="2">
         <f>'10'!L29</f>
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="M4" s="3"/>
       <c r="N4" s="68"/>
@@ -16599,7 +16587,7 @@
         <v>1908446141</v>
       </c>
       <c r="C14" s="20" t="s">
-        <v>28</v>
+        <v>45</v>
       </c>
       <c r="D14" s="29"/>
       <c r="E14" s="30"/>
@@ -16783,7 +16771,7 @@
         <v>1908446145</v>
       </c>
       <c r="C18" s="31" t="s">
-        <v>43</v>
+        <v>49</v>
       </c>
       <c r="D18" s="29"/>
       <c r="E18" s="30"/>
@@ -16875,7 +16863,7 @@
         <v>1908446147</v>
       </c>
       <c r="C20" s="20" t="s">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="D20" s="29"/>
       <c r="E20" s="30"/>
@@ -17318,39 +17306,39 @@
       <c r="C29" s="58"/>
       <c r="D29" s="48">
         <f>D4+D5-D28</f>
-        <v>430730</v>
+        <v>0</v>
       </c>
       <c r="E29" s="48">
         <f t="shared" ref="E29:L29" si="8">E4+E5-E28</f>
-        <v>4360</v>
+        <v>0</v>
       </c>
       <c r="F29" s="48">
         <f t="shared" si="8"/>
-        <v>10390</v>
+        <v>0</v>
       </c>
       <c r="G29" s="48">
         <f t="shared" si="8"/>
-        <v>70</v>
+        <v>0</v>
       </c>
       <c r="H29" s="48">
         <f t="shared" si="8"/>
-        <v>14575</v>
+        <v>0</v>
       </c>
       <c r="I29" s="48">
         <f t="shared" si="8"/>
-        <v>1131</v>
+        <v>0</v>
       </c>
       <c r="J29" s="48">
         <f t="shared" si="8"/>
-        <v>388</v>
+        <v>0</v>
       </c>
       <c r="K29" s="48">
         <f t="shared" si="8"/>
-        <v>155</v>
+        <v>0</v>
       </c>
       <c r="L29" s="48">
         <f t="shared" si="8"/>
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="M29" s="59"/>
       <c r="N29" s="60"/>
@@ -17690,39 +17678,39 @@
       <c r="C4" s="1"/>
       <c r="D4" s="2">
         <f>'11'!D29</f>
-        <v>430730</v>
+        <v>0</v>
       </c>
       <c r="E4" s="2">
         <f>'11'!E29</f>
-        <v>4360</v>
+        <v>0</v>
       </c>
       <c r="F4" s="2">
         <f>'11'!F29</f>
-        <v>10390</v>
+        <v>0</v>
       </c>
       <c r="G4" s="2">
         <f>'11'!G29</f>
-        <v>70</v>
+        <v>0</v>
       </c>
       <c r="H4" s="2">
         <f>'11'!H29</f>
-        <v>14575</v>
+        <v>0</v>
       </c>
       <c r="I4" s="2">
         <f>'11'!I29</f>
-        <v>1131</v>
+        <v>0</v>
       </c>
       <c r="J4" s="2">
         <f>'11'!J29</f>
-        <v>388</v>
+        <v>0</v>
       </c>
       <c r="K4" s="2">
         <f>'11'!K29</f>
-        <v>155</v>
+        <v>0</v>
       </c>
       <c r="L4" s="2">
         <f>'11'!L29</f>
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="M4" s="3"/>
       <c r="N4" s="68"/>
@@ -18149,7 +18137,7 @@
         <v>1908446141</v>
       </c>
       <c r="C14" s="20" t="s">
-        <v>28</v>
+        <v>45</v>
       </c>
       <c r="D14" s="29"/>
       <c r="E14" s="30"/>
@@ -18333,7 +18321,7 @@
         <v>1908446145</v>
       </c>
       <c r="C18" s="31" t="s">
-        <v>43</v>
+        <v>49</v>
       </c>
       <c r="D18" s="29"/>
       <c r="E18" s="30"/>
@@ -18425,7 +18413,7 @@
         <v>1908446147</v>
       </c>
       <c r="C20" s="20" t="s">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="D20" s="29"/>
       <c r="E20" s="30"/>
@@ -18868,39 +18856,39 @@
       <c r="C29" s="58"/>
       <c r="D29" s="48">
         <f>D4+D5-D28</f>
-        <v>430730</v>
+        <v>0</v>
       </c>
       <c r="E29" s="48">
         <f t="shared" ref="E29:L29" si="8">E4+E5-E28</f>
-        <v>4360</v>
+        <v>0</v>
       </c>
       <c r="F29" s="48">
         <f t="shared" si="8"/>
-        <v>10390</v>
+        <v>0</v>
       </c>
       <c r="G29" s="48">
         <f t="shared" si="8"/>
-        <v>70</v>
+        <v>0</v>
       </c>
       <c r="H29" s="48">
         <f t="shared" si="8"/>
-        <v>14575</v>
+        <v>0</v>
       </c>
       <c r="I29" s="48">
         <f t="shared" si="8"/>
-        <v>1131</v>
+        <v>0</v>
       </c>
       <c r="J29" s="48">
         <f t="shared" si="8"/>
-        <v>388</v>
+        <v>0</v>
       </c>
       <c r="K29" s="48">
         <f t="shared" si="8"/>
-        <v>155</v>
+        <v>0</v>
       </c>
       <c r="L29" s="48">
         <f t="shared" si="8"/>
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="M29" s="59"/>
       <c r="N29" s="60"/>
@@ -19240,39 +19228,39 @@
       <c r="C4" s="1"/>
       <c r="D4" s="2">
         <f>'12'!D29</f>
-        <v>430730</v>
+        <v>0</v>
       </c>
       <c r="E4" s="2">
         <f>'12'!E29</f>
-        <v>4360</v>
+        <v>0</v>
       </c>
       <c r="F4" s="2">
         <f>'12'!F29</f>
-        <v>10390</v>
+        <v>0</v>
       </c>
       <c r="G4" s="2">
         <f>'12'!G29</f>
-        <v>70</v>
+        <v>0</v>
       </c>
       <c r="H4" s="2">
         <f>'12'!H29</f>
-        <v>14575</v>
+        <v>0</v>
       </c>
       <c r="I4" s="2">
         <f>'12'!I29</f>
-        <v>1131</v>
+        <v>0</v>
       </c>
       <c r="J4" s="2">
         <f>'12'!J29</f>
-        <v>388</v>
+        <v>0</v>
       </c>
       <c r="K4" s="2">
         <f>'12'!K29</f>
-        <v>155</v>
+        <v>0</v>
       </c>
       <c r="L4" s="2">
         <f>'12'!L29</f>
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="M4" s="3"/>
       <c r="N4" s="68"/>
@@ -19699,7 +19687,7 @@
         <v>1908446141</v>
       </c>
       <c r="C14" s="20" t="s">
-        <v>28</v>
+        <v>45</v>
       </c>
       <c r="D14" s="29"/>
       <c r="E14" s="30"/>
@@ -19883,7 +19871,7 @@
         <v>1908446145</v>
       </c>
       <c r="C18" s="31" t="s">
-        <v>43</v>
+        <v>49</v>
       </c>
       <c r="D18" s="29"/>
       <c r="E18" s="30"/>
@@ -19975,7 +19963,7 @@
         <v>1908446147</v>
       </c>
       <c r="C20" s="20" t="s">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="D20" s="29"/>
       <c r="E20" s="30"/>
@@ -20418,39 +20406,39 @@
       <c r="C29" s="58"/>
       <c r="D29" s="48">
         <f>D4+D5-D28</f>
-        <v>430730</v>
+        <v>0</v>
       </c>
       <c r="E29" s="48">
         <f t="shared" ref="E29:L29" si="8">E4+E5-E28</f>
-        <v>4360</v>
+        <v>0</v>
       </c>
       <c r="F29" s="48">
         <f t="shared" si="8"/>
-        <v>10390</v>
+        <v>0</v>
       </c>
       <c r="G29" s="48">
         <f t="shared" si="8"/>
-        <v>70</v>
+        <v>0</v>
       </c>
       <c r="H29" s="48">
         <f t="shared" si="8"/>
-        <v>14575</v>
+        <v>0</v>
       </c>
       <c r="I29" s="48">
         <f t="shared" si="8"/>
-        <v>1131</v>
+        <v>0</v>
       </c>
       <c r="J29" s="48">
         <f t="shared" si="8"/>
-        <v>388</v>
+        <v>0</v>
       </c>
       <c r="K29" s="48">
         <f t="shared" si="8"/>
-        <v>155</v>
+        <v>0</v>
       </c>
       <c r="L29" s="48">
         <f t="shared" si="8"/>
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="M29" s="59"/>
       <c r="N29" s="60"/>
@@ -20790,39 +20778,39 @@
       <c r="C4" s="1"/>
       <c r="D4" s="2">
         <f>'13'!D29</f>
-        <v>430730</v>
+        <v>0</v>
       </c>
       <c r="E4" s="2">
         <f>'13'!E29</f>
-        <v>4360</v>
+        <v>0</v>
       </c>
       <c r="F4" s="2">
         <f>'13'!F29</f>
-        <v>10390</v>
+        <v>0</v>
       </c>
       <c r="G4" s="2">
         <f>'13'!G29</f>
-        <v>70</v>
+        <v>0</v>
       </c>
       <c r="H4" s="2">
         <f>'13'!H29</f>
-        <v>14575</v>
+        <v>0</v>
       </c>
       <c r="I4" s="2">
         <f>'13'!I29</f>
-        <v>1131</v>
+        <v>0</v>
       </c>
       <c r="J4" s="2">
         <f>'13'!J29</f>
-        <v>388</v>
+        <v>0</v>
       </c>
       <c r="K4" s="2">
         <f>'13'!K29</f>
-        <v>155</v>
+        <v>0</v>
       </c>
       <c r="L4" s="2">
         <f>'13'!L29</f>
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="M4" s="3"/>
       <c r="N4" s="68"/>
@@ -21249,7 +21237,7 @@
         <v>1908446141</v>
       </c>
       <c r="C14" s="20" t="s">
-        <v>28</v>
+        <v>45</v>
       </c>
       <c r="D14" s="29"/>
       <c r="E14" s="30"/>
@@ -21433,7 +21421,7 @@
         <v>1908446145</v>
       </c>
       <c r="C18" s="31" t="s">
-        <v>43</v>
+        <v>49</v>
       </c>
       <c r="D18" s="29"/>
       <c r="E18" s="30"/>
@@ -21525,7 +21513,7 @@
         <v>1908446147</v>
       </c>
       <c r="C20" s="20" t="s">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="D20" s="29"/>
       <c r="E20" s="30"/>
@@ -21968,39 +21956,39 @@
       <c r="C29" s="58"/>
       <c r="D29" s="48">
         <f>D4+D5-D28</f>
-        <v>430730</v>
+        <v>0</v>
       </c>
       <c r="E29" s="48">
         <f t="shared" ref="E29:L29" si="8">E4+E5-E28</f>
-        <v>4360</v>
+        <v>0</v>
       </c>
       <c r="F29" s="48">
         <f t="shared" si="8"/>
-        <v>10390</v>
+        <v>0</v>
       </c>
       <c r="G29" s="48">
         <f t="shared" si="8"/>
-        <v>70</v>
+        <v>0</v>
       </c>
       <c r="H29" s="48">
         <f t="shared" si="8"/>
-        <v>14575</v>
+        <v>0</v>
       </c>
       <c r="I29" s="48">
         <f t="shared" si="8"/>
-        <v>1131</v>
+        <v>0</v>
       </c>
       <c r="J29" s="48">
         <f t="shared" si="8"/>
-        <v>388</v>
+        <v>0</v>
       </c>
       <c r="K29" s="48">
         <f t="shared" si="8"/>
-        <v>155</v>
+        <v>0</v>
       </c>
       <c r="L29" s="48">
         <f t="shared" si="8"/>
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="M29" s="59"/>
       <c r="N29" s="60"/>
@@ -22340,39 +22328,39 @@
       <c r="C4" s="1"/>
       <c r="D4" s="2">
         <f>'14'!D29</f>
-        <v>430730</v>
+        <v>0</v>
       </c>
       <c r="E4" s="2">
         <f>'14'!E29</f>
-        <v>4360</v>
+        <v>0</v>
       </c>
       <c r="F4" s="2">
         <f>'14'!F29</f>
-        <v>10390</v>
+        <v>0</v>
       </c>
       <c r="G4" s="2">
         <f>'14'!G29</f>
-        <v>70</v>
+        <v>0</v>
       </c>
       <c r="H4" s="2">
         <f>'14'!H29</f>
-        <v>14575</v>
+        <v>0</v>
       </c>
       <c r="I4" s="2">
         <f>'14'!I29</f>
-        <v>1131</v>
+        <v>0</v>
       </c>
       <c r="J4" s="2">
         <f>'14'!J29</f>
-        <v>388</v>
+        <v>0</v>
       </c>
       <c r="K4" s="2">
         <f>'14'!K29</f>
-        <v>155</v>
+        <v>0</v>
       </c>
       <c r="L4" s="2">
         <f>'14'!L29</f>
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="M4" s="3"/>
       <c r="N4" s="68"/>
@@ -22799,7 +22787,7 @@
         <v>1908446141</v>
       </c>
       <c r="C14" s="20" t="s">
-        <v>28</v>
+        <v>45</v>
       </c>
       <c r="D14" s="29"/>
       <c r="E14" s="30"/>
@@ -22983,7 +22971,7 @@
         <v>1908446145</v>
       </c>
       <c r="C18" s="31" t="s">
-        <v>43</v>
+        <v>49</v>
       </c>
       <c r="D18" s="29"/>
       <c r="E18" s="30"/>
@@ -23075,7 +23063,7 @@
         <v>1908446147</v>
       </c>
       <c r="C20" s="20" t="s">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="D20" s="29"/>
       <c r="E20" s="30"/>
@@ -23518,39 +23506,39 @@
       <c r="C29" s="58"/>
       <c r="D29" s="48">
         <f>D4+D5-D28</f>
-        <v>430730</v>
+        <v>0</v>
       </c>
       <c r="E29" s="48">
         <f t="shared" ref="E29:L29" si="8">E4+E5-E28</f>
-        <v>4360</v>
+        <v>0</v>
       </c>
       <c r="F29" s="48">
         <f t="shared" si="8"/>
-        <v>10390</v>
+        <v>0</v>
       </c>
       <c r="G29" s="48">
         <f t="shared" si="8"/>
-        <v>70</v>
+        <v>0</v>
       </c>
       <c r="H29" s="48">
         <f t="shared" si="8"/>
-        <v>14575</v>
+        <v>0</v>
       </c>
       <c r="I29" s="48">
         <f t="shared" si="8"/>
-        <v>1131</v>
+        <v>0</v>
       </c>
       <c r="J29" s="48">
         <f t="shared" si="8"/>
-        <v>388</v>
+        <v>0</v>
       </c>
       <c r="K29" s="48">
         <f t="shared" si="8"/>
-        <v>155</v>
+        <v>0</v>
       </c>
       <c r="L29" s="48">
         <f t="shared" si="8"/>
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="M29" s="59"/>
       <c r="N29" s="60"/>
@@ -23890,39 +23878,39 @@
       <c r="C4" s="1"/>
       <c r="D4" s="2">
         <f>'15'!D29</f>
-        <v>430730</v>
+        <v>0</v>
       </c>
       <c r="E4" s="2">
         <f>'15'!E29</f>
-        <v>4360</v>
+        <v>0</v>
       </c>
       <c r="F4" s="2">
         <f>'15'!F29</f>
-        <v>10390</v>
+        <v>0</v>
       </c>
       <c r="G4" s="2">
         <f>'15'!G29</f>
-        <v>70</v>
+        <v>0</v>
       </c>
       <c r="H4" s="2">
         <f>'15'!H29</f>
-        <v>14575</v>
+        <v>0</v>
       </c>
       <c r="I4" s="2">
         <f>'15'!I29</f>
-        <v>1131</v>
+        <v>0</v>
       </c>
       <c r="J4" s="2">
         <f>'15'!J29</f>
-        <v>388</v>
+        <v>0</v>
       </c>
       <c r="K4" s="2">
         <f>'15'!K29</f>
-        <v>155</v>
+        <v>0</v>
       </c>
       <c r="L4" s="2">
         <f>'15'!L29</f>
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="M4" s="3"/>
       <c r="N4" s="68"/>
@@ -24349,7 +24337,7 @@
         <v>1908446141</v>
       </c>
       <c r="C14" s="20" t="s">
-        <v>28</v>
+        <v>45</v>
       </c>
       <c r="D14" s="29"/>
       <c r="E14" s="30"/>
@@ -24533,7 +24521,7 @@
         <v>1908446145</v>
       </c>
       <c r="C18" s="31" t="s">
-        <v>43</v>
+        <v>49</v>
       </c>
       <c r="D18" s="29"/>
       <c r="E18" s="30"/>
@@ -24625,7 +24613,7 @@
         <v>1908446147</v>
       </c>
       <c r="C20" s="20" t="s">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="D20" s="29"/>
       <c r="E20" s="30"/>
@@ -25068,39 +25056,39 @@
       <c r="C29" s="58"/>
       <c r="D29" s="48">
         <f>D4+D5-D28</f>
-        <v>430730</v>
+        <v>0</v>
       </c>
       <c r="E29" s="48">
         <f t="shared" ref="E29:L29" si="8">E4+E5-E28</f>
-        <v>4360</v>
+        <v>0</v>
       </c>
       <c r="F29" s="48">
         <f t="shared" si="8"/>
-        <v>10390</v>
+        <v>0</v>
       </c>
       <c r="G29" s="48">
         <f t="shared" si="8"/>
-        <v>70</v>
+        <v>0</v>
       </c>
       <c r="H29" s="48">
         <f t="shared" si="8"/>
-        <v>14575</v>
+        <v>0</v>
       </c>
       <c r="I29" s="48">
         <f t="shared" si="8"/>
-        <v>1131</v>
+        <v>0</v>
       </c>
       <c r="J29" s="48">
         <f t="shared" si="8"/>
-        <v>388</v>
+        <v>0</v>
       </c>
       <c r="K29" s="48">
         <f t="shared" si="8"/>
-        <v>155</v>
+        <v>0</v>
       </c>
       <c r="L29" s="48">
         <f t="shared" si="8"/>
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="M29" s="59"/>
       <c r="N29" s="60"/>
@@ -25440,39 +25428,39 @@
       <c r="C4" s="1"/>
       <c r="D4" s="2">
         <f>'16'!D29</f>
-        <v>430730</v>
+        <v>0</v>
       </c>
       <c r="E4" s="2">
         <f>'16'!E29</f>
-        <v>4360</v>
+        <v>0</v>
       </c>
       <c r="F4" s="2">
         <f>'16'!F29</f>
-        <v>10390</v>
+        <v>0</v>
       </c>
       <c r="G4" s="2">
         <f>'16'!G29</f>
-        <v>70</v>
+        <v>0</v>
       </c>
       <c r="H4" s="2">
         <f>'16'!H29</f>
-        <v>14575</v>
+        <v>0</v>
       </c>
       <c r="I4" s="2">
         <f>'16'!I29</f>
-        <v>1131</v>
+        <v>0</v>
       </c>
       <c r="J4" s="2">
         <f>'16'!J29</f>
-        <v>388</v>
+        <v>0</v>
       </c>
       <c r="K4" s="2">
         <f>'16'!K29</f>
-        <v>155</v>
+        <v>0</v>
       </c>
       <c r="L4" s="2">
         <f>'16'!L29</f>
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="M4" s="3"/>
       <c r="N4" s="68"/>
@@ -25899,7 +25887,7 @@
         <v>1908446141</v>
       </c>
       <c r="C14" s="20" t="s">
-        <v>28</v>
+        <v>45</v>
       </c>
       <c r="D14" s="29"/>
       <c r="E14" s="30"/>
@@ -26083,7 +26071,7 @@
         <v>1908446145</v>
       </c>
       <c r="C18" s="31" t="s">
-        <v>43</v>
+        <v>49</v>
       </c>
       <c r="D18" s="29"/>
       <c r="E18" s="30"/>
@@ -26175,7 +26163,7 @@
         <v>1908446147</v>
       </c>
       <c r="C20" s="20" t="s">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="D20" s="29"/>
       <c r="E20" s="30"/>
@@ -26618,39 +26606,39 @@
       <c r="C29" s="58"/>
       <c r="D29" s="48">
         <f>D4+D5-D28</f>
-        <v>430730</v>
+        <v>0</v>
       </c>
       <c r="E29" s="48">
         <f t="shared" ref="E29:L29" si="8">E4+E5-E28</f>
-        <v>4360</v>
+        <v>0</v>
       </c>
       <c r="F29" s="48">
         <f t="shared" si="8"/>
-        <v>10390</v>
+        <v>0</v>
       </c>
       <c r="G29" s="48">
         <f t="shared" si="8"/>
-        <v>70</v>
+        <v>0</v>
       </c>
       <c r="H29" s="48">
         <f t="shared" si="8"/>
-        <v>14575</v>
+        <v>0</v>
       </c>
       <c r="I29" s="48">
         <f t="shared" si="8"/>
-        <v>1131</v>
+        <v>0</v>
       </c>
       <c r="J29" s="48">
         <f t="shared" si="8"/>
-        <v>388</v>
+        <v>0</v>
       </c>
       <c r="K29" s="48">
         <f t="shared" si="8"/>
-        <v>155</v>
+        <v>0</v>
       </c>
       <c r="L29" s="48">
         <f t="shared" si="8"/>
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="M29" s="59"/>
       <c r="N29" s="60"/>
@@ -26990,39 +26978,39 @@
       <c r="C4" s="1"/>
       <c r="D4" s="2">
         <f>'17'!D29</f>
-        <v>430730</v>
+        <v>0</v>
       </c>
       <c r="E4" s="2">
         <f>'17'!E29</f>
-        <v>4360</v>
+        <v>0</v>
       </c>
       <c r="F4" s="2">
         <f>'17'!F29</f>
-        <v>10390</v>
+        <v>0</v>
       </c>
       <c r="G4" s="2">
         <f>'17'!G29</f>
-        <v>70</v>
+        <v>0</v>
       </c>
       <c r="H4" s="2">
         <f>'17'!H29</f>
-        <v>14575</v>
+        <v>0</v>
       </c>
       <c r="I4" s="2">
         <f>'17'!I29</f>
-        <v>1131</v>
+        <v>0</v>
       </c>
       <c r="J4" s="2">
         <f>'17'!J29</f>
-        <v>388</v>
+        <v>0</v>
       </c>
       <c r="K4" s="2">
         <f>'17'!K29</f>
-        <v>155</v>
+        <v>0</v>
       </c>
       <c r="L4" s="2">
         <f>'17'!L29</f>
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="M4" s="3"/>
       <c r="N4" s="68"/>
@@ -27449,7 +27437,7 @@
         <v>1908446141</v>
       </c>
       <c r="C14" s="20" t="s">
-        <v>28</v>
+        <v>45</v>
       </c>
       <c r="D14" s="29"/>
       <c r="E14" s="30"/>
@@ -27633,7 +27621,7 @@
         <v>1908446145</v>
       </c>
       <c r="C18" s="31" t="s">
-        <v>43</v>
+        <v>49</v>
       </c>
       <c r="D18" s="29"/>
       <c r="E18" s="30"/>
@@ -27725,7 +27713,7 @@
         <v>1908446147</v>
       </c>
       <c r="C20" s="20" t="s">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="D20" s="29"/>
       <c r="E20" s="30"/>
@@ -28168,39 +28156,39 @@
       <c r="C29" s="58"/>
       <c r="D29" s="48">
         <f>D4+D5-D28</f>
-        <v>430730</v>
+        <v>0</v>
       </c>
       <c r="E29" s="48">
         <f t="shared" ref="E29:L29" si="8">E4+E5-E28</f>
-        <v>4360</v>
+        <v>0</v>
       </c>
       <c r="F29" s="48">
         <f t="shared" si="8"/>
-        <v>10390</v>
+        <v>0</v>
       </c>
       <c r="G29" s="48">
         <f t="shared" si="8"/>
-        <v>70</v>
+        <v>0</v>
       </c>
       <c r="H29" s="48">
         <f t="shared" si="8"/>
-        <v>14575</v>
+        <v>0</v>
       </c>
       <c r="I29" s="48">
         <f t="shared" si="8"/>
-        <v>1131</v>
+        <v>0</v>
       </c>
       <c r="J29" s="48">
         <f t="shared" si="8"/>
-        <v>388</v>
+        <v>0</v>
       </c>
       <c r="K29" s="48">
         <f t="shared" si="8"/>
-        <v>155</v>
+        <v>0</v>
       </c>
       <c r="L29" s="48">
         <f t="shared" si="8"/>
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="M29" s="59"/>
       <c r="N29" s="60"/>
@@ -28540,39 +28528,39 @@
       <c r="C4" s="1"/>
       <c r="D4" s="2">
         <f>'18'!D29</f>
-        <v>430730</v>
+        <v>0</v>
       </c>
       <c r="E4" s="2">
         <f>'18'!E29</f>
-        <v>4360</v>
+        <v>0</v>
       </c>
       <c r="F4" s="2">
         <f>'18'!F29</f>
-        <v>10390</v>
+        <v>0</v>
       </c>
       <c r="G4" s="2">
         <f>'18'!G29</f>
-        <v>70</v>
+        <v>0</v>
       </c>
       <c r="H4" s="2">
         <f>'18'!H29</f>
-        <v>14575</v>
+        <v>0</v>
       </c>
       <c r="I4" s="2">
         <f>'18'!I29</f>
-        <v>1131</v>
+        <v>0</v>
       </c>
       <c r="J4" s="2">
         <f>'18'!J29</f>
-        <v>388</v>
+        <v>0</v>
       </c>
       <c r="K4" s="2">
         <f>'18'!K29</f>
-        <v>155</v>
+        <v>0</v>
       </c>
       <c r="L4" s="2">
         <f>'18'!L29</f>
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="M4" s="3"/>
       <c r="N4" s="68"/>
@@ -28999,7 +28987,7 @@
         <v>1908446141</v>
       </c>
       <c r="C14" s="20" t="s">
-        <v>28</v>
+        <v>45</v>
       </c>
       <c r="D14" s="29"/>
       <c r="E14" s="30"/>
@@ -29183,7 +29171,7 @@
         <v>1908446145</v>
       </c>
       <c r="C18" s="31" t="s">
-        <v>43</v>
+        <v>49</v>
       </c>
       <c r="D18" s="29"/>
       <c r="E18" s="30"/>
@@ -29275,7 +29263,7 @@
         <v>1908446147</v>
       </c>
       <c r="C20" s="20" t="s">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="D20" s="29"/>
       <c r="E20" s="30"/>
@@ -29718,39 +29706,39 @@
       <c r="C29" s="58"/>
       <c r="D29" s="48">
         <f>D4+D5-D28</f>
-        <v>430730</v>
+        <v>0</v>
       </c>
       <c r="E29" s="48">
         <f t="shared" ref="E29:L29" si="8">E4+E5-E28</f>
-        <v>4360</v>
+        <v>0</v>
       </c>
       <c r="F29" s="48">
         <f t="shared" si="8"/>
-        <v>10390</v>
+        <v>0</v>
       </c>
       <c r="G29" s="48">
         <f t="shared" si="8"/>
-        <v>70</v>
+        <v>0</v>
       </c>
       <c r="H29" s="48">
         <f t="shared" si="8"/>
-        <v>14575</v>
+        <v>0</v>
       </c>
       <c r="I29" s="48">
         <f t="shared" si="8"/>
-        <v>1131</v>
+        <v>0</v>
       </c>
       <c r="J29" s="48">
         <f t="shared" si="8"/>
-        <v>388</v>
+        <v>0</v>
       </c>
       <c r="K29" s="48">
         <f t="shared" si="8"/>
-        <v>155</v>
+        <v>0</v>
       </c>
       <c r="L29" s="48">
         <f t="shared" si="8"/>
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="M29" s="59"/>
       <c r="N29" s="60"/>
@@ -29997,7 +29985,7 @@
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="6" topLeftCell="A7" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F18" sqref="F18"/>
+      <selection pane="bottomLeft" activeCell="C7" sqref="C7:C27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -30090,39 +30078,39 @@
       <c r="C4" s="1"/>
       <c r="D4" s="2">
         <f>'1'!D29</f>
-        <v>430730</v>
+        <v>0</v>
       </c>
       <c r="E4" s="2">
         <f>'1'!E29</f>
-        <v>4360</v>
+        <v>0</v>
       </c>
       <c r="F4" s="2">
         <f>'1'!F29</f>
-        <v>10390</v>
+        <v>0</v>
       </c>
       <c r="G4" s="2">
         <f>'1'!G29</f>
-        <v>70</v>
+        <v>0</v>
       </c>
       <c r="H4" s="2">
         <f>'1'!H29</f>
-        <v>14575</v>
+        <v>0</v>
       </c>
       <c r="I4" s="2">
         <f>'1'!I29</f>
-        <v>1131</v>
+        <v>0</v>
       </c>
       <c r="J4" s="2">
         <f>'1'!J29</f>
-        <v>388</v>
+        <v>0</v>
       </c>
       <c r="K4" s="2">
         <f>'1'!K29</f>
-        <v>155</v>
+        <v>0</v>
       </c>
       <c r="L4" s="2">
         <f>'1'!L29</f>
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="M4" s="3"/>
       <c r="N4" s="68"/>
@@ -30549,7 +30537,7 @@
         <v>1908446141</v>
       </c>
       <c r="C14" s="20" t="s">
-        <v>28</v>
+        <v>45</v>
       </c>
       <c r="D14" s="29"/>
       <c r="E14" s="30"/>
@@ -30733,7 +30721,7 @@
         <v>1908446145</v>
       </c>
       <c r="C18" s="31" t="s">
-        <v>43</v>
+        <v>49</v>
       </c>
       <c r="D18" s="29"/>
       <c r="E18" s="30"/>
@@ -30825,7 +30813,7 @@
         <v>1908446147</v>
       </c>
       <c r="C20" s="20" t="s">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="D20" s="29"/>
       <c r="E20" s="30"/>
@@ -31268,39 +31256,39 @@
       <c r="C29" s="58"/>
       <c r="D29" s="48">
         <f>D4+D5-D28</f>
-        <v>430730</v>
+        <v>0</v>
       </c>
       <c r="E29" s="48">
         <f t="shared" ref="E29:L29" si="8">E4+E5-E28</f>
-        <v>4360</v>
+        <v>0</v>
       </c>
       <c r="F29" s="48">
         <f t="shared" si="8"/>
-        <v>10390</v>
+        <v>0</v>
       </c>
       <c r="G29" s="48">
         <f t="shared" si="8"/>
-        <v>70</v>
+        <v>0</v>
       </c>
       <c r="H29" s="48">
         <f t="shared" si="8"/>
-        <v>14575</v>
+        <v>0</v>
       </c>
       <c r="I29" s="48">
         <f t="shared" si="8"/>
-        <v>1131</v>
+        <v>0</v>
       </c>
       <c r="J29" s="48">
         <f t="shared" si="8"/>
-        <v>388</v>
+        <v>0</v>
       </c>
       <c r="K29" s="48">
         <f t="shared" si="8"/>
-        <v>155</v>
+        <v>0</v>
       </c>
       <c r="L29" s="48">
         <f t="shared" si="8"/>
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="M29" s="59"/>
       <c r="N29" s="60"/>
@@ -31640,39 +31628,39 @@
       <c r="C4" s="1"/>
       <c r="D4" s="2">
         <f>'19'!D29</f>
-        <v>430730</v>
+        <v>0</v>
       </c>
       <c r="E4" s="2">
         <f>'19'!E29</f>
-        <v>4360</v>
+        <v>0</v>
       </c>
       <c r="F4" s="2">
         <f>'19'!F29</f>
-        <v>10390</v>
+        <v>0</v>
       </c>
       <c r="G4" s="2">
         <f>'19'!G29</f>
-        <v>70</v>
+        <v>0</v>
       </c>
       <c r="H4" s="2">
         <f>'19'!H29</f>
-        <v>14575</v>
+        <v>0</v>
       </c>
       <c r="I4" s="2">
         <f>'19'!I29</f>
-        <v>1131</v>
+        <v>0</v>
       </c>
       <c r="J4" s="2">
         <f>'19'!J29</f>
-        <v>388</v>
+        <v>0</v>
       </c>
       <c r="K4" s="2">
         <f>'19'!K29</f>
-        <v>155</v>
+        <v>0</v>
       </c>
       <c r="L4" s="2">
         <f>'19'!L29</f>
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="M4" s="3"/>
       <c r="N4" s="68"/>
@@ -32099,7 +32087,7 @@
         <v>1908446141</v>
       </c>
       <c r="C14" s="20" t="s">
-        <v>28</v>
+        <v>45</v>
       </c>
       <c r="D14" s="29"/>
       <c r="E14" s="30"/>
@@ -32283,7 +32271,7 @@
         <v>1908446145</v>
       </c>
       <c r="C18" s="31" t="s">
-        <v>43</v>
+        <v>49</v>
       </c>
       <c r="D18" s="29"/>
       <c r="E18" s="30"/>
@@ -32375,7 +32363,7 @@
         <v>1908446147</v>
       </c>
       <c r="C20" s="20" t="s">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="D20" s="29"/>
       <c r="E20" s="30"/>
@@ -32818,39 +32806,39 @@
       <c r="C29" s="58"/>
       <c r="D29" s="48">
         <f>D4+D5-D28</f>
-        <v>430730</v>
+        <v>0</v>
       </c>
       <c r="E29" s="48">
         <f t="shared" ref="E29:L29" si="8">E4+E5-E28</f>
-        <v>4360</v>
+        <v>0</v>
       </c>
       <c r="F29" s="48">
         <f t="shared" si="8"/>
-        <v>10390</v>
+        <v>0</v>
       </c>
       <c r="G29" s="48">
         <f t="shared" si="8"/>
-        <v>70</v>
+        <v>0</v>
       </c>
       <c r="H29" s="48">
         <f t="shared" si="8"/>
-        <v>14575</v>
+        <v>0</v>
       </c>
       <c r="I29" s="48">
         <f t="shared" si="8"/>
-        <v>1131</v>
+        <v>0</v>
       </c>
       <c r="J29" s="48">
         <f t="shared" si="8"/>
-        <v>388</v>
+        <v>0</v>
       </c>
       <c r="K29" s="48">
         <f t="shared" si="8"/>
-        <v>155</v>
+        <v>0</v>
       </c>
       <c r="L29" s="48">
         <f t="shared" si="8"/>
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="M29" s="59"/>
       <c r="N29" s="60"/>
@@ -33190,39 +33178,39 @@
       <c r="C4" s="1"/>
       <c r="D4" s="2">
         <f>'20'!D29</f>
-        <v>430730</v>
+        <v>0</v>
       </c>
       <c r="E4" s="2">
         <f>'20'!E29</f>
-        <v>4360</v>
+        <v>0</v>
       </c>
       <c r="F4" s="2">
         <f>'20'!F29</f>
-        <v>10390</v>
+        <v>0</v>
       </c>
       <c r="G4" s="2">
         <f>'20'!G29</f>
-        <v>70</v>
+        <v>0</v>
       </c>
       <c r="H4" s="2">
         <f>'20'!H29</f>
-        <v>14575</v>
+        <v>0</v>
       </c>
       <c r="I4" s="2">
         <f>'20'!I29</f>
-        <v>1131</v>
+        <v>0</v>
       </c>
       <c r="J4" s="2">
         <f>'20'!J29</f>
-        <v>388</v>
+        <v>0</v>
       </c>
       <c r="K4" s="2">
         <f>'20'!K29</f>
-        <v>155</v>
+        <v>0</v>
       </c>
       <c r="L4" s="2">
         <f>'20'!L29</f>
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="M4" s="3"/>
       <c r="N4" s="68"/>
@@ -33649,7 +33637,7 @@
         <v>1908446141</v>
       </c>
       <c r="C14" s="20" t="s">
-        <v>28</v>
+        <v>45</v>
       </c>
       <c r="D14" s="29"/>
       <c r="E14" s="30"/>
@@ -33833,7 +33821,7 @@
         <v>1908446145</v>
       </c>
       <c r="C18" s="31" t="s">
-        <v>43</v>
+        <v>49</v>
       </c>
       <c r="D18" s="29"/>
       <c r="E18" s="30"/>
@@ -33925,7 +33913,7 @@
         <v>1908446147</v>
       </c>
       <c r="C20" s="20" t="s">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="D20" s="29"/>
       <c r="E20" s="30"/>
@@ -34368,39 +34356,39 @@
       <c r="C29" s="58"/>
       <c r="D29" s="48">
         <f>D4+D5-D28</f>
-        <v>430730</v>
+        <v>0</v>
       </c>
       <c r="E29" s="48">
         <f t="shared" ref="E29:L29" si="8">E4+E5-E28</f>
-        <v>4360</v>
+        <v>0</v>
       </c>
       <c r="F29" s="48">
         <f t="shared" si="8"/>
-        <v>10390</v>
+        <v>0</v>
       </c>
       <c r="G29" s="48">
         <f t="shared" si="8"/>
-        <v>70</v>
+        <v>0</v>
       </c>
       <c r="H29" s="48">
         <f t="shared" si="8"/>
-        <v>14575</v>
+        <v>0</v>
       </c>
       <c r="I29" s="48">
         <f t="shared" si="8"/>
-        <v>1131</v>
+        <v>0</v>
       </c>
       <c r="J29" s="48">
         <f t="shared" si="8"/>
-        <v>388</v>
+        <v>0</v>
       </c>
       <c r="K29" s="48">
         <f t="shared" si="8"/>
-        <v>155</v>
+        <v>0</v>
       </c>
       <c r="L29" s="48">
         <f t="shared" si="8"/>
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="M29" s="59"/>
       <c r="N29" s="60"/>
@@ -34740,39 +34728,39 @@
       <c r="C4" s="1"/>
       <c r="D4" s="2">
         <f>'21'!D29</f>
-        <v>430730</v>
+        <v>0</v>
       </c>
       <c r="E4" s="2">
         <f>'21'!E29</f>
-        <v>4360</v>
+        <v>0</v>
       </c>
       <c r="F4" s="2">
         <f>'21'!F29</f>
-        <v>10390</v>
+        <v>0</v>
       </c>
       <c r="G4" s="2">
         <f>'21'!G29</f>
-        <v>70</v>
+        <v>0</v>
       </c>
       <c r="H4" s="2">
         <f>'21'!H29</f>
-        <v>14575</v>
+        <v>0</v>
       </c>
       <c r="I4" s="2">
         <f>'21'!I29</f>
-        <v>1131</v>
+        <v>0</v>
       </c>
       <c r="J4" s="2">
         <f>'21'!J29</f>
-        <v>388</v>
+        <v>0</v>
       </c>
       <c r="K4" s="2">
         <f>'21'!K29</f>
-        <v>155</v>
+        <v>0</v>
       </c>
       <c r="L4" s="2">
         <f>'21'!L29</f>
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="M4" s="3"/>
       <c r="N4" s="68"/>
@@ -35199,7 +35187,7 @@
         <v>1908446141</v>
       </c>
       <c r="C14" s="20" t="s">
-        <v>28</v>
+        <v>45</v>
       </c>
       <c r="D14" s="29"/>
       <c r="E14" s="30"/>
@@ -35383,7 +35371,7 @@
         <v>1908446145</v>
       </c>
       <c r="C18" s="31" t="s">
-        <v>43</v>
+        <v>49</v>
       </c>
       <c r="D18" s="29"/>
       <c r="E18" s="30"/>
@@ -35475,7 +35463,7 @@
         <v>1908446147</v>
       </c>
       <c r="C20" s="20" t="s">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="D20" s="29"/>
       <c r="E20" s="30"/>
@@ -35918,39 +35906,39 @@
       <c r="C29" s="58"/>
       <c r="D29" s="48">
         <f>D4+D5-D28</f>
-        <v>430730</v>
+        <v>0</v>
       </c>
       <c r="E29" s="48">
         <f t="shared" ref="E29:L29" si="8">E4+E5-E28</f>
-        <v>4360</v>
+        <v>0</v>
       </c>
       <c r="F29" s="48">
         <f t="shared" si="8"/>
-        <v>10390</v>
+        <v>0</v>
       </c>
       <c r="G29" s="48">
         <f t="shared" si="8"/>
-        <v>70</v>
+        <v>0</v>
       </c>
       <c r="H29" s="48">
         <f t="shared" si="8"/>
-        <v>14575</v>
+        <v>0</v>
       </c>
       <c r="I29" s="48">
         <f t="shared" si="8"/>
-        <v>1131</v>
+        <v>0</v>
       </c>
       <c r="J29" s="48">
         <f t="shared" si="8"/>
-        <v>388</v>
+        <v>0</v>
       </c>
       <c r="K29" s="48">
         <f t="shared" si="8"/>
-        <v>155</v>
+        <v>0</v>
       </c>
       <c r="L29" s="48">
         <f t="shared" si="8"/>
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="M29" s="59"/>
       <c r="N29" s="60"/>
@@ -36290,39 +36278,39 @@
       <c r="C4" s="1"/>
       <c r="D4" s="2">
         <f>'22'!D29</f>
-        <v>430730</v>
+        <v>0</v>
       </c>
       <c r="E4" s="2">
         <f>'22'!E29</f>
-        <v>4360</v>
+        <v>0</v>
       </c>
       <c r="F4" s="2">
         <f>'22'!F29</f>
-        <v>10390</v>
+        <v>0</v>
       </c>
       <c r="G4" s="2">
         <f>'22'!G29</f>
-        <v>70</v>
+        <v>0</v>
       </c>
       <c r="H4" s="2">
         <f>'22'!H29</f>
-        <v>14575</v>
+        <v>0</v>
       </c>
       <c r="I4" s="2">
         <f>'22'!I29</f>
-        <v>1131</v>
+        <v>0</v>
       </c>
       <c r="J4" s="2">
         <f>'22'!J29</f>
-        <v>388</v>
+        <v>0</v>
       </c>
       <c r="K4" s="2">
         <f>'22'!K29</f>
-        <v>155</v>
+        <v>0</v>
       </c>
       <c r="L4" s="2">
         <f>'22'!L29</f>
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="M4" s="3"/>
       <c r="N4" s="68"/>
@@ -36749,7 +36737,7 @@
         <v>1908446141</v>
       </c>
       <c r="C14" s="20" t="s">
-        <v>28</v>
+        <v>45</v>
       </c>
       <c r="D14" s="29"/>
       <c r="E14" s="30"/>
@@ -36933,7 +36921,7 @@
         <v>1908446145</v>
       </c>
       <c r="C18" s="31" t="s">
-        <v>43</v>
+        <v>49</v>
       </c>
       <c r="D18" s="29"/>
       <c r="E18" s="30"/>
@@ -37025,7 +37013,7 @@
         <v>1908446147</v>
       </c>
       <c r="C20" s="20" t="s">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="D20" s="29"/>
       <c r="E20" s="30"/>
@@ -37468,39 +37456,39 @@
       <c r="C29" s="58"/>
       <c r="D29" s="48">
         <f>D4+D5-D28</f>
-        <v>430730</v>
+        <v>0</v>
       </c>
       <c r="E29" s="48">
         <f t="shared" ref="E29:L29" si="8">E4+E5-E28</f>
-        <v>4360</v>
+        <v>0</v>
       </c>
       <c r="F29" s="48">
         <f t="shared" si="8"/>
-        <v>10390</v>
+        <v>0</v>
       </c>
       <c r="G29" s="48">
         <f t="shared" si="8"/>
-        <v>70</v>
+        <v>0</v>
       </c>
       <c r="H29" s="48">
         <f t="shared" si="8"/>
-        <v>14575</v>
+        <v>0</v>
       </c>
       <c r="I29" s="48">
         <f t="shared" si="8"/>
-        <v>1131</v>
+        <v>0</v>
       </c>
       <c r="J29" s="48">
         <f t="shared" si="8"/>
-        <v>388</v>
+        <v>0</v>
       </c>
       <c r="K29" s="48">
         <f t="shared" si="8"/>
-        <v>155</v>
+        <v>0</v>
       </c>
       <c r="L29" s="48">
         <f t="shared" si="8"/>
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="M29" s="59"/>
       <c r="N29" s="60"/>
@@ -37840,39 +37828,39 @@
       <c r="C4" s="1"/>
       <c r="D4" s="2">
         <f>'23'!D29</f>
-        <v>430730</v>
+        <v>0</v>
       </c>
       <c r="E4" s="2">
         <f>'23'!E29</f>
-        <v>4360</v>
+        <v>0</v>
       </c>
       <c r="F4" s="2">
         <f>'23'!F29</f>
-        <v>10390</v>
+        <v>0</v>
       </c>
       <c r="G4" s="2">
         <f>'23'!G29</f>
-        <v>70</v>
+        <v>0</v>
       </c>
       <c r="H4" s="2">
         <f>'23'!H29</f>
-        <v>14575</v>
+        <v>0</v>
       </c>
       <c r="I4" s="2">
         <f>'23'!I29</f>
-        <v>1131</v>
+        <v>0</v>
       </c>
       <c r="J4" s="2">
         <f>'23'!J29</f>
-        <v>388</v>
+        <v>0</v>
       </c>
       <c r="K4" s="2">
         <f>'23'!K29</f>
-        <v>155</v>
+        <v>0</v>
       </c>
       <c r="L4" s="2">
         <f>'23'!L29</f>
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="M4" s="3"/>
       <c r="N4" s="68"/>
@@ -38299,7 +38287,7 @@
         <v>1908446141</v>
       </c>
       <c r="C14" s="20" t="s">
-        <v>28</v>
+        <v>45</v>
       </c>
       <c r="D14" s="29"/>
       <c r="E14" s="30"/>
@@ -38483,7 +38471,7 @@
         <v>1908446145</v>
       </c>
       <c r="C18" s="31" t="s">
-        <v>43</v>
+        <v>49</v>
       </c>
       <c r="D18" s="29"/>
       <c r="E18" s="30"/>
@@ -38575,7 +38563,7 @@
         <v>1908446147</v>
       </c>
       <c r="C20" s="20" t="s">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="D20" s="29"/>
       <c r="E20" s="30"/>
@@ -39018,39 +39006,39 @@
       <c r="C29" s="58"/>
       <c r="D29" s="48">
         <f>D4+D5-D28</f>
-        <v>430730</v>
+        <v>0</v>
       </c>
       <c r="E29" s="48">
         <f t="shared" ref="E29:L29" si="8">E4+E5-E28</f>
-        <v>4360</v>
+        <v>0</v>
       </c>
       <c r="F29" s="48">
         <f t="shared" si="8"/>
-        <v>10390</v>
+        <v>0</v>
       </c>
       <c r="G29" s="48">
         <f t="shared" si="8"/>
-        <v>70</v>
+        <v>0</v>
       </c>
       <c r="H29" s="48">
         <f t="shared" si="8"/>
-        <v>14575</v>
+        <v>0</v>
       </c>
       <c r="I29" s="48">
         <f t="shared" si="8"/>
-        <v>1131</v>
+        <v>0</v>
       </c>
       <c r="J29" s="48">
         <f t="shared" si="8"/>
-        <v>388</v>
+        <v>0</v>
       </c>
       <c r="K29" s="48">
         <f t="shared" si="8"/>
-        <v>155</v>
+        <v>0</v>
       </c>
       <c r="L29" s="48">
         <f t="shared" si="8"/>
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="M29" s="59"/>
       <c r="N29" s="60"/>
@@ -39390,39 +39378,39 @@
       <c r="C4" s="1"/>
       <c r="D4" s="2">
         <f>'24'!D29</f>
-        <v>430730</v>
+        <v>0</v>
       </c>
       <c r="E4" s="2">
         <f>'24'!E29</f>
-        <v>4360</v>
+        <v>0</v>
       </c>
       <c r="F4" s="2">
         <f>'24'!F29</f>
-        <v>10390</v>
+        <v>0</v>
       </c>
       <c r="G4" s="2">
         <f>'24'!G29</f>
-        <v>70</v>
+        <v>0</v>
       </c>
       <c r="H4" s="2">
         <f>'24'!H29</f>
-        <v>14575</v>
+        <v>0</v>
       </c>
       <c r="I4" s="2">
         <f>'24'!I29</f>
-        <v>1131</v>
+        <v>0</v>
       </c>
       <c r="J4" s="2">
         <f>'24'!J29</f>
-        <v>388</v>
+        <v>0</v>
       </c>
       <c r="K4" s="2">
         <f>'24'!K29</f>
-        <v>155</v>
+        <v>0</v>
       </c>
       <c r="L4" s="2">
         <f>'24'!L29</f>
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="M4" s="3"/>
       <c r="N4" s="68"/>
@@ -39849,7 +39837,7 @@
         <v>1908446141</v>
       </c>
       <c r="C14" s="20" t="s">
-        <v>28</v>
+        <v>45</v>
       </c>
       <c r="D14" s="29"/>
       <c r="E14" s="30"/>
@@ -40033,7 +40021,7 @@
         <v>1908446145</v>
       </c>
       <c r="C18" s="31" t="s">
-        <v>43</v>
+        <v>49</v>
       </c>
       <c r="D18" s="29"/>
       <c r="E18" s="30"/>
@@ -40125,7 +40113,7 @@
         <v>1908446147</v>
       </c>
       <c r="C20" s="20" t="s">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="D20" s="29"/>
       <c r="E20" s="30"/>
@@ -40568,39 +40556,39 @@
       <c r="C29" s="58"/>
       <c r="D29" s="48">
         <f>D4+D5-D28</f>
-        <v>430730</v>
+        <v>0</v>
       </c>
       <c r="E29" s="48">
         <f t="shared" ref="E29:L29" si="8">E4+E5-E28</f>
-        <v>4360</v>
+        <v>0</v>
       </c>
       <c r="F29" s="48">
         <f t="shared" si="8"/>
-        <v>10390</v>
+        <v>0</v>
       </c>
       <c r="G29" s="48">
         <f t="shared" si="8"/>
-        <v>70</v>
+        <v>0</v>
       </c>
       <c r="H29" s="48">
         <f t="shared" si="8"/>
-        <v>14575</v>
+        <v>0</v>
       </c>
       <c r="I29" s="48">
         <f t="shared" si="8"/>
-        <v>1131</v>
+        <v>0</v>
       </c>
       <c r="J29" s="48">
         <f t="shared" si="8"/>
-        <v>388</v>
+        <v>0</v>
       </c>
       <c r="K29" s="48">
         <f t="shared" si="8"/>
-        <v>155</v>
+        <v>0</v>
       </c>
       <c r="L29" s="48">
         <f t="shared" si="8"/>
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="M29" s="59"/>
       <c r="N29" s="60"/>
@@ -40940,39 +40928,39 @@
       <c r="C4" s="1"/>
       <c r="D4" s="2">
         <f>'25'!D29</f>
-        <v>430730</v>
+        <v>0</v>
       </c>
       <c r="E4" s="2">
         <f>'25'!E29</f>
-        <v>4360</v>
+        <v>0</v>
       </c>
       <c r="F4" s="2">
         <f>'25'!F29</f>
-        <v>10390</v>
+        <v>0</v>
       </c>
       <c r="G4" s="2">
         <f>'25'!G29</f>
-        <v>70</v>
+        <v>0</v>
       </c>
       <c r="H4" s="2">
         <f>'25'!H29</f>
-        <v>14575</v>
+        <v>0</v>
       </c>
       <c r="I4" s="2">
         <f>'25'!I29</f>
-        <v>1131</v>
+        <v>0</v>
       </c>
       <c r="J4" s="2">
         <f>'25'!J29</f>
-        <v>388</v>
+        <v>0</v>
       </c>
       <c r="K4" s="2">
         <f>'25'!K29</f>
-        <v>155</v>
+        <v>0</v>
       </c>
       <c r="L4" s="2">
         <f>'25'!L29</f>
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="M4" s="3"/>
       <c r="N4" s="68"/>
@@ -41399,7 +41387,7 @@
         <v>1908446141</v>
       </c>
       <c r="C14" s="20" t="s">
-        <v>28</v>
+        <v>45</v>
       </c>
       <c r="D14" s="29"/>
       <c r="E14" s="30"/>
@@ -41583,7 +41571,7 @@
         <v>1908446145</v>
       </c>
       <c r="C18" s="31" t="s">
-        <v>43</v>
+        <v>49</v>
       </c>
       <c r="D18" s="29"/>
       <c r="E18" s="30"/>
@@ -41675,7 +41663,7 @@
         <v>1908446147</v>
       </c>
       <c r="C20" s="20" t="s">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="D20" s="29"/>
       <c r="E20" s="30"/>
@@ -42118,39 +42106,39 @@
       <c r="C29" s="58"/>
       <c r="D29" s="48">
         <f>D4+D5-D28</f>
-        <v>430730</v>
+        <v>0</v>
       </c>
       <c r="E29" s="48">
         <f t="shared" ref="E29:L29" si="8">E4+E5-E28</f>
-        <v>4360</v>
+        <v>0</v>
       </c>
       <c r="F29" s="48">
         <f t="shared" si="8"/>
-        <v>10390</v>
+        <v>0</v>
       </c>
       <c r="G29" s="48">
         <f t="shared" si="8"/>
-        <v>70</v>
+        <v>0</v>
       </c>
       <c r="H29" s="48">
         <f t="shared" si="8"/>
-        <v>14575</v>
+        <v>0</v>
       </c>
       <c r="I29" s="48">
         <f t="shared" si="8"/>
-        <v>1131</v>
+        <v>0</v>
       </c>
       <c r="J29" s="48">
         <f t="shared" si="8"/>
-        <v>388</v>
+        <v>0</v>
       </c>
       <c r="K29" s="48">
         <f t="shared" si="8"/>
-        <v>155</v>
+        <v>0</v>
       </c>
       <c r="L29" s="48">
         <f t="shared" si="8"/>
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="M29" s="59"/>
       <c r="N29" s="60"/>
@@ -42490,39 +42478,39 @@
       <c r="C4" s="1"/>
       <c r="D4" s="2">
         <f>'26'!D29</f>
-        <v>430730</v>
+        <v>0</v>
       </c>
       <c r="E4" s="2">
         <f>'26'!E29</f>
-        <v>4360</v>
+        <v>0</v>
       </c>
       <c r="F4" s="2">
         <f>'26'!F29</f>
-        <v>10390</v>
+        <v>0</v>
       </c>
       <c r="G4" s="2">
         <f>'26'!G29</f>
-        <v>70</v>
+        <v>0</v>
       </c>
       <c r="H4" s="2">
         <f>'26'!H29</f>
-        <v>14575</v>
+        <v>0</v>
       </c>
       <c r="I4" s="2">
         <f>'26'!I29</f>
-        <v>1131</v>
+        <v>0</v>
       </c>
       <c r="J4" s="2">
         <f>'26'!J29</f>
-        <v>388</v>
+        <v>0</v>
       </c>
       <c r="K4" s="2">
         <f>'26'!K29</f>
-        <v>155</v>
+        <v>0</v>
       </c>
       <c r="L4" s="2">
         <f>'26'!L29</f>
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="M4" s="3"/>
       <c r="N4" s="68"/>
@@ -42949,7 +42937,7 @@
         <v>1908446141</v>
       </c>
       <c r="C14" s="20" t="s">
-        <v>28</v>
+        <v>45</v>
       </c>
       <c r="D14" s="29"/>
       <c r="E14" s="30"/>
@@ -43133,7 +43121,7 @@
         <v>1908446145</v>
       </c>
       <c r="C18" s="31" t="s">
-        <v>43</v>
+        <v>49</v>
       </c>
       <c r="D18" s="29"/>
       <c r="E18" s="30"/>
@@ -43225,7 +43213,7 @@
         <v>1908446147</v>
       </c>
       <c r="C20" s="20" t="s">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="D20" s="29"/>
       <c r="E20" s="30"/>
@@ -43668,39 +43656,39 @@
       <c r="C29" s="58"/>
       <c r="D29" s="48">
         <f>D4+D5-D28</f>
-        <v>430730</v>
+        <v>0</v>
       </c>
       <c r="E29" s="48">
         <f t="shared" ref="E29:L29" si="8">E4+E5-E28</f>
-        <v>4360</v>
+        <v>0</v>
       </c>
       <c r="F29" s="48">
         <f t="shared" si="8"/>
-        <v>10390</v>
+        <v>0</v>
       </c>
       <c r="G29" s="48">
         <f t="shared" si="8"/>
-        <v>70</v>
+        <v>0</v>
       </c>
       <c r="H29" s="48">
         <f t="shared" si="8"/>
-        <v>14575</v>
+        <v>0</v>
       </c>
       <c r="I29" s="48">
         <f t="shared" si="8"/>
-        <v>1131</v>
+        <v>0</v>
       </c>
       <c r="J29" s="48">
         <f t="shared" si="8"/>
-        <v>388</v>
+        <v>0</v>
       </c>
       <c r="K29" s="48">
         <f t="shared" si="8"/>
-        <v>155</v>
+        <v>0</v>
       </c>
       <c r="L29" s="48">
         <f t="shared" si="8"/>
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="M29" s="59"/>
       <c r="N29" s="60"/>
@@ -44040,39 +44028,39 @@
       <c r="C4" s="1"/>
       <c r="D4" s="2">
         <f>'27'!D29</f>
-        <v>430730</v>
+        <v>0</v>
       </c>
       <c r="E4" s="2">
         <f>'27'!E29</f>
-        <v>4360</v>
+        <v>0</v>
       </c>
       <c r="F4" s="2">
         <f>'27'!F29</f>
-        <v>10390</v>
+        <v>0</v>
       </c>
       <c r="G4" s="2">
         <f>'27'!G29</f>
-        <v>70</v>
+        <v>0</v>
       </c>
       <c r="H4" s="2">
         <f>'27'!H29</f>
-        <v>14575</v>
+        <v>0</v>
       </c>
       <c r="I4" s="2">
         <f>'27'!I29</f>
-        <v>1131</v>
+        <v>0</v>
       </c>
       <c r="J4" s="2">
         <f>'27'!J29</f>
-        <v>388</v>
+        <v>0</v>
       </c>
       <c r="K4" s="2">
         <f>'27'!K29</f>
-        <v>155</v>
+        <v>0</v>
       </c>
       <c r="L4" s="2">
         <f>'27'!L29</f>
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="M4" s="3"/>
       <c r="N4" s="68"/>
@@ -44499,7 +44487,7 @@
         <v>1908446141</v>
       </c>
       <c r="C14" s="20" t="s">
-        <v>28</v>
+        <v>45</v>
       </c>
       <c r="D14" s="29"/>
       <c r="E14" s="30"/>
@@ -44683,7 +44671,7 @@
         <v>1908446145</v>
       </c>
       <c r="C18" s="31" t="s">
-        <v>43</v>
+        <v>49</v>
       </c>
       <c r="D18" s="29"/>
       <c r="E18" s="30"/>
@@ -44775,7 +44763,7 @@
         <v>1908446147</v>
       </c>
       <c r="C20" s="20" t="s">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="D20" s="29"/>
       <c r="E20" s="30"/>
@@ -45218,39 +45206,39 @@
       <c r="C29" s="58"/>
       <c r="D29" s="48">
         <f>D4+D5-D28</f>
-        <v>430730</v>
+        <v>0</v>
       </c>
       <c r="E29" s="48">
         <f t="shared" ref="E29:L29" si="8">E4+E5-E28</f>
-        <v>4360</v>
+        <v>0</v>
       </c>
       <c r="F29" s="48">
         <f t="shared" si="8"/>
-        <v>10390</v>
+        <v>0</v>
       </c>
       <c r="G29" s="48">
         <f t="shared" si="8"/>
-        <v>70</v>
+        <v>0</v>
       </c>
       <c r="H29" s="48">
         <f t="shared" si="8"/>
-        <v>14575</v>
+        <v>0</v>
       </c>
       <c r="I29" s="48">
         <f t="shared" si="8"/>
-        <v>1131</v>
+        <v>0</v>
       </c>
       <c r="J29" s="48">
         <f t="shared" si="8"/>
-        <v>388</v>
+        <v>0</v>
       </c>
       <c r="K29" s="48">
         <f t="shared" si="8"/>
-        <v>155</v>
+        <v>0</v>
       </c>
       <c r="L29" s="48">
         <f t="shared" si="8"/>
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="M29" s="59"/>
       <c r="N29" s="60"/>
@@ -45590,39 +45578,39 @@
       <c r="C4" s="1"/>
       <c r="D4" s="2">
         <f>'28'!D29</f>
-        <v>430730</v>
+        <v>0</v>
       </c>
       <c r="E4" s="2">
         <f>'28'!E29</f>
-        <v>4360</v>
+        <v>0</v>
       </c>
       <c r="F4" s="2">
         <f>'28'!F29</f>
-        <v>10390</v>
+        <v>0</v>
       </c>
       <c r="G4" s="2">
         <f>'28'!G29</f>
-        <v>70</v>
+        <v>0</v>
       </c>
       <c r="H4" s="2">
         <f>'28'!H29</f>
-        <v>14575</v>
+        <v>0</v>
       </c>
       <c r="I4" s="2">
         <f>'28'!I29</f>
-        <v>1131</v>
+        <v>0</v>
       </c>
       <c r="J4" s="2">
         <f>'28'!J29</f>
-        <v>388</v>
+        <v>0</v>
       </c>
       <c r="K4" s="2">
         <f>'28'!K29</f>
-        <v>155</v>
+        <v>0</v>
       </c>
       <c r="L4" s="2">
         <f>'28'!L29</f>
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="M4" s="3"/>
       <c r="N4" s="68"/>
@@ -46049,7 +46037,7 @@
         <v>1908446141</v>
       </c>
       <c r="C14" s="20" t="s">
-        <v>28</v>
+        <v>45</v>
       </c>
       <c r="D14" s="29"/>
       <c r="E14" s="30"/>
@@ -46233,7 +46221,7 @@
         <v>1908446145</v>
       </c>
       <c r="C18" s="31" t="s">
-        <v>43</v>
+        <v>49</v>
       </c>
       <c r="D18" s="29"/>
       <c r="E18" s="30"/>
@@ -46325,7 +46313,7 @@
         <v>1908446147</v>
       </c>
       <c r="C20" s="20" t="s">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="D20" s="29"/>
       <c r="E20" s="30"/>
@@ -46768,39 +46756,39 @@
       <c r="C29" s="58"/>
       <c r="D29" s="48">
         <f>D4+D5-D28</f>
-        <v>430730</v>
+        <v>0</v>
       </c>
       <c r="E29" s="48">
         <f t="shared" ref="E29:L29" si="8">E4+E5-E28</f>
-        <v>4360</v>
+        <v>0</v>
       </c>
       <c r="F29" s="48">
         <f t="shared" si="8"/>
-        <v>10390</v>
+        <v>0</v>
       </c>
       <c r="G29" s="48">
         <f t="shared" si="8"/>
-        <v>70</v>
+        <v>0</v>
       </c>
       <c r="H29" s="48">
         <f t="shared" si="8"/>
-        <v>14575</v>
+        <v>0</v>
       </c>
       <c r="I29" s="48">
         <f t="shared" si="8"/>
-        <v>1131</v>
+        <v>0</v>
       </c>
       <c r="J29" s="48">
         <f t="shared" si="8"/>
-        <v>388</v>
+        <v>0</v>
       </c>
       <c r="K29" s="48">
         <f t="shared" si="8"/>
-        <v>155</v>
+        <v>0</v>
       </c>
       <c r="L29" s="48">
         <f t="shared" si="8"/>
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="M29" s="59"/>
       <c r="N29" s="60"/>
@@ -47140,39 +47128,39 @@
       <c r="C4" s="1"/>
       <c r="D4" s="2">
         <f>'2'!D29</f>
-        <v>430730</v>
+        <v>0</v>
       </c>
       <c r="E4" s="2">
         <f>'2'!E29</f>
-        <v>4360</v>
+        <v>0</v>
       </c>
       <c r="F4" s="2">
         <f>'2'!F29</f>
-        <v>10390</v>
+        <v>0</v>
       </c>
       <c r="G4" s="2">
         <f>'2'!G29</f>
-        <v>70</v>
+        <v>0</v>
       </c>
       <c r="H4" s="2">
         <f>'2'!H29</f>
-        <v>14575</v>
+        <v>0</v>
       </c>
       <c r="I4" s="2">
         <f>'2'!I29</f>
-        <v>1131</v>
+        <v>0</v>
       </c>
       <c r="J4" s="2">
         <f>'2'!J29</f>
-        <v>388</v>
+        <v>0</v>
       </c>
       <c r="K4" s="2">
         <f>'2'!K29</f>
-        <v>155</v>
+        <v>0</v>
       </c>
       <c r="L4" s="2">
         <f>'2'!L29</f>
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="M4" s="3"/>
       <c r="N4" s="68"/>
@@ -47599,7 +47587,7 @@
         <v>1908446141</v>
       </c>
       <c r="C14" s="20" t="s">
-        <v>28</v>
+        <v>45</v>
       </c>
       <c r="D14" s="29"/>
       <c r="E14" s="30"/>
@@ -47783,7 +47771,7 @@
         <v>1908446145</v>
       </c>
       <c r="C18" s="31" t="s">
-        <v>43</v>
+        <v>49</v>
       </c>
       <c r="D18" s="29"/>
       <c r="E18" s="30"/>
@@ -47875,7 +47863,7 @@
         <v>1908446147</v>
       </c>
       <c r="C20" s="20" t="s">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="D20" s="29"/>
       <c r="E20" s="30"/>
@@ -48318,39 +48306,39 @@
       <c r="C29" s="58"/>
       <c r="D29" s="48">
         <f>D4+D5-D28</f>
-        <v>430730</v>
+        <v>0</v>
       </c>
       <c r="E29" s="48">
         <f t="shared" ref="E29:L29" si="8">E4+E5-E28</f>
-        <v>4360</v>
+        <v>0</v>
       </c>
       <c r="F29" s="48">
         <f t="shared" si="8"/>
-        <v>10390</v>
+        <v>0</v>
       </c>
       <c r="G29" s="48">
         <f t="shared" si="8"/>
-        <v>70</v>
+        <v>0</v>
       </c>
       <c r="H29" s="48">
         <f t="shared" si="8"/>
-        <v>14575</v>
+        <v>0</v>
       </c>
       <c r="I29" s="48">
         <f t="shared" si="8"/>
-        <v>1131</v>
+        <v>0</v>
       </c>
       <c r="J29" s="48">
         <f t="shared" si="8"/>
-        <v>388</v>
+        <v>0</v>
       </c>
       <c r="K29" s="48">
         <f t="shared" si="8"/>
-        <v>155</v>
+        <v>0</v>
       </c>
       <c r="L29" s="48">
         <f t="shared" si="8"/>
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="M29" s="59"/>
       <c r="N29" s="60"/>
@@ -48690,39 +48678,39 @@
       <c r="C4" s="1"/>
       <c r="D4" s="2">
         <f>'29'!D29</f>
-        <v>430730</v>
+        <v>0</v>
       </c>
       <c r="E4" s="2">
         <f>'29'!E29</f>
-        <v>4360</v>
+        <v>0</v>
       </c>
       <c r="F4" s="2">
         <f>'29'!F29</f>
-        <v>10390</v>
+        <v>0</v>
       </c>
       <c r="G4" s="2">
         <f>'29'!G29</f>
-        <v>70</v>
+        <v>0</v>
       </c>
       <c r="H4" s="2">
         <f>'29'!H29</f>
-        <v>14575</v>
+        <v>0</v>
       </c>
       <c r="I4" s="2">
         <f>'29'!I29</f>
-        <v>1131</v>
+        <v>0</v>
       </c>
       <c r="J4" s="2">
         <f>'29'!J29</f>
-        <v>388</v>
+        <v>0</v>
       </c>
       <c r="K4" s="2">
         <f>'29'!K29</f>
-        <v>155</v>
+        <v>0</v>
       </c>
       <c r="L4" s="2">
         <f>'29'!L29</f>
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="M4" s="3"/>
       <c r="N4" s="68"/>
@@ -49149,7 +49137,7 @@
         <v>1908446141</v>
       </c>
       <c r="C14" s="20" t="s">
-        <v>28</v>
+        <v>45</v>
       </c>
       <c r="D14" s="29"/>
       <c r="E14" s="30"/>
@@ -49333,7 +49321,7 @@
         <v>1908446145</v>
       </c>
       <c r="C18" s="31" t="s">
-        <v>43</v>
+        <v>49</v>
       </c>
       <c r="D18" s="29"/>
       <c r="E18" s="30"/>
@@ -49425,7 +49413,7 @@
         <v>1908446147</v>
       </c>
       <c r="C20" s="20" t="s">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="D20" s="29"/>
       <c r="E20" s="30"/>
@@ -49868,39 +49856,39 @@
       <c r="C29" s="58"/>
       <c r="D29" s="48">
         <f>D4+D5-D28</f>
-        <v>430730</v>
+        <v>0</v>
       </c>
       <c r="E29" s="48">
         <f t="shared" ref="E29:L29" si="8">E4+E5-E28</f>
-        <v>4360</v>
+        <v>0</v>
       </c>
       <c r="F29" s="48">
         <f t="shared" si="8"/>
-        <v>10390</v>
+        <v>0</v>
       </c>
       <c r="G29" s="48">
         <f t="shared" si="8"/>
-        <v>70</v>
+        <v>0</v>
       </c>
       <c r="H29" s="48">
         <f t="shared" si="8"/>
-        <v>14575</v>
+        <v>0</v>
       </c>
       <c r="I29" s="48">
         <f t="shared" si="8"/>
-        <v>1131</v>
+        <v>0</v>
       </c>
       <c r="J29" s="48">
         <f t="shared" si="8"/>
-        <v>388</v>
+        <v>0</v>
       </c>
       <c r="K29" s="48">
         <f t="shared" si="8"/>
-        <v>155</v>
+        <v>0</v>
       </c>
       <c r="L29" s="48">
         <f t="shared" si="8"/>
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="M29" s="59"/>
       <c r="N29" s="60"/>
@@ -50147,7 +50135,7 @@
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="6" topLeftCell="A7" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F15" sqref="F15"/>
+      <selection pane="bottomLeft" activeCell="H17" sqref="H17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -50240,39 +50228,39 @@
       <c r="C4" s="1"/>
       <c r="D4" s="2">
         <f>'30'!D29</f>
-        <v>430730</v>
+        <v>0</v>
       </c>
       <c r="E4" s="2">
         <f>'30'!E29</f>
-        <v>4360</v>
+        <v>0</v>
       </c>
       <c r="F4" s="2">
         <f>'30'!F29</f>
-        <v>10390</v>
+        <v>0</v>
       </c>
       <c r="G4" s="2">
         <f>'30'!G29</f>
-        <v>70</v>
+        <v>0</v>
       </c>
       <c r="H4" s="2">
         <f>'30'!H29</f>
-        <v>14575</v>
+        <v>0</v>
       </c>
       <c r="I4" s="2">
         <f>'30'!I29</f>
-        <v>1131</v>
+        <v>0</v>
       </c>
       <c r="J4" s="2">
         <f>'30'!J29</f>
-        <v>388</v>
+        <v>0</v>
       </c>
       <c r="K4" s="2">
         <f>'30'!K29</f>
-        <v>155</v>
+        <v>0</v>
       </c>
       <c r="L4" s="2">
         <f>'30'!L29</f>
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="M4" s="3"/>
       <c r="N4" s="68"/>
@@ -50699,7 +50687,7 @@
         <v>1908446141</v>
       </c>
       <c r="C14" s="20" t="s">
-        <v>28</v>
+        <v>45</v>
       </c>
       <c r="D14" s="29"/>
       <c r="E14" s="30"/>
@@ -50883,7 +50871,7 @@
         <v>1908446145</v>
       </c>
       <c r="C18" s="31" t="s">
-        <v>43</v>
+        <v>49</v>
       </c>
       <c r="D18" s="29"/>
       <c r="E18" s="30"/>
@@ -50975,7 +50963,7 @@
         <v>1908446147</v>
       </c>
       <c r="C20" s="20" t="s">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="D20" s="29"/>
       <c r="E20" s="30"/>
@@ -51418,39 +51406,39 @@
       <c r="C29" s="58"/>
       <c r="D29" s="48">
         <f>D4+D5-D28</f>
-        <v>430730</v>
+        <v>0</v>
       </c>
       <c r="E29" s="48">
         <f t="shared" ref="E29:L29" si="8">E4+E5-E28</f>
-        <v>4360</v>
+        <v>0</v>
       </c>
       <c r="F29" s="48">
         <f t="shared" si="8"/>
-        <v>10390</v>
+        <v>0</v>
       </c>
       <c r="G29" s="48">
         <f t="shared" si="8"/>
-        <v>70</v>
+        <v>0</v>
       </c>
       <c r="H29" s="48">
         <f t="shared" si="8"/>
-        <v>14575</v>
+        <v>0</v>
       </c>
       <c r="I29" s="48">
         <f t="shared" si="8"/>
-        <v>1131</v>
+        <v>0</v>
       </c>
       <c r="J29" s="48">
         <f t="shared" si="8"/>
-        <v>388</v>
+        <v>0</v>
       </c>
       <c r="K29" s="48">
         <f t="shared" si="8"/>
-        <v>155</v>
+        <v>0</v>
       </c>
       <c r="L29" s="48">
         <f t="shared" si="8"/>
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="M29" s="59"/>
       <c r="N29" s="60"/>
@@ -51787,39 +51775,39 @@
       <c r="C4" s="1"/>
       <c r="D4" s="2">
         <f>'1'!D4</f>
-        <v>430730</v>
+        <v>0</v>
       </c>
       <c r="E4" s="2">
         <f>'1'!E4</f>
-        <v>4360</v>
+        <v>0</v>
       </c>
       <c r="F4" s="2">
         <f>'1'!F4</f>
-        <v>10390</v>
+        <v>0</v>
       </c>
       <c r="G4" s="2">
         <f>'1'!G4</f>
-        <v>70</v>
+        <v>0</v>
       </c>
       <c r="H4" s="2">
         <f>'1'!H4</f>
-        <v>14575</v>
+        <v>0</v>
       </c>
       <c r="I4" s="2">
         <f>'1'!I4</f>
-        <v>1131</v>
+        <v>0</v>
       </c>
       <c r="J4" s="2">
         <f>'1'!J4</f>
-        <v>388</v>
+        <v>0</v>
       </c>
       <c r="K4" s="2">
         <f>'1'!K4</f>
-        <v>155</v>
+        <v>0</v>
       </c>
       <c r="L4" s="2">
         <f>'1'!L4</f>
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="M4" s="3"/>
       <c r="N4" s="68"/>
@@ -53622,39 +53610,39 @@
       <c r="C29" s="58"/>
       <c r="D29" s="48">
         <f>D4+D5-D28</f>
-        <v>430730</v>
+        <v>0</v>
       </c>
       <c r="E29" s="48">
         <f t="shared" ref="E29:L29" si="8">E4+E5-E28</f>
-        <v>4360</v>
+        <v>0</v>
       </c>
       <c r="F29" s="48">
         <f t="shared" si="8"/>
-        <v>10390</v>
+        <v>0</v>
       </c>
       <c r="G29" s="48">
         <f t="shared" si="8"/>
-        <v>70</v>
+        <v>0</v>
       </c>
       <c r="H29" s="48">
         <f t="shared" si="8"/>
-        <v>14575</v>
+        <v>0</v>
       </c>
       <c r="I29" s="48">
         <f t="shared" si="8"/>
-        <v>1131</v>
+        <v>0</v>
       </c>
       <c r="J29" s="48">
         <f t="shared" si="8"/>
-        <v>388</v>
+        <v>0</v>
       </c>
       <c r="K29" s="48">
         <f t="shared" si="8"/>
-        <v>155</v>
+        <v>0</v>
       </c>
       <c r="L29" s="48">
         <f t="shared" si="8"/>
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="M29" s="59"/>
       <c r="N29" s="60"/>
@@ -53990,39 +53978,39 @@
       <c r="C4" s="1"/>
       <c r="D4" s="2">
         <f>'3'!D29</f>
-        <v>430730</v>
+        <v>0</v>
       </c>
       <c r="E4" s="2">
         <f>'3'!E29</f>
-        <v>4360</v>
+        <v>0</v>
       </c>
       <c r="F4" s="2">
         <f>'3'!F29</f>
-        <v>10390</v>
+        <v>0</v>
       </c>
       <c r="G4" s="2">
         <f>'3'!G29</f>
-        <v>70</v>
+        <v>0</v>
       </c>
       <c r="H4" s="2">
         <f>'3'!H29</f>
-        <v>14575</v>
+        <v>0</v>
       </c>
       <c r="I4" s="2">
         <f>'3'!I29</f>
-        <v>1131</v>
+        <v>0</v>
       </c>
       <c r="J4" s="2">
         <f>'3'!J29</f>
-        <v>388</v>
+        <v>0</v>
       </c>
       <c r="K4" s="2">
         <f>'3'!K29</f>
-        <v>155</v>
+        <v>0</v>
       </c>
       <c r="L4" s="2">
         <f>'3'!L29</f>
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="M4" s="3"/>
       <c r="N4" s="68"/>
@@ -54449,7 +54437,7 @@
         <v>1908446141</v>
       </c>
       <c r="C14" s="20" t="s">
-        <v>28</v>
+        <v>45</v>
       </c>
       <c r="D14" s="29"/>
       <c r="E14" s="30"/>
@@ -54633,7 +54621,7 @@
         <v>1908446145</v>
       </c>
       <c r="C18" s="31" t="s">
-        <v>43</v>
+        <v>49</v>
       </c>
       <c r="D18" s="29"/>
       <c r="E18" s="30"/>
@@ -54725,7 +54713,7 @@
         <v>1908446147</v>
       </c>
       <c r="C20" s="20" t="s">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="D20" s="29"/>
       <c r="E20" s="30"/>
@@ -55168,39 +55156,39 @@
       <c r="C29" s="58"/>
       <c r="D29" s="48">
         <f>D4+D5-D28</f>
-        <v>430730</v>
+        <v>0</v>
       </c>
       <c r="E29" s="48">
         <f t="shared" ref="E29:L29" si="8">E4+E5-E28</f>
-        <v>4360</v>
+        <v>0</v>
       </c>
       <c r="F29" s="48">
         <f t="shared" si="8"/>
-        <v>10390</v>
+        <v>0</v>
       </c>
       <c r="G29" s="48">
         <f t="shared" si="8"/>
-        <v>70</v>
+        <v>0</v>
       </c>
       <c r="H29" s="48">
         <f t="shared" si="8"/>
-        <v>14575</v>
+        <v>0</v>
       </c>
       <c r="I29" s="48">
         <f t="shared" si="8"/>
-        <v>1131</v>
+        <v>0</v>
       </c>
       <c r="J29" s="48">
         <f t="shared" si="8"/>
-        <v>388</v>
+        <v>0</v>
       </c>
       <c r="K29" s="48">
         <f t="shared" si="8"/>
-        <v>155</v>
+        <v>0</v>
       </c>
       <c r="L29" s="48">
         <f t="shared" si="8"/>
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="M29" s="59"/>
       <c r="N29" s="60"/>
@@ -55540,39 +55528,39 @@
       <c r="C4" s="1"/>
       <c r="D4" s="2">
         <f>'4'!D29</f>
-        <v>430730</v>
+        <v>0</v>
       </c>
       <c r="E4" s="2">
         <f>'4'!E29</f>
-        <v>4360</v>
+        <v>0</v>
       </c>
       <c r="F4" s="2">
         <f>'4'!F29</f>
-        <v>10390</v>
+        <v>0</v>
       </c>
       <c r="G4" s="2">
         <f>'4'!G29</f>
-        <v>70</v>
+        <v>0</v>
       </c>
       <c r="H4" s="2">
         <f>'4'!H29</f>
-        <v>14575</v>
+        <v>0</v>
       </c>
       <c r="I4" s="2">
         <f>'4'!I29</f>
-        <v>1131</v>
+        <v>0</v>
       </c>
       <c r="J4" s="2">
         <f>'4'!J29</f>
-        <v>388</v>
+        <v>0</v>
       </c>
       <c r="K4" s="2">
         <f>'4'!K29</f>
-        <v>155</v>
+        <v>0</v>
       </c>
       <c r="L4" s="2">
         <f>'4'!L29</f>
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="M4" s="2">
         <f>'4'!M29</f>
@@ -56002,7 +55990,7 @@
         <v>1908446141</v>
       </c>
       <c r="C14" s="20" t="s">
-        <v>28</v>
+        <v>45</v>
       </c>
       <c r="D14" s="29"/>
       <c r="E14" s="30"/>
@@ -56186,7 +56174,7 @@
         <v>1908446145</v>
       </c>
       <c r="C18" s="31" t="s">
-        <v>43</v>
+        <v>49</v>
       </c>
       <c r="D18" s="29"/>
       <c r="E18" s="30"/>
@@ -56278,7 +56266,7 @@
         <v>1908446147</v>
       </c>
       <c r="C20" s="20" t="s">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="D20" s="29"/>
       <c r="E20" s="30"/>
@@ -56721,39 +56709,39 @@
       <c r="C29" s="58"/>
       <c r="D29" s="48">
         <f>D4+D5-D28</f>
-        <v>430730</v>
+        <v>0</v>
       </c>
       <c r="E29" s="48">
         <f t="shared" ref="E29:L29" si="8">E4+E5-E28</f>
-        <v>4360</v>
+        <v>0</v>
       </c>
       <c r="F29" s="48">
         <f t="shared" si="8"/>
-        <v>10390</v>
+        <v>0</v>
       </c>
       <c r="G29" s="48">
         <f t="shared" si="8"/>
-        <v>70</v>
+        <v>0</v>
       </c>
       <c r="H29" s="48">
         <f t="shared" si="8"/>
-        <v>14575</v>
+        <v>0</v>
       </c>
       <c r="I29" s="48">
         <f t="shared" si="8"/>
-        <v>1131</v>
+        <v>0</v>
       </c>
       <c r="J29" s="48">
         <f t="shared" si="8"/>
-        <v>388</v>
+        <v>0</v>
       </c>
       <c r="K29" s="48">
         <f t="shared" si="8"/>
-        <v>155</v>
+        <v>0</v>
       </c>
       <c r="L29" s="48">
         <f t="shared" si="8"/>
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="M29" s="59"/>
       <c r="N29" s="60"/>
@@ -57093,39 +57081,39 @@
       <c r="C4" s="1"/>
       <c r="D4" s="2">
         <f>'5'!D29</f>
-        <v>430730</v>
+        <v>0</v>
       </c>
       <c r="E4" s="2">
         <f>'5'!E29</f>
-        <v>4360</v>
+        <v>0</v>
       </c>
       <c r="F4" s="2">
         <f>'5'!F29</f>
-        <v>10390</v>
+        <v>0</v>
       </c>
       <c r="G4" s="2">
         <f>'5'!G29</f>
-        <v>70</v>
+        <v>0</v>
       </c>
       <c r="H4" s="2">
         <f>'5'!H29</f>
-        <v>14575</v>
+        <v>0</v>
       </c>
       <c r="I4" s="2">
         <f>'5'!I29</f>
-        <v>1131</v>
+        <v>0</v>
       </c>
       <c r="J4" s="2">
         <f>'5'!J29</f>
-        <v>388</v>
+        <v>0</v>
       </c>
       <c r="K4" s="2">
         <f>'5'!K29</f>
-        <v>155</v>
+        <v>0</v>
       </c>
       <c r="L4" s="2">
         <f>'5'!L29</f>
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="M4" s="3"/>
       <c r="N4" s="68"/>
@@ -57552,7 +57540,7 @@
         <v>1908446141</v>
       </c>
       <c r="C14" s="20" t="s">
-        <v>28</v>
+        <v>45</v>
       </c>
       <c r="D14" s="29"/>
       <c r="E14" s="30"/>
@@ -57736,7 +57724,7 @@
         <v>1908446145</v>
       </c>
       <c r="C18" s="31" t="s">
-        <v>43</v>
+        <v>49</v>
       </c>
       <c r="D18" s="29"/>
       <c r="E18" s="30"/>
@@ -57828,7 +57816,7 @@
         <v>1908446147</v>
       </c>
       <c r="C20" s="20" t="s">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="D20" s="29"/>
       <c r="E20" s="30"/>
@@ -58271,39 +58259,39 @@
       <c r="C29" s="58"/>
       <c r="D29" s="48">
         <f>D4+D5-D28</f>
-        <v>430730</v>
+        <v>0</v>
       </c>
       <c r="E29" s="48">
         <f t="shared" ref="E29:L29" si="8">E4+E5-E28</f>
-        <v>4360</v>
+        <v>0</v>
       </c>
       <c r="F29" s="48">
         <f t="shared" si="8"/>
-        <v>10390</v>
+        <v>0</v>
       </c>
       <c r="G29" s="48">
         <f t="shared" si="8"/>
-        <v>70</v>
+        <v>0</v>
       </c>
       <c r="H29" s="48">
         <f t="shared" si="8"/>
-        <v>14575</v>
+        <v>0</v>
       </c>
       <c r="I29" s="48">
         <f t="shared" si="8"/>
-        <v>1131</v>
+        <v>0</v>
       </c>
       <c r="J29" s="48">
         <f t="shared" si="8"/>
-        <v>388</v>
+        <v>0</v>
       </c>
       <c r="K29" s="48">
         <f t="shared" si="8"/>
-        <v>155</v>
+        <v>0</v>
       </c>
       <c r="L29" s="48">
         <f t="shared" si="8"/>
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="M29" s="59"/>
       <c r="N29" s="60"/>
@@ -58643,39 +58631,39 @@
       <c r="C4" s="1"/>
       <c r="D4" s="2">
         <f>'6'!D29</f>
-        <v>430730</v>
+        <v>0</v>
       </c>
       <c r="E4" s="2">
         <f>'6'!E29</f>
-        <v>4360</v>
+        <v>0</v>
       </c>
       <c r="F4" s="2">
         <f>'6'!F29</f>
-        <v>10390</v>
+        <v>0</v>
       </c>
       <c r="G4" s="2">
         <f>'6'!G29</f>
-        <v>70</v>
+        <v>0</v>
       </c>
       <c r="H4" s="2">
         <f>'6'!H29</f>
-        <v>14575</v>
+        <v>0</v>
       </c>
       <c r="I4" s="2">
         <f>'6'!I29</f>
-        <v>1131</v>
+        <v>0</v>
       </c>
       <c r="J4" s="2">
         <f>'6'!J29</f>
-        <v>388</v>
+        <v>0</v>
       </c>
       <c r="K4" s="2">
         <f>'6'!K29</f>
-        <v>155</v>
+        <v>0</v>
       </c>
       <c r="L4" s="2">
         <f>'6'!L29</f>
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="M4" s="3"/>
       <c r="N4" s="68"/>
@@ -59102,7 +59090,7 @@
         <v>1908446141</v>
       </c>
       <c r="C14" s="20" t="s">
-        <v>28</v>
+        <v>45</v>
       </c>
       <c r="D14" s="29"/>
       <c r="E14" s="30"/>
@@ -59286,7 +59274,7 @@
         <v>1908446145</v>
       </c>
       <c r="C18" s="31" t="s">
-        <v>43</v>
+        <v>49</v>
       </c>
       <c r="D18" s="29"/>
       <c r="E18" s="30"/>
@@ -59378,7 +59366,7 @@
         <v>1908446147</v>
       </c>
       <c r="C20" s="20" t="s">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="D20" s="29"/>
       <c r="E20" s="30"/>
@@ -59821,39 +59809,39 @@
       <c r="C29" s="58"/>
       <c r="D29" s="48">
         <f>D4+D5-D28</f>
-        <v>430730</v>
+        <v>0</v>
       </c>
       <c r="E29" s="48">
         <f t="shared" ref="E29:L29" si="8">E4+E5-E28</f>
-        <v>4360</v>
+        <v>0</v>
       </c>
       <c r="F29" s="48">
         <f t="shared" si="8"/>
-        <v>10390</v>
+        <v>0</v>
       </c>
       <c r="G29" s="48">
         <f t="shared" si="8"/>
-        <v>70</v>
+        <v>0</v>
       </c>
       <c r="H29" s="48">
         <f t="shared" si="8"/>
-        <v>14575</v>
+        <v>0</v>
       </c>
       <c r="I29" s="48">
         <f t="shared" si="8"/>
-        <v>1131</v>
+        <v>0</v>
       </c>
       <c r="J29" s="48">
         <f t="shared" si="8"/>
-        <v>388</v>
+        <v>0</v>
       </c>
       <c r="K29" s="48">
         <f t="shared" si="8"/>
-        <v>155</v>
+        <v>0</v>
       </c>
       <c r="L29" s="48">
         <f t="shared" si="8"/>
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="M29" s="59"/>
       <c r="N29" s="60"/>
@@ -60193,39 +60181,39 @@
       <c r="C4" s="1"/>
       <c r="D4" s="2">
         <f>'7'!D29</f>
-        <v>430730</v>
+        <v>0</v>
       </c>
       <c r="E4" s="2">
         <f>'7'!E29</f>
-        <v>4360</v>
+        <v>0</v>
       </c>
       <c r="F4" s="2">
         <f>'7'!F29</f>
-        <v>10390</v>
+        <v>0</v>
       </c>
       <c r="G4" s="2">
         <f>'7'!G29</f>
-        <v>70</v>
+        <v>0</v>
       </c>
       <c r="H4" s="2">
         <f>'7'!H29</f>
-        <v>14575</v>
+        <v>0</v>
       </c>
       <c r="I4" s="2">
         <f>'7'!I29</f>
-        <v>1131</v>
+        <v>0</v>
       </c>
       <c r="J4" s="2">
         <f>'7'!J29</f>
-        <v>388</v>
+        <v>0</v>
       </c>
       <c r="K4" s="2">
         <f>'7'!K29</f>
-        <v>155</v>
+        <v>0</v>
       </c>
       <c r="L4" s="2">
         <f>'7'!L29</f>
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="M4" s="3"/>
       <c r="N4" s="68"/>
@@ -60652,7 +60640,7 @@
         <v>1908446141</v>
       </c>
       <c r="C14" s="20" t="s">
-        <v>28</v>
+        <v>45</v>
       </c>
       <c r="D14" s="29"/>
       <c r="E14" s="30"/>
@@ -60836,7 +60824,7 @@
         <v>1908446145</v>
       </c>
       <c r="C18" s="31" t="s">
-        <v>43</v>
+        <v>49</v>
       </c>
       <c r="D18" s="29"/>
       <c r="E18" s="30"/>
@@ -60928,7 +60916,7 @@
         <v>1908446147</v>
       </c>
       <c r="C20" s="20" t="s">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="D20" s="29"/>
       <c r="E20" s="30"/>
@@ -61371,39 +61359,39 @@
       <c r="C29" s="58"/>
       <c r="D29" s="48">
         <f>D4+D5-D28</f>
-        <v>430730</v>
+        <v>0</v>
       </c>
       <c r="E29" s="48">
         <f t="shared" ref="E29:L29" si="8">E4+E5-E28</f>
-        <v>4360</v>
+        <v>0</v>
       </c>
       <c r="F29" s="48">
         <f t="shared" si="8"/>
-        <v>10390</v>
+        <v>0</v>
       </c>
       <c r="G29" s="48">
         <f t="shared" si="8"/>
-        <v>70</v>
+        <v>0</v>
       </c>
       <c r="H29" s="48">
         <f t="shared" si="8"/>
-        <v>14575</v>
+        <v>0</v>
       </c>
       <c r="I29" s="48">
         <f t="shared" si="8"/>
-        <v>1131</v>
+        <v>0</v>
       </c>
       <c r="J29" s="48">
         <f t="shared" si="8"/>
-        <v>388</v>
+        <v>0</v>
       </c>
       <c r="K29" s="48">
         <f t="shared" si="8"/>
-        <v>155</v>
+        <v>0</v>
       </c>
       <c r="L29" s="48">
         <f t="shared" si="8"/>
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="M29" s="59"/>
       <c r="N29" s="60"/>
@@ -61743,39 +61731,39 @@
       <c r="C4" s="1"/>
       <c r="D4" s="2">
         <f>'8'!D29</f>
-        <v>430730</v>
+        <v>0</v>
       </c>
       <c r="E4" s="2">
         <f>'8'!E29</f>
-        <v>4360</v>
+        <v>0</v>
       </c>
       <c r="F4" s="2">
         <f>'8'!F29</f>
-        <v>10390</v>
+        <v>0</v>
       </c>
       <c r="G4" s="2">
         <f>'8'!G29</f>
-        <v>70</v>
+        <v>0</v>
       </c>
       <c r="H4" s="2">
         <f>'8'!H29</f>
-        <v>14575</v>
+        <v>0</v>
       </c>
       <c r="I4" s="2">
         <f>'8'!I29</f>
-        <v>1131</v>
+        <v>0</v>
       </c>
       <c r="J4" s="2">
         <f>'8'!J29</f>
-        <v>388</v>
+        <v>0</v>
       </c>
       <c r="K4" s="2">
         <f>'8'!K29</f>
-        <v>155</v>
+        <v>0</v>
       </c>
       <c r="L4" s="2">
         <f>'8'!L29</f>
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="M4" s="3"/>
       <c r="N4" s="68"/>
@@ -62202,7 +62190,7 @@
         <v>1908446141</v>
       </c>
       <c r="C14" s="20" t="s">
-        <v>28</v>
+        <v>45</v>
       </c>
       <c r="D14" s="29"/>
       <c r="E14" s="30"/>
@@ -62386,7 +62374,7 @@
         <v>1908446145</v>
       </c>
       <c r="C18" s="31" t="s">
-        <v>43</v>
+        <v>49</v>
       </c>
       <c r="D18" s="29"/>
       <c r="E18" s="30"/>
@@ -62478,7 +62466,7 @@
         <v>1908446147</v>
       </c>
       <c r="C20" s="20" t="s">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="D20" s="29"/>
       <c r="E20" s="30"/>
@@ -62921,39 +62909,39 @@
       <c r="C29" s="58"/>
       <c r="D29" s="48">
         <f>D4+D5-D28</f>
-        <v>430730</v>
+        <v>0</v>
       </c>
       <c r="E29" s="48">
         <f t="shared" ref="E29:L29" si="8">E4+E5-E28</f>
-        <v>4360</v>
+        <v>0</v>
       </c>
       <c r="F29" s="48">
         <f t="shared" si="8"/>
-        <v>10390</v>
+        <v>0</v>
       </c>
       <c r="G29" s="48">
         <f t="shared" si="8"/>
-        <v>70</v>
+        <v>0</v>
       </c>
       <c r="H29" s="48">
         <f t="shared" si="8"/>
-        <v>14575</v>
+        <v>0</v>
       </c>
       <c r="I29" s="48">
         <f t="shared" si="8"/>
-        <v>1131</v>
+        <v>0</v>
       </c>
       <c r="J29" s="48">
         <f t="shared" si="8"/>
-        <v>388</v>
+        <v>0</v>
       </c>
       <c r="K29" s="48">
         <f t="shared" si="8"/>
-        <v>155</v>
+        <v>0</v>
       </c>
       <c r="L29" s="48">
         <f t="shared" si="8"/>
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="M29" s="59"/>
       <c r="N29" s="60"/>
